--- a/output/Total_time_range_data/黑龙江省/哈尔滨市_学习考察.xlsx
+++ b/output/Total_time_range_data/黑龙江省/哈尔滨市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1534 +436,1680 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>56</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>中共哈尔滨市委关于开展学浙闽找差距快发展讨论活动的通知</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2002-10-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200210/c01_83835.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['中共哈尔滨市委关于开展“学浙闽、找差距、快发展”讨论活动的通知 - 哈尔滨市人民政府', '为贯彻落实《中共黑龙江省委关于开展“学浙闽、找差距、快发展”讨论活动的通知》精神，进一步动员全市各级党组织和广大党员干部群众深入学习、借鉴浙闽两省加快发展的经验，通过认真查找我市与先进地区的差距，进一步增强解放思想、加快发展的责任感、紧迫感和使命感，不断确立加快经济发展的新思路、新目标、推动全市经济实现跨越式发展，市委决定，在全市组织开展“学浙闽、找差距、快发展”讨论活动。现将有关事宜通知如下： 一、指导思想。高举邓小平理论伟大旗帜，以“三个代表”重要思想为指导，深入学习浙闽两省加快发展的经验，对照先进找差距，进一步明确和完善我市实现跨越式发展的思路、途径、措施和办法。讨论活动要作为学习实践“三个代表”重要思想、学习传达党的十六大精神的具体措施，紧紧围绕发展这一主题，按照市委“立足现有、挖掘潜能，追逐应有、创新发展”的总体要求，坚持解放思想、与时俱进、创新发展”，破除旧观念、旧习惯，确立新理念、新办法。要把“学浙闽、找差距、快发展”讨论活动与我市正在开展的“学习‘三个代表’立目标、比照‘三个代表’找差距、实践‘三个代表’做贡献”学习教育活动有机结合起来，坚持一切为人民、一切为发展，认真落实省市新近出台的重要经济政策，放手发动群众，勇于实践，大胆创新，在全市迅速形成努力争先、加快发展的新局面。 \ue004 二、活动内容和时间安排。按照省委的统一部署，本次讨论活动大体分两个阶段进行：\ue004 第一阶段：学习宣传，查找差距。从现在至党的十六大召开为第一阶段，主要任务是深入学习江泽民同志“5.31”重要讲话和《江泽民论有中国特色社会主义》(专题摘编)，认真学习贯彻徐有芳同志在全省学习浙闽经验和加快经济发展会议上的讲话精神，在全市迅速兴起“学浙闽、找差距、快发展”的学习宣传热潮。一是组织党员干部重点学习省党政学习考察团关于浙闽两省加快发展基本经验的考察报告和省委、省政府《关于进一步促进个体私营经济加快发展的意见》、《关于鼓励外商、私营企业参与国有企业产权制度改革的意见》、《关于创建优良经济发展环境的决定》、《黑龙江省鼓励民间投资指导意见》等重要文件。二是积极宣传浙闽两省咬定发展不放松、积极大胆参与竞争、放手发展非国有经济、千方百计打造品牌、不断扩大对外开放和大力改善发展环境等方面的经验。三是各地区、各部门、各单位要利用报告会、座谈会、研讨会等多种形式开展学习讨论，借鉴浙闽两省经验，结合我市实际，按照市委“立足现有、挖掘潜能，追逐应有、创新发展”的总体要求，确立创新发展的新目标。四是各级党委要对照先进经验，围绕观念、政策、环境、作风等方面认真查找差距，特别是要认真查找思想观念上的差距。当前在各级领导干部中要有针对性地解决思想观念问题，即消除姓“公”姓“私”的心理余悸，放手发展非公有经济；消除国有企业改制会造成国有资产流失的疑虑，积极大胆地推进产权制度改革；消除“求稳怕险”的保守思想，真正做到敢闯、敢试、敢冒；消除重管理轻服务的传统思想，切实将政府职能从管理型转变到服务型上来。在广大群众中要着重消除怨天尤人、“等靠要”的依赖思想，“小富即安、小进即满”的小农思想，“大事干不来、小事不愿干”的庸懒思想和“老守田园”的封闭思想等。\ue004 第二阶段，制定措施，推进落实。党的十六大召开后进入第二阶段，主要任务是结合学习贯彻党的十六大精神，把讨论活动引向深入，使学习成果转化为加快发展的具体行动。各地区、各部门要抓住机遇，按照市委“立足现有、挖掘潜能，追逐应有、创新发展”的总体要求，借鉴浙闽两省的经验，把发展非国有经济作为加快发展的战略突破口，结合实际研究和制定扶持非国有经济特别是个体私营经济发展的措施。要围绕国有控股权放开、投资主体多元化、中小企业全部实行非国有化等问题制定措施，加快国有企业产权制度改革。要加大招商引资力度，吸引国内外客商来我市投资办厂、联合开发大项目，同时积极鼓励我市具备条件的企业走出去，发展外向型经济。要结合“新世纪哈尔滨人形象”建设，开展“环境就是生产力”的思想教育，引导全市人民树立“人人是环境、人人建环境”的意识，加快政府职能转变，减少行政审批和办事程序，重点围绕创建优良的舆论环境、政策环境、法制环境、服务环境、信用环境制定措施，进一步改善我市经济发展环境。 三、加强领导，抓好落实 (一)认真筹划，精心组织。各地区、各部门、各单位要把这次讨论活动摆上重要日程，在近期召开专门会议，认真研究制定工作方案，做好组织发动、学习讨论、制定措施等各方面工作。各级领导干部要带头学习宣传浙闽经验，带头解放思想，查找差距，深入实际，调查研究，解决制约和障碍我市发展的实际问题。 (二)明确责任，分类指导。按照谁主管、谁负责的原则，主要领导亲自抓，分管领导具体抓。要搞好分类指导、抓好各部门、各单位目标任务的分解和具体措施的落实。工商、税务、技术监督、规划、土地等部门和商会、行业协会等社团组织，在实际工作 中要坚持“服务是动机，执法是手段，发展是目的”的原则，在改善经济发展环境上求突破。\ue004 (三)突出重点，务求实效。开展讨论活动要立足于发展和创新，致力于解决思想和工作中的实际问题，真正在广大党员干部群众中树立起一切为了发展、一切围绕发展、一切服从发展的强烈意识和观念。要在实践中坚持用发展凝聚人心，注重在变化中捕捉机遇，在困难中寻求机遇，在发展中创造机遇，用发展解决困难，用发展衡量政绩。要清除干部群众的思想障碍和影响发展的体制、机制性障碍，使广大干部群众的思想观念和各级党政工作部门的工作思路、工作措施与时代同步，与市场对接，与国际接轨。要通过这次讨论活动，使全市上下更加深入地理解市委提出的“立足现有、挖掘潜能，追逐应有、创新发展”的总体要求，把促进全市经济社会发展的各项政策措施落实到实际工作中，为完成市委确定的各项重点工作做出新的贡献。\ue004 (四)加强舆论引导，搞好典型宣传。新闻宣传部门和大众媒体要搞好舆论引导，制定周密的宣传方案，有针对性地开展宣传活动。《哈尔滨日报》、市电台、电视台要开辟专栏、专版和专题节目，对浙闽经验进行广泛宣传，对讨论活动中涌现出来的好典型、好经验重点宣传推广，对严重破坏经济发展环境的反面典型予以曝光，在全市迅速形成浓厚的学习讨论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>56</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>哈尔滨市人民政府办公厅关于优化公文运转程序提高政务工作效率有关事宜的通知</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007-08-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200708/c01_84929.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['哈尔滨市人民政府办公厅关于优化公文运转程序提高政务工作效率有关事宜的通知 - 哈尔滨市人民政府', '各区、县（市）人民政府，市政府各委、办、局，中直、省属在哈单位： 为进一步促进公文处理工作的科学化和规范化，提高服务质量和工作效率，集中精力抓大事、议大事、办大事，根据《国家行政机关公文处理办法》和《哈尔滨市人民政府工作规则》的相关规定，经市政府同意，现就优化公文运转程序、提高政务工作效率有关事宜通知如下： 一、关于涉及资金请示类公文。凡涉及财政支出的，各地区、各部门（单位）一般应直接向市财政局函请，属市财政局职权范围内的事项，由市财政局酌情办理；需上报市政府审定的，由市财政局统一提出意见后报市政府，由市政府办公厅按规定程序呈批。涉及财力支持的，各地区、各部门（单位）一般应直接向市发改委函请，属市发改委职权范围内的事项，由市发改委酌情办理；需上报市政府审定的，由市发改委统一提出意见后报市政府，由办公厅按规定程序呈批。上述事宜，如各地区、各部门（单位）直接报市政府请示的，一般由办公厅提出拟办意见先转市财政局或市发改委提出意见后，再报市政府有关领导审定。 二、关于购车、购设备审批类公文。涉及购车、购物类事宜，各地区、各部门（单位）一般应直接向市财政局申报，属市财政局职权范围内的，由市财政局酌情办理；需市政府审定的，由市财政局提出意见后报市政府。凡直接报市政府的，由办公厅转市财政局按规定处理。 三、关于行政审批类公文。凡是需市政府行政服务中心审批的事项，一律到市政府行政服务中心办理，严格禁止“体外循环”。属于相关职能部门职权范围内可以解决的事项，应直接向相关职能部门提出请求；职能部门难以确定的，由职能部门提出具体意见呈报市政府审批。各地区、各部门（单位）呈报市政府涉及行政审批事项的公文，由办公厅转市政府行政服务中心办理；市政府行政服务中心办理有困难的，由市政府行政服务中心呈报市政府按规定程序签批。 四、关于信访转办类公文。凡是国家信访局、省信访办转交市政府办理的信访件，一般由办公厅直接转由市信访办办理，市信访办按照要求和有关程序将办结的信访转办件呈报市政府主管领导后，向上级转办单位回告办理情况。 五、关于邀请函类公文。各地发来的邀请函，明确邀请有关市政府领导参加的，由办公厅秘书处登记后，直接转办公厅市长会议秘书室阅办；凡没有明确邀请有关市政府领导参加的，一般先转相关部门提出意见后报市政府审定。 六、关于会议通知类公文。为减少公文运转环节，提高工作效率，凡是办公厅秘书处接到的各类会议通知，登记后直接转办公厅市长会议秘书室阅办。以市政府办公厅名义制发会议通知，归口由办公厅市长会议秘书室办理。各类领导小组会议，以领导小组名义制发会议通知；各职能部门召开的专门会议，需经常务副市长审批同意后，方可以市政府办公厅名义制发会议通知。 七、关于涉及外宾接待类公文。凡涉及国外或境外客人来我市进行参观、访问、考察或洽谈活动事宜，无论由哪个部门和单位邀请，一律由主办部门报市外侨办备案。涉及接待国外政要的，由市外侨办负责安排；属一般商务活动的，按照“谁邀请、谁负责”的原则，由邀请部门自行安排，相关事宜由市外侨办予以配合。涉及市政府领导出面的，应先报市外侨办审定，提出意见，由办公厅负责安排。 八、关于涉及内宾接待类公文。凡是外地副秘书长（含地市级）以上领导带队赴我市学习考察的或上级单位领导来我市检查或视察工作的，一般由市接待办提出接待方案，并按有关程序呈报市政府审批。涉及相关部门邀请客人来我市的，按照“谁邀请、谁接待”的原则，以相关部门为主接待并提出接待方案，由市接待办配合做好相关工作。 九、关于出国审批类公文。市政府序列的各部门（单位）上报涉及本部门正、副局级领导出国请假的请示，须经办公厅呈报分管副市长批准；各区、县（市）长出访请假的请示，须经办公厅呈报分管副市长、市长批准。市外事部门要在每年末对下年出国团组做出安排计划，报市外事领导小组研究确定。各地区、各部门（单位）拟在计划外安排团组或人员出国的，要单独报请。 十、关于邀请市政府领导参加活动类公文。为减少公文运转数量，对确需市政府领导出席的活动（含会议），如仅需请1位市政府分管领导出席，由承办部门与办公厅有关市长工作处沟通，办公厅市长会议秘书室备案，不再行文上报市政府；需请2位以上市政府领导出席的活动（含会议），要行文上报市政府履行公文审批程序。 十一、关于信息类公文报送。为提高工作效率和质量，办公厅秘书处接收到的信息类公文，统一归口由办公厅信息处经筛选处理后报送有关市政府领导参阅。 十二、优化运转程序，提高工作效率。在公文运转工作中，对“急件”实行专人专送，跟踪催办；对中共中央、国务院、省委、省政府文件和市委领导批示文件，按分工由专人负责办理催办并及时向市政府领导回告办理情况。 二○○七年八月十五日']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>56</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>哈尔滨市人民政府办公厅关于印发哈尔滨市人民政府领导重要公务活动管理细则和市政府各委办局和区县市政府主要负责人离哈请假事宜有关规定的通知</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2008-08-16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200808/c01_85192.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['哈尔滨市人民政府办公厅关于印发哈尔滨市人民政府领导重要公务活动管理细则和市政府各委办局和区县市政府主要负责人离哈请假事宜有关规定的通知 - 哈尔滨市人民政府', '哈尔滨市人民政府办公厅关于印发 哈尔滨市人民政府领导重要公务活动 管理细则和市政府各委办局和区县市政府 主要负责人离哈请假事宜有关规定的通知', '各区、县（市）人民政府，市政府各委、办、局： 《哈尔滨市人民政府领导重要公务活动管理细则》和《市政府各委办局和区县（市）政府主要负责人离哈请假事宜有关规定》业经2008年8月7日第31次市政府常务会议审议通过，现予以印发执行。 哈尔滨市人民政府办公厅 二〇〇八年八月十六日 哈尔滨市人民政府领导重要公务活动管理细则 市政府领导重要公务活动安排，要坚持精简、务实、效能的原则，让市政府领导从不必要的事务性活动中解脱出来，深入基层调查研究，集中精力处理解决重大问题。 一、安排原则 （一）市政府领导原则上出席下列重要公务活动： 1.国家组织的活动； 2.省委、省政府组织的活动； 3.市委、市政府组织的活动； 4.市人大及其常委会组织的、确需市政府领导出席的活动； 5.市政协组织的、确需市政府领导出席的重要活动； 6.各民主党派、群众团体和哈警备区等组织的、确需市政府领导出席的重要活动； 7.与外地市政府交往的重要活动； 8.重要的涉外、涉港澳台活动； 9.其他重要活动。 （二）市政府领导原则上不出席各部门、单位和区县（市）政府组织的论坛、庆典、剪彩、奠基、挂牌、揭幕、颁奖、演出、首发首映、地方节日、周年纪念等活动，不为各部门、单位和区县（市）政府组织的活动发贺信、贺电、题词和撰文。 （三）各部门、单位和区县（市）政府组织的具有重大政治、经济和社会影响的下列活动，视情况可安排市政府领导出席。 1.涉及对外交往的重大活动； 2.涉及军地关系的重大活动； 3.具有重大影响的工程项目活动； 4.国家或省、市知名大专院校、科研院所等企事业单位举办的具有重大影响的活动； 5.其他具有重大政治、经济和社会影响的活动。 （四）对来访的重要外宾、海外华人华侨和知名人士、港澳台政要及其他各界政要，按照党中央、国务院外事工作的有关规定，安排市政府领导出席会见。对重要来宾视情况可安排会谈、宴请或出席有关活动。 （五）对来我市视察的国务院及国家各部门领导、省委和省政府领导等，根据接待方案和要求，安排市政府领导参加有关活动。 （六）对来我市学习考察的外地市政府领导，本着热情、精简和对等的原则，根据接待方案和要求，安排市政府领导出席有关活动。 二、安排程序 （一）邀请市长出席的重要活动，由市政府办公厅提出建议，经秘书长审核后，呈报市长审定。 （二）邀请有关副市长出席的重要活动，由市政府办公厅按照市政府领导工作分工安排分管副市长出席。如分管副市长因故不能出席，按已实行的“AB角”制度，协调同组副市长出席，如同组副市长因故也不能出席、确需协调其他副市长出席的，由市政府办公厅提出建议，经秘书长审核后，呈报常务副市长或市长审定。 （三）同时邀请市委、市人大、市政府、市政协领导出席的重要活动，由市政府办公厅根据市委办公厅意见，按照市政府领导工作分工，安排有关领导出席。 （四）邀请市政府领导在市内出席的重要涉外、涉港澳台活动，由主办部门分别报市外侨办、台办提出审核意见后，报市政府办公厅协调安排。 （五）各省、市来函邀请市政府领导出席的活动，有明确邀请对象的，由市政府办公厅提出建议，经秘书长审核后，呈报有关市政府领导审定；未指明邀请对象的，由相关部门提出意见后，报市政府办公厅协调安排。 （六）同一活动原则上只安排一位副市长出席，确需两位副市长以上出席的，根据活动规模和规格，由市政府办公厅提出建议，呈报秘书长和有关市政府领导审定。 （七）各部门、单位和区县（市）政府不得直接向市政府领导个人呈送邀请出席活动的公文。未经市政府办公厅协调安排的活动，市政府领导原则上不出席。 三、工作分工 （一）市政府办公厅负责做好以下工作： 1.市政府领导出席重要公务活动的总体协调安排工作； 2.按有关规定负责重要公务活动的承办工作； 3.每周拟制《市政府领导一周政务活动预安排表》，呈报秘书长和市长审定，同意后在市政府电子政务网上发布。 （二）市外侨办、台办负责市政府领导出席的重要涉外、涉港澳台活动的审核、安排及外国政要的接待工作。属于一般商务活动的，按照“谁邀请、谁负责”的原则，由邀请部门自行安排，市外侨办、台办予以配合；没有明确邀请单位的，由市政府办公厅协调对口部门接待。 （三）市接待办负责市政府领导接待国内重要来宾的工作。属于一般商务活动的，按照“谁邀请、谁负责”的原则，由邀请部门自行安排，市接待办予以配合；没有明确邀请单位的，由市政府办公厅协调对口部门接待。 （四）市新闻办负责市政府领导重要公务活动的新闻报道工作。根据要求组织新闻单位记者参加相关活动，确定宣传范围，组织报道材料，审核或起草新闻稿件。 （五）市公安局负责做好市政府领导出席活动的安全保卫和交通疏导工作，确保出席活动领导的安全和现场交通秩序顺畅。 （六）活动主办部门要提前向市政府办公厅提交活动方案和背景材料。如需市政府领导讲话，应代拟讲话参考提纲等有关材料。上述材料经市政府办公厅或市政府研究室审核后，呈报出席活动的市政府领导审定。 本细则由市政府办公厅组织实施，并负责解释。 市政府各委办局和区县（市） 政府主要负责人离哈请假事宜有关规定 为进一步加强干部管理工作，确保政府机关工作正常运转，现就市政府各委办局和各区县（市）政府主要负责人离哈请假事宜规定如下： 一、市政府各委办局和各区县（市）政府主要负责人离哈，要填写《市政府各委办局和各区县（市）政府主要负责人离哈请假单》（以下简称《请假单》），经分管副市长同意后，由市政府办公厅一处报市长审批。经市长批准后，由一处将《请假单》返回提报部门，同时告知分管副市长工作处、市长会议秘书室和秘书处。 二、市政府各委办局和各区县（市）政府主要负责人出国（境），按照市外侨办的外事管理相关规定执行。 三、市政府各委办局和各区县（市）政府主要负责人请假返哈后，要及时向分管副市长工作处和一处销假，并由分管副市长工作处告知市长会议秘书室和秘书处。 四、市政府各委办局和各区县（市）政府主要负责人应认真遵守并严格执行本《规定》，市政府办公厅将对执行情况随时进行检查。对违反本《规定》者，视情况在全市范围内通报。 五、本规定由市政府办公厅负责解释。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>56</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>我省党政代表团赴天津学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650878580&amp;idx=1&amp;sn=e0c9442b32272b207f425bf6fb1a83e2&amp;chksm=bd0e39e38a79b0f5d525428f4136b6aff7ca1e72857087785e546db7b4fcb5f9363cf10569a5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['6月12日，我省党政代表团赴天津学习考察，全面贯彻习近平总书记重要讲话重要指示精神，认真落实党中央决策部署，学习天津经验，深化交流合作，加强京津冀协同发展和新时代东北全面振兴战略对接。两省市召开工作交流座谈会，天津市委书记陈敏尔主持并讲话，省委书记、省人大常委会主任许勤讲话。天津市委副书记、市长张工，省委副书记、省长梁惠玲分别介绍两地经济社会发展情况。天津市人大常委会主任喻云林、市政协主席王常松，省政协主席蓝绍敏出席。', '陈敏尔感谢黑龙江省长期以来对天津发展的大力支持。他说，此次黑龙江省党政代表团来津考察、共商合作，是贯彻以习近平同志为核心的党中央关于促进区域协调发展决策部署、对接落实京津冀协同发展战略和东北振兴战略的实际行动。通过深入交流，我们进一步加深了对习近平总书记关于推动东北全面振兴一系列重要讲话精神的理解，加深了对加强两省市交流合作重点和着力点的把握。当前，天津深入学习贯彻习近平总书记视察天津重要讲话精神，以推进京津冀协同发展为战略牵引，大力推动“四个善作善成”重要要求见行见效。天津和黑龙江具有独特的区位优势、发展优势，互补性强，合作空间大。我们要共同落实好习近平总书记关于加强国家重大战略对接的重要指示精神，深化两省市交流合作，共同促进京津冀协同发展、东北全面振兴。要在发展新质生产力上加强交流合作，用好两地科技、教育资源，强化协同创新和产业协作，促进科技成果双向转化，推动产业创新、提质增效。在推进高水平对外开放上加强交流合作，提升天津港服务辐射功能，共同发展多式联运，推动港口带物流、物流带经贸、经贸带产业，深度融入共建“一带一路”。在发展现代农业上加强交流合作，拓展种业创新协作，加强粮食产销储运对接，让更多黑龙江优质农产品进入天津市场。在深化文旅融合上加强交流合作，学习借鉴黑龙江经验做法，提升旅游服务品质，携手打造文旅品牌、开发旅游线路，共促旅游业高质量发展。', '许勤代表省委省政府对天津给予黑龙江的大力支持表示感谢。他说，习近平总书记亲自擘画推动京津冀协同发展和新时代东北全面振兴，引领两省市高质量发展取得新成就，让我们更加深刻领会“两个确立”决定性意义。天津坚持以习近平新时代中国特色社会主义思想为指导，奋力推进京津冀协同发展，现代化大都市建设取得显著成效。黑龙江和天津地处祖国开放前沿，肩负国家重大使命。新征程上，两省市共同贯彻落实习近平总书记重要讲话重要指示精神，推动京津冀协同发展和新时代东北全面振兴深度对接，共创两地现代化建设新局面。叠加大学大院大所创新优势，共建共享科创平台，加强关键技术联合攻关和成果转化，共同培育新质生产力。加强先进制造研发基地与重型装备生产制造基地协同，推进天津“1+3+4”与龙江“4567”现代化产业体系对接，加强高端制造、人工智能、航空航天等产业协作，打造更多大国重器。深化沿海开放与沿边开放互动，创新海陆空铁多式联运方式，携手建好自贸区等开放平台，更好服务国家开放大局。推动都市农业与现代化大农业强强合作，联手做好“粮头食尾”“农头工尾”文章，让“津农精品”“黑土优品”走向全国全球市场。促进古韵津门与美丽龙江文旅相融，学习天津传承保护优秀传统文化经验，创新文旅合作模式，共同开发客源市场，让中外游客感受天津文化底蕴、体验龙江绿水青山。', '在津期间，我省党政代表团考察了天开高教科创园、天士力大健康产业投资集团、天津古文化街。', '天津市领导刘桂平、周德睿、王力军、张玲；省领导杨博、陈少波、于洪涛、王永康、张起翔、张亚中、邵国强参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>56</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>我省党政代表团赴河北学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650878611&amp;idx=1&amp;sn=ae92e2c20c1f96a1dd476d243b7337ce&amp;chksm=bd0e39048a79b0120cde2484634e4a523162836e942bb4f1905fe37ad2bdcce827d4ccf9050f</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为全面贯彻落实习近平总书记重要讲话重要指示精神，深化区域交流合作，加强新时代东北全面振兴与京津冀协同发展战略对接，6月12日至13日，我省党政代表团赴河北学习考察。13日下午，两省召开工作交流座谈会，省委书记、省人大常委会主任许勤讲话，河北省委书记、省人大常委会主任倪岳峰主持会议并讲话。省委副书记、省长梁惠玲，河北省委副书记、省长王正谱分别介绍两省经济社会发展情况。省政协主席蓝绍敏，河北省政协主席张国华出席。', '河北是革命圣地，习近平总书记曾在这里工作，燕赵大地留下了人民领袖的思想印迹、精神印迹和实践印迹。我省党政代表团到雄安新区考察了规划展示中心、城际站项目，实地感受“千年大计、未来之城”的恢弘气势，切身感悟党的创新理论真理力量和实践伟力，更加深刻认识“两个确立”的决定性意义。代表团还考察了石药集团巨石生物制药公司、中电科产业基础研究院、石家庄正太广场城市更新项目、正定县塔元庄村等，学习河北创新发展、现代产业体系建设、乡村全面振兴等经验做法。', '他说，近年来，河北坚持以习近平新时代中国特色社会主义思想为指导，坚决扛起推动京津冀协同发展和高标准高质量建设雄安新区重大使命，推动疏解北京非首都功能取得重大阶段性成果，经济强省、美丽河北建设迈出新步伐，发展成就令人钦佩。', '习近平总书记对河北和黑龙江深切关怀、寄予厚望，两省牢记嘱托、感恩奋进，协同落实国家区域发展战略，努力把总书记擘画的宏伟蓝图变成美好现实。', '携手发展新质生产力，密切高校院所科研合作，加强科技攻关和成果转化联动，深化数字经济、生物医药、人工智能等产业协作，推进创新链产业链供应链对接，协同构建现代化产业体系。', '共同维护国家粮食安全，高质量推进高标准农田建设，加强盐碱地综合利用、种业创新、食品工业等领域合作，促进科技农业、绿色农业、质量农业、品牌农业发展，为国家千亿斤粮食产能提升作出更大贡献。', '互学互鉴改革开放经验，加强营商环境、制度型开放等工作交流，联手打造沿海沿边开放通道，推动中国•廊坊国际经贸洽谈会与中俄博览会、哈洽会等开放平台共用共享，更好服务共建“一带一路”。', '合力筑牢北方生态安全屏障，弘扬塞罕坝精神，建好“三北”防护林，推进经济绿色低碳转型，用好北京冬奥会经验，办好第九届亚冬会，共同拓展绿水青山、冰天雪地转化路径。', '共担新时代新的文化使命，加强文化遗产保护传承合作，促进燕赵文化与边疆文化、民族文化交流互鉴，大力弘扬西柏坡精神和东北抗联精神、大庆精神（铁人精神）、北大荒精神，为两地现代化建设凝聚强大精神力量。', '倪岳峰代表河北省委、省政府，向黑龙江省党政代表团表示热烈欢迎。他说，黑龙江省委、省政府深入贯彻习近平总书记重要指示精神，牢牢把握在国家发展大局中的战略定位，认真落实党中央关于推动东北全面振兴的决策部署，经济社会发展取得显著成效。河北将学习借鉴黑龙江成功经验，携手推动两省合作迈上新台阶。希望两省共同深化区域协调发展，加强京津冀协同发展与东北全面振兴重大国家战略的对接，促进先进生产要素顺畅流动；共同加强科技协同创新，推进两省高校、科研院所、科技企业交流合作，联合开展关键核心技术攻关，促进创新资源共享、成果共用和产业联动；共同促进产业对接协作，在推进传统产业升级、新兴产业壮大、未来产业布局上深化合作，合力推动种业振兴、奶业振兴，大力发展数字经济和先进制造业，培育和发展新质生产力；共同扩大高水平对外开放，充分用好中国•廊坊国际经贸洽谈会、中俄博览会等开放平台，深化港口、口岸合作，不断提升开放型经济水平；共同促进文旅融合发展，培育壮大冰雪经济和红色旅游、生态旅游、康养旅游，叫响两省旅游品牌；共同强化应急管理合作，加快完善防洪工程体系，加强在气象预警与灾害预报、抢险救援、应急演练、人员装备物资调配等方面协作，提高防灾减灾救灾能力，坚决维护人民群众生命财产安全。', '省领导杨博、陈少波、于洪涛、王永康、张起翔、张亚中、邵国强；河北省领导张超超、柯俊、张成中、周仲明、胡启生参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>56</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>中共哈尔滨市委哈尔滨市人民政府关于进一步发挥市专家咨询顾问委员会决策咨询作用的意见</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2005-06-12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104545/200506/c01_142624.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['中共哈尔滨市委哈尔滨市人民政府关于进一步发挥市专家咨询顾问委员会决策咨询作用的意见 - 哈尔滨市人民政府', '中共哈尔滨市委哈尔滨市人民政府关于进一步发挥市专家咨询顾问委员会决策咨询作用的意见', '中共哈尔滨市委 哈尔滨市人民政府\ue003 关于进一步发挥市专家咨询顾问委员会\ue003 决 策 咨 询 作 用 的 意 见', '为进一步发挥我市专家咨询顾问委员会（以下简称市专顾委）的决策咨询作用，推进领导决策的科学化、民主化，现提出如下意见。 \ue004 一、充分认识发挥市专顾委决策咨询作用的重要意义\ue004 1、当前，我国正处于经济与社会的重要转型期。这一时期既是发展的黄金期，也是矛盾凸显期，新情况、新问题不断出现，使领导决策度进一步加大。《中共中央关于加强党的执政能力建设的决定》明确指出，要改革和完善决策机制，推进决策的科学化、民主化；要有组织地广泛联系专家学者，建立多种形式的决策咨询机制和信息支持系统。市专顾委是市委、市政府在经济社会发展等方面对重大问题进行决策咨询的高层次参谋机构。充分发挥市专顾委的决策咨询作用，使其成为我市决策机制的重要环节和信息支持系统的重要组成部分，既是市委、市政府坚持民主决策的重要体现，也是实行科学决策的重要保证，对于贯彻落实党的十六大精神，提高各级领导决策水平，增强执政能力，坚持科学发展观，推进决策科学化、民主化，促进经济社会的全面、协调、可持续发展，构建社会主义和谐社会具有重要的现实意义和深远的历史意义。 二、进一步强化市专顾委的决策咨询职能\ue004 2、凡是需要市委、市政府作出的有关经济和社会发展的重大决策(包括全市经济社会发展战略，中长期发展规划，重大体制改革方案，重要法规、政策草案，重大工程项目)，要由市专顾委组织专家先期进行评估论证，并正式作出评估论证报告，供市委、市政府决策参考。\ue004 3、市专顾委在组织专家进行评估论证时，要从论证项目的实际需要出发，拓展选择专家的空间，打破界限、配齐配强相关领域的专家参加评估论证；也可以聘请具有丰富实践经验的专业人员参与评估论证，充分发挥智慧的集聚效应。市专顾委提交评估论证报告时，要充分考虑少数或个别专家的不同意见，甚至是反对的意见，必要时可将几种意见一并呈报，供决策者进行全面的分析研究，作出正确的抉择。\ue004 4、各地区、各部门、各单位委托市专顾委对重要决策进行评估论证时，主要领导（或主管领导）和提出决策预案的部门负责人要现场解答专家的疑问，认真听取专家的意见和建议。为使专家对评估论证项目进行充分的研究或必要的考察，项目文本和相关资料必须提前7天送到项目评估论证组的每位专家手中。\ue004 5、市委、市政府及评估论证项目的主管部门在酝酿重大决策过程中，可以委托市专顾委组织召开相关领域专家座谈会或听证会，并就有关问题向与会专家作以说明，征求专家的意见和建议，以保证决策方案的科学性、合理性和可行性。\ue004 6、市级领导要根据工作需要，每年给市专顾委布置研究课题；各级党政组织也可根据实际需要，向市专顾委提出立题建议。市专顾委在选择课题时，要紧密结合全市经济和社会发展实际，突出宏观性、战略性和前瞻性研究，对市委、市政府提出的课题和急需解决的事关全局的热点、难点问题要优先安排；在调查研究时，要把发挥专家群体优势同发挥专家各自专长紧密结合起来，坚持理论联系实际，科学分析和正确处理经济与社会、局部与整体、近期与长远、人与自然的关系，使决策建议既求是创新、又有效可行。要善于发现工作中带有倾向性、苗头性的问题，并及时组织专家研究摸索规律、提出建议，充分发挥专顾委决策咨询的作用。 \ue004 三、认真抓好决策咨询成果的利用与转化工作\ue004 7、对市专顾委的评估论证报告，决策负责人和决策机构要认真研究，对具有现实意义的建议，要立即予以采纳，并责成有关部门制定具体实施方案；对有重要价值和长远意义的建议，要责成有关部门将其纳入中、长期规划与计划，或拟制定的政策法规预案；对有创见性的新观点、新思路，要责成有关部门认真研究。 \ue004 8、建立健全决策咨询成果利用与转化情况的反馈和跟踪问效制度。市委办公厅、市政府办公厅要将市领导的有关批示意见列为督办事项；有关部门要将成果利用与转化情况及时反馈给市专顾委，以利于总结经验、发现不足、改进工作，充分调动专家顾问参与决策咨询工作的积极性。市专顾委要建立跟踪问效制度，适时组织专家对所论证的项目和所提的决策建议实施情况进行考察调研，及时发现新情况、新问题，提出新建议。\ue004 四、积极为专家咨询活动创造良好环境\ue004 9、利用现代信息技术，为决策咨询机构和专家了解决策者需求、经济社会发展态势以及获取比较全面的基础资料和研究数据支持，搭建便捷快速的交流平台。 市委、市政府及各部门（单位）的信息网站，要努力扩大信息源，及时更新信息内容；开设领导与专家之间决策咨询对话专栏，为进行互动式交流创造条件。 \ue004 10、各级党政领导，特别是市级领导同志，要按工作分工同专家顾问保持密切联系。深入基层调研或外出学习考察时，可根据工作需要邀请市专顾委的有关专家随行，以便于在实践中沟通交流，及时听取他们的意见和建议。市委、市政府召开有关经济和社会发展的综合性会议或重要专业会议，应邀请市专顾委领导或有关专家参加，为其了解市情、掌握领导决策意图和决策实施过程创造良好条件。市专顾委委员持市委、市政府颁发的《专家证》深入各部门（单位）调查研究时，各部门（单位）要认真介绍情况，如实地提供相关文件和资料；对需要配合研究的重要课题，要给予大力支持。 五、切实加强市专顾委自身建设 11、市专顾委委员要及时了解掌握党和国家的各项方针、政策，准确把握国际国内形势，特别是要全面了解省情、市情和我市经济社会发展思路、工作重点，为创造性地做好决策咨询工作奠定基础。市专顾委要有计划地组织报告会、座谈会、研讨会和赴外地考察学习等活动，开阔专家视野，不断提高决策咨询能力。\ue004 12、市专顾委委员要进一步发挥自身优势，坚持“前瞻、创新、求是、直谏”的原则，不断强化责任意识、参与意识和大局意识，强化战略性研究，拓宽服务领域和内涵，努力提高决策咨询工作水平。要带着问题深入实际调查研究，把理论与实践、需要与可能紧密结合起来，发现和掌握事物发展的内在规律，积极探索解决问题的新思路、新对策。要敢于讲真话、报实情，敢于发表不同意见，以科学务实的态度切实可行的建议当好领导决策的参谋。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>56</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>企业要按比例足额提取教育培训经费资金投入不足导致后果的由企业主要负责人承担责任</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2011-09-27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c107876/201109/c01_126303.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['企业要按比例足额提取教育培训经费 资金投入不足导致后果的由企业主要负责人承担责任 - 哈尔滨市人民政府', '在近日召开的全国安全生产教育培训和人才工作会上，市安监局常务副局长刘星明同志代表我市所作的《坚持责任人和员工没有受到教育不放过，建立事故单位全员培训工作机制》的典型经验发言，得到国家总局高度认可，获得大会一致好评。', '会议传达了国务院常务会议、国务院安委会全体会议精神，中央和国务院领导关于加强安全生产工作的重要指示和决策部署；进行了经验交流，8个单位大会发言，12个单位书面交流；为与会人员解读了《安全生产人才中长期发展规划（2011-2020年）》（下称《中长期规划》），部署了安全教育培训和人才工作。', '会议强调作为企业安全生产工作3大对策和监管监察工作4大支柱之一的安全教育培训，是从源头和根本实现安全生产、建立长效机制的重要基础工作，是最具潜力、最可依靠、最有效益和成本低、见效快、回报率高的基础性安全投入，是减少人员伤亡、实现安全生产的有力措施。', '为促进“人才强安”战略的实施，必须明确5个目标，树立5个理念，坚持7项制度，落实4个责任，履行6项职责，突出4个对象，抓住5个关键环节，为实现安全生产形势根本好转提供人才保证和智力支持。', '（一）以《中长期规划》为依据，紧紧抓住有力契机，争取资金和政策支持，加快安全生产教育培训基地建设。', '（二）落实《中长期规划》和国家安监总局的工作部署，建立考试中心，将市安全宣教中心主要工作职责转变为考试工作管理，并纳入参照公务员管理单位。', '（三）学习借鉴上海市农民工培训工作经验，协调有关部门，争取政策支持，共同开展农民工强制性培训工作。', '（五）学习考察宝钢集团体感式培训经验，推进哈尔滨电机厂——市安全宣传教育基地建设。', '（七）各区县（市）建立四级培训机构，开展区县（市）属企业负责人、管理人员和从业人员安全生产教育培训。', '（八）按照省局意见，由市安监局牵头指导各区县（市）建立四级培训机构，编制四级培训机构从业人员培训教材，建立管理信息平台等工作。', '（九）落实省局部署，做好“黑龙江省安全生产教育培训暨事故单位全员培训哈尔滨现场会”筹备工作。', '（十）在全市推广哈尔滨大剧院施工工地、哈尔滨电机厂有限公司、哈尔滨电业局、哈尔滨松江钼业有限公司、华润雪花啤酒（黑龙江）有限公司等8家安全管理先进典型，充分发挥先进典型的示范引领辐射作用，促进企业安全教育培训和安全管理水平的不断提高。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>56</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>打造价格工作品牌促进市域经济发展</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2007-01-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200701/c01_84750.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['作为维护哈尔滨市场价格秩序的主力军，我局始终奋战在经济战线的最前沿。多年来，坚持以邓小平理论和“三个代表”重要思想为指导，认真落实科学发展观和构建社会主义和谐社会的重大战略思想，不断在价格法制建设、价格体制改革、价格监管方式、价格服务质量、作风素质提高等方面求突破，谋发展。连续多年被国家发改委和省物价局评为价格工作先进单位，被省委、省政府评为“两风”建设先进单位，并多次被市委、市政府评为整顿市场经济秩序、清费治乱、普法工作、党风廉政建设、调查研究和扶贫济困等方面工作的标兵与先进单位。\ue004 加强价格调控，稳定市场物价 \ue004 为保持价格总水平与国民经济增长相协调、稳定发展的态势，促进经济社会全面协调可持续发展，我局不断加大工作力度，在市委、市政府的正确领导和各有关部门的大力支持下，坚持以经济手段和法律手段为主，辅之必要的行政手段，加强和改善价格调控，相继完善了重要商品储备、价格调节基金、价格监测分析预警等项制度，增强了价格调控能力。同时，通过完善粮食价格调控机制，切实落实中央确定的惠农政策，合理引导市场预期，确保了粮食价格稳定，促进了全市粮食生产和农民增收，为保持价格总水平基本稳定奠定了基础。特别是通过建立价格应急机制，主动出击，适时干预，成功应对了非典和禽流感疫情、粮油及生产资料价格上涨、煤电油全面紧张、国际油价大幅攀升、松花江水体污染等因素引发的价格异常波动，维护了群众利益和社会稳定，并且积累了在复杂情况下保持价格稳定的宝贵经验。在去年应对松花江水体污染引发市场抢购、价格波动事件中，由于我局反映快速、措施正确、应对及时，受到了市委、市政府的表彰和国家发改委的通报表扬。《中国经济导报》和《价格理论与实践》杂志分别以“一场特殊的战斗，哈尔滨市物价局应对松江江水体污染工作记实”为题作了专题报道。\ue004 深入清费治乱，减轻社会负担 \ue004 几年来，我局始终围绕党和政府的中心工作，把改善经济发展环境作为价格工作的重中之重，花大气力整治影响市域经济发展环境的各种乱收费行为，严格控制行政事业性和服务性收费，取消不合理收费，全面实行收费许可证制度和企业负担登记卡制度。在清费治乱中，一是抓宣传，营造舆论氛围。除日常宣传外，我局于2005年5月至6月，开展了“哈尔滨市经营者价格诚信宣传月”活动，在《哈尔滨日报》公布了《哈尔滨市物价局开展经营者价格诚信活动实施方案》以及17家商业企业的《取道于诚、信行天下——关于推进价格诚信建设开展价格诚信活动的倡议书》，接受全社会的监督，并在企业自愿服名、基层物价部门驻店指导、社会各界监督、市物价局严格考核的基础上，评选出首批16个市级价格诚信单位，予以挂牌表彰，取得了良好的效果；二是抓清理，简政减负。将企业和群众反映强烈的行政事业不合理收费、培训办班收费、学会协会收费作为清理的重点。仅2004年一年，就取消、暂停、降低101项收费，减少、降低收费标准841个，共减少收费金额3039万元；三是抓治乱，重拳出击。为巩固清理整顿成果，我局加大监督检查力度，采取属地检查、下查一级、部门协作、媒体配合等方式，重点查处涉企、涉农，以及教育、医疗等乱收费行为。“十五”时期，全市物价系统先后对51个部门280项收费进行了清理，审验收费许可证8699个，审验行政事业性收费金额41.3亿元，累计清理取消各种乱收费585项，每年为企业和群众减轻负担2.5亿元。2005年,经多次调研、论证、协调，以政府令形式出台了《哈尔滨市行政机关培训收费管理办法》和《哈尔滨市行政事业收费监督规定》，加强了培训办班的收费管理，取消强制性培训收费166项，为企业减轻负担3200多万元。\ue004 运用价格杠杆，促进经济发展 \ue004 按照科学发展观的要求，我局始终坚持统筹兼顾，有效地发挥价格杠杆作用。一是按照保持经济平稳较快发展的要求，既注重运用价格杠杆促进基础设施建设，努力扩大投资需求，又注重运用价格手段改善住房、通讯、旅游、教育、医疗、商服等消费环境，着力扩大消费需求。二是按照加快转变经济增长方式的要求，实行有利于节约资源的价格政策，强化节约意识，促进了节约资源的消费模式的形成。三是按照建设和谐社会的要求，牢固树立以人为本理念，在注重运用价格杠杆促进经济社会协调发展，调节收入分配，控制垄断行业过高收入，对弱势群体实行政策倾斜的同时，特别注意解决关系人民群众切身利益的价格热点和难点问题。四是按照深化改革的要求，不断加快完善反映市场供求状况和资源稀缺程度的价格形成机制，更好地发挥市场在资源配置中的基础性作用。“十五”时期，全市物价部门采取收费资金质押贷款、收费权资本化等方式，先后为二环快速干道、垃圾及污水处理等筹集资金50亿元；积极疏导价格矛盾，相继调整、制定了城市供水、经济适用住房、物业、风景区门票等价格和收费，调价额累计达2.4亿元；认真测算，积极申报，促使全市基础设施配套费征收标准调整方案得到及时批复，每年可征收额达1.6亿元，增强了政府归集收费的能力；目前正在大力推进的城市自来水及污水价格改革，将大大促进我市资源节约型和生态保护型社会建设。\ue004 开展监督检查，维护市场秩序 \ue004 按照“服务大局、围绕中心、依法治价、提高水平、开拓进取、与时俱进”的总体要求，我局始终不断加大价格监督检查工作力度，大力整顿价格和收费秩序。几年来，相继开展了涉农、医疗药品、教育、电力、交通等涉及垄断行业、公益服务、公用事业方面的价格与收费专项检查和以推行明码标价、禁止价格欺诈为突破口的节日及旅游黄金周期间零售市场价格监督检查，规范了不正当价格行为，维护了正常市场价格秩序和广大市民的合法权益。〖JP4〗“十五”期间，累计查处价格违法案件1.85万件，〖JP〗实施经济制裁总额1.07亿元；大力推行价格、收费政务公开，在各区、县（市）设置涉农价格和收费公示牌2547块、居民消费价格公示板1000块，进一步扩大了社会监督，有效防止了乱收费行为；深入开展价格诚信活动，营造了诚实守信的经营氛围。\ue004 发挥职能作用，开展公共服务 \ue004 在开展日常工作的同时，我局还注重转变思想，转变观念，寓服务于管理之中，积极开拓新的工作领域，不断强化价格服务职能，得到了社会各界的认可和好评。“十五”期间，开通了计算机网络，实施了对625种重要商品价格的监测分析，通过密切关注市场动态，围绕政府和群众关心的重点、热点、焦点问题，为政府宏观调控提供了大量价格数据；价格评估发展到赃物评估、保险理赔、车损评估、旧汽车交易等11个领域，评估额达9.9亿元，为企业改革重组、搞活国有资产和招商引资提供了优质服务；价格调节基金累计征收12437万元，投放使用3478万元，在平抑灾区和节日市场价格、扶持绿色食品生产和批发市场建设、帮助特困职工等方面发挥了重要作用；开通了 12358价格举报电话，努力上为政府分忧，下为百姓解愁。共受理投诉举报案件2483件，价格政策咨询57868件，向举报人退还多收价款881.56万元，办结率达100％，进一步叫响了“12358”价格品牌；通过编发《农价短讯》，印发《居民消费价格指南》，发送《物价公报》，编辑《价格协会通讯》，在省市农业信息网和生活报等媒体发布主要副食品价格行情等，加大了面向农民、企业和社会的信息服务力度，正确引导了生产和消费；加强农产品生产成本收益情况调查与发布，帮助农民找到了提高效益、增加收入的新途径；积极开展了水、电等方面价格和收费的调查、测算、监审等工作，理顺了价格关系，解决了价格矛盾，促进了社会公用和公益事业发展；加强对外服务“窗口”建设，实行“一口对外、内部运作、跟踪问效、全程服务”， 树立了忠于职守，高效快捷，服务热情的良好形象；深入开展调查研究，2005年完成的《从价费水平看哈尔滨城市竞争力》课题得到史文清副市长的重要批示，分别被省物价局和市社科联评为一等奖。\ue004 搞好队伍建设，提高行政能力 \ue004 为促进机关精神文明建设，增强干部职工综合素质，提高价格工作落实科学发展观的能力，我局相继开展了“强素质，提效率，当龙头”、“转变作风年”、“价格服务年”、“求真务实年”等活动，通过理论学习、业务培训、专题研讨、学习考察、实地调研等多种形式，积极打造学习与工作、竞争与交流、探索与实践、创新与发展为一体的局内部学习平台，逐步建立健全考学、督学、评学机制，着力抓好干部素质建设，取得了明显成效。全局上下工作作风得到进一步转变，工作效率大幅提高，服务意识大大增强，机关风气变化巨大，干部职工精神面貌焕然一新，文明执法，文明办案，为百姓办实事蔚然成风，树立了勤奋敬业、依法治价的物价干部队伍形象。\ue004 跟随“十一五”奋进的步伐，我局将继续以科学发展观为统领，积极应对新时期、新形势对价格工作更高更新的要求和挑战，在深化价格改革与稳定物价，加强价格调控与发挥市场机制作用，控制物价涨幅与促进经济发展等方面，做出新的、更大的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>哈尔滨市人民政府办公厅转发市菜篮子工作领导小组办公室关于年我市无公害蔬菜产销工作意见的通知</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2003-05-12</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104545/200305/c01_142271.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['哈尔滨市人民政府办公厅转发市菜篮子工作领导小组办公室关于2003年我市无公害蔬菜产销工作意见的通知 - 哈尔滨市人民政府', '哈尔滨市人民政府办公厅转发市菜篮子工作领导小组办公室关于2003年我市无公害蔬菜产销工作意见的通知', '哈尔滨市人民政府办公厅转发市菜篮子工作领导小组办公室 关于2003年我市无公害蔬菜产销工作意见的通知', '为加快提供优质、安全的无公害蔬菜，抓好生产基地、质量检测、市场流通体系建设，满足城乡居民对无公害蔬菜日益增长的需要，促进菜篮子工程建设再上新台阶，现就我市2003年无公害蔬菜产销工作提出如下意见： 一、统一规划，进一步完善无公害蔬菜产销体系建设 （一）完善无公害蔬菜生产体系建设。一是全面推行标准化生产，加强源头管理。把无公害蔬菜生产源头作为工作的切入点，从基地选址，品种选择，培育秧苗到肥、水、药等农业生产资料的使用上，要按照《无公害蔬菜生产安全标准》及《无公害蔬菜生产技术规程》进行操作，通过标准化的全面实施，使无公害蔬菜朝着品牌、品质、品味的方向发展。要在加强农业生态环境网络监测的基础上，建立生产保护园区，整治周边环境，防止污染因素渗入。 二是优化基地布局，增加无公害蔬菜产量。年内完善和新建无公害蔬菜基地5万亩，环境监测面积达到20万亩，力争为市场提供无公害蔬菜50万吨，品种20个以上。计划新建的2万亩无公害蔬菜基地，以蔬菜加工企业为龙头，在道里区的榆树乡、新发乡、太平镇重点发展规模无公害蔬菜基地，在塑料大棚、日光温室、节水管网、遮荫网、防虫网等措施方面，以及化肥、农药等使用上进行配套建设。同时，在海南省建设1处万亩油豆角生产基地，在郊区建设2处淡季果菜生产基地，以增加冬春淡季蔬菜市场供应和出口创汇份额。\ue004 （二）完善无公害蔬菜产品检测体系建设。一是要充分发挥市无公害蔬菜检测中心、检测分站和检测小分队的作用，在全市形成自上而下、集中而又分散的检测网络，今年对无公害生菜、油菜、茼蒿、黄瓜、番茄、茄子、青椒、豆角、西葫芦、白菜、胡萝卜、大葱和土豆等14个品种进行重点检测，实行市场准入。二是设在蔬菜公司批发市场的检测分站，要重点对无公害蔬菜批发销售环节进行定性、定量检测，防止无公害蔬菜在批发时出现以次充好，以假充真现象发生。其他检测分站要重点进行质量监控，并逐步完善管理手段。三是在地产无公害蔬菜上市期间，由各检测小分队负责各区无公害蔬菜基地村的监控，利用快速检测设备对无公害蔬菜采摘上市进行检测，对有疑问的无公害蔬菜带回中心进行定量检测分析，确保采摘上市的无公害蔬菜的质量。四是从市检测中心到分站和小分队都要加强对无公害蔬菜定点商店、超市专柜、农贸市场专销区零售环节的检测，凡定点专柜和专区都要设立快速检测设备，以供经营者和消费者自检，确保无公害蔬菜销售的质量。五是建立无公害蔬菜检测结果公布和发布制度，定期公布无公害蔬菜质量检测情况。\ue004 （三）完善无公害蔬菜市场体系建设。一是市蔬菜公司批发市场要按照国家“三绿工程”要求的绿色批发市场标准，加强市场硬件设施建设，建立电子屏幕公布上市无公害蔬菜检测标准、检测品种合格率以及产地和市场价格等信息，为经营者服务。二是规范无公害蔬菜定点销售管理，按照标准对已设立的专柜、专区、配送中心进行全面整顿，实行定点挂牌动态管理，对连续三次发现质量问题的，取消定点挂牌经营资格，并在媒体曝光。三是凡定点挂牌经营无公害蔬菜的商店、超市、农贸市场，都要索取检测凭证并进行公示，以接受消费者的监督。四是扩大无公害蔬菜销售阵地，全市计划安排10处农贸市场，各区要按条件选取一至二处规模较大、管理规范的农贸市场，设立无公害蔬菜专销区。市蔬菜批发市场和各区季节性蔬菜批发市场都要设立无公害蔬菜批发专销区，在专销区经营无公害蔬菜的批发大户要挂牌批发，以方便经营者和消费者，扩大无公害蔬菜经营。五是实施“场地挂钩”，引导蔬菜批发市场、配送中心、农贸市场、商店、超市与无公害蔬菜基地建立销售网络，加强管理，建立可追溯的标识制度，对有问题的蔬菜产品实行警示和退出制度。六是增加无公害蔬菜专用运输车辆的配备，在道里、道外、南岗、太平和香坊区配备无公害蔬菜专用车10台。\ue004 二、加快立法，规范无公害蔬菜产销的管理 在实施《哈尔滨市无公害食品管理办法》的基础上，上半年组织有关部门赴外地学习考察，结合我市的实际情况，力争下半年提出《哈尔滨市无公害蔬菜生产、检测、销售管理办法》。目前无公害蔬菜的管理难以到位，主要是缺少管理的法律依据，要借鉴北京、上海、杭州、广州等城市的做法，加快建立规章立法的速度，为全面加强无公害蔬菜市场的管理提供法律保证，促进无公害蔬菜尽快走上法制化轨道。\ue004 三、广泛宣传，为无公害蔬菜实行市场准入制度创造舆论氛围 要通过各种新闻媒体、会议、培训、农村板报、监测版报、宣讲团等多种形式和途径宣传无公害蔬菜，增强生产、经营者的法制和道德观念，增强消费者监督和自我防范意识，使无公害蔬菜工作深入人心，家喻户晓，形成齐抓共管的局面。同时，要不断总结经验，宣传工作的典型事例，对个别典型违法案例要批评、曝光，对责任人要严厉处罚。\ue004 四、营造宽松环境，扶持无公害蔬菜产销健康发展\ue004 （一）继续给予资金扶持。今年市政府从副食品风险基金、价格调节基金、农业发展基金中安排400万元资金，用于无公害蔬菜生产、流通、检测体系建设。\ue004 （二）继续实行无公害蔬菜产销优惠政策。对产地和进入批发市场、农贸市场、商店、超市的无公害蔬菜实行免费检测；对棚室和保护地生产的无公害蔬菜给予税收优惠；对运输无公害蔬菜的专用车辆，凭公安、交通部门发放的通行证，免收过路过桥费，且不受市区禁行路和禁行时间限制；对进入蔬菜批发市场交易和定点设立专柜、专销区销售的无公害蔬菜，给予工商税费优惠。\ue004 五、明确责任，切实加强对无公害蔬菜产销工作的领导 按照“市区分工、以区为主”的原则，对无公害蔬菜工作实行目标管理，实行市区联动，部门联合，条块结合，层层分解，一级抓一级。市环保部门负责蔬菜无害化生产环境监测与无公害蔬菜基地的设立审批和管理工作；市农业部门负责基地建设与无公害蔬菜生产技术推广，基地蔬菜农药残留的自我检测和农药销售使用的监督管理；市商业部门负责市级蔬菜批发市场及定点销售商店超市的设立和管理；市质量技术监督部门负责基地蔬菜、外埠蔬菜以及批发市场、农贸市场、定点销售商店、超市蔬菜品质的全面监督，会同农业部门组织地方标准的宣贯与实施，协助工商部门查处不合格蔬菜；集贸市场（早、夜市）无公害蔬菜定点交易专区的质量管理由谁主办谁负责，市区工商行政管理部门要加大监管力度；市农业、质量技术监督、供销部门负责农药、化肥销售环节的管理和适用农药、化肥宣传、推广、销售工作。建立工作联系制度、信息反馈制度和重大节日、会议、旅游外事活动期间蔬菜食用预警制度，坚决杜绝因食用农药残留超标引起的集体急性中毒事件。要定期考核工作情况，实行奖励制度。市菜篮子办公室要搞好调查研究，组织工作交流，协调有关部门每月开展一次联合稽查。市物价、财政、税务、公安、交通等部门要对此项工作给予支持。 \ue003\ue003 哈尔滨市菜篮子工作领导小组办公室 二00三年四月二十五日']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>56</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>哈尔滨新闻早报牡丹江市政法队伍教育整顿学习考察团到我市东莱街派出所学习考察第七届中俄博览会将于月在俄叶卡捷琳堡举行我省加强整治农村乱占耕地建房行为我省社工服务机构超个近七千人从业近万人受益中共黑龙江历史</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-03-22</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://weibo.com/2753006425/K7k9PePqd?from=page_1001062753006425_profile&amp;wvr=6&amp;mod=weibotime</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['#哈尔滨新闻早报#【牡丹江市政法队伍教育整顿学习考察团到我市东莱街派出所学习考察】【第七届中俄博览会将于7月在俄叶卡捷琳堡举行】【我省加强整治农村乱占耕地建房行为】【我省社工服务机构超230个 近七千人从业 近15万人受益】【中共黑龙江历史纪念馆恢复开放 观众须实名制预约免费参观】【哈市双休日祭扫人数同比减少超七成】【2022年底国省干线总体路况将达到全国平均水平】']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>56</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>关于年度工作总结及年工作计划</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-12-29</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c107074/202312/c01_956732.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['局主要领导撰写的《关于健全完善我市法治政府建设示范创建工作机制的实践与思考》被市委《情况与交流》第7期全文刊发。', '科学拟定2023年全市立法工作计划，完成《哈尔滨市出租汽车客运管理条例（草案）》的立法审查工作。三是突出重点对象学法用法和法治乡村建设工作，顺利完成我市“八五”普法规划工作中期评估验收，相关工作受到省评估组一致好评。', '联合道外区委、区政府举办“崇尚法典精神·共创美好生活”庆祝《中华人民共和国民法典》颁布三周年', '哈尔滨市“法治乡村建设专项行动”普法宣传故事会暨道外区团结镇东风村法治文化广场揭幕仪式活动信息被多家国家级媒体刊发采用。', '积极探索法治乡村建设新时代龙江“千万工程”模式，以高质量普法依法治理工作，赋能全市乡村振兴，经验做法在中央电视台社会与法频道播出，被', '推进乡村“法律明白人”工作经验得到央视网全面报道。以法治宣传教育推动松花江流域生态保护和经济社会高质量发展为主题,主办的“松花江普法行”主题集中宣传日活动信息被多家省市媒体刊发采用。', '在全省二、三季度优化营商环境专项考核中被评为优秀等级。开展重点执法领域解决市场主体和群众“办事难”中的执法突出问题专项监督行动，组织行政执法监督检查888次，办理问题线索和投诉举报1', '件，参加各类专题会议45次。推动“府院联动”诉源治理实践，与哈尔滨市铁路运输法院的深度配合，促成《行政争议诉源治理工作备忘录》签约及行政争议诉源治理中心设立，开启行政案件诉源治理新格局。', '市政府合同履约管理开展深度调研，形成《政府合同管理内外部风险防范机制研究》调研报告，荣获第三届“龙江法治论坛”暨学习宣传贯彻党的二十大精神征文活动一等奖，以及第三十四届全国副省级城市法治论坛主题征文活动优秀奖。', '一是高质量推进矛盾纠纷排查化解专项行动，深度实践“专项＋专班”工作模式，调处纠纷28432件、司法确认1200件，同比增长5.3%、43%，成功率达98.2%，受到省司法厅充分肯定。加强诉调对接，形成诉讼服务中心实体化运作等十条工作意见，派驻调解组织24个，累计调解纠纷6505件。继续完善“四所一庭一中心”衔接联动机制，全年化解矛盾纠纷17107件。择优推荐的1个调解组织和2名调解员受到司法部表彰，平安龙江建设刊发我市经验做法。开展“枫桥式司法所”创建工作，推进规范化司法所建设，抢先抓早完成4家司法所脱薄出列工作，全面夯实司法行政基层基础。目前，全市司法所工作人员960人，所均3.3人，同比增长15%。', '二是创新开展律师调解工作，设立哈尔滨市律师协会律师调解专门委员会，印发《关于开展律师参与诉调对接工作的实施意见》，全市律师参与调解案件768件，化解524件，化解率68.2%。圆满', '。积极推进公证行业信息化建设，全市21家机构全部开通在线办理公证服务，19家机构开通视频办证服务，办理公证1984件，两家机构成为司法部海外远程视频公证试点单位。加大司法鉴定行业监管力度，累计作出行政处罚（处理）25件，约谈6家、通报4期，认真开展鉴定机构诚信等级评估，3家机构被省司法厅评为A级，占全省的37%。', '深入开展“法律援助惠民生”专项行动，共受理法律援助案件3968件，接待解答各类咨询2.7万人次，', '等多家分支机构，顺利承办第三届中俄博览会 (哈洽会)国际仲裁法律服务论坛，积极参加哈洽会、2023哈尔滨冰雪博览会等各类公益普法活动及行业博览会，邀请俄罗斯滨海边疆区律师协会、俄罗斯联邦法学家代表团、萨哈(雅库特)共和国代表团开展访问座谈，全面加速东北亚国际仲裁中心建设步伐。全年共', '四是积极推进涉外法律服务工作，成立涉外法律服务专业委员会，组建由34名律师组成的涉外律师法律服务人才库，选报7名律师为省涉外法律服务专家库成员，黑龙江星河律师事务所成立全国首家律师事务所对俄法律服务中心，将黑龙江量子律师事务所全力打造为全国法律服务示范机构。', '一是统筹疫情防控和监管、生产、消防“四大安全”，召开2次狱所安全稳定专题督办会、4次视频调度会、2次疫情防控专题会，研究部署狱所安全稳定工作。派出工作专班，89次深入狱所督导检查，发现并整改安全隐患92项，持续巩固狱所安全稳定基础。二是深入开展“防范罪犯非正常死亡攻坚年”活动，出台工作指导意见，进一步强化病犯监测救治及罪犯病亡善后处置工作。', '三是深化“司法行政戒毒工作规范化建设提升年”活动，对2019年以来516册戒毒人员卷宗进行全面评查，发现整改4个方面26项问题。', '四是常态化开展隐患排查整治督查，走访社区矫正对象31392人次，梳理重点案件1076件，发现整改问题114件', '一是严格落实会前学法学纪制度，制定《哈尔滨市司法局“第一议题”制度》，召开21次局党组（扩大）会议、10次理论学习中心组会议，跟进学习习近平总书记重要讲话重要指示批示精神，推动系统党', '。相关做法被《法治日报》专题报道。二是统筹主题教育和深化能力作风建设“工作落实年”活动，扎实推进理论学习、调查研究、推动发展、检视整改、整章建制，推动', '，经验做法受到市委主题教育第十二巡回指导组肯定，被《法治日报》专题报道。三是创新宣传载体形式，', '四是结合标准化规范化党支部建设，持续增强党支部的政治功能，我局有2个基层党支部被评为市直机关“四强”党支部，2名个人被评为共产党员先锋岗岗位标兵，1家单位被确定为市级成长型基层党建示范点。大力开展学习型机关创建活动，', '。五是坚持正确选人用人导向，顺利完成64名处级领导干部推荐选拔和机关公务员职级晋升工作，', '选派22名机关干部到松北区法治政府建设一线岗位锻炼，遴选3名干部参加驻村锻炼；全局4', '一是筹建习近平法治思想研究中心，联合哈尔滨新闻网打造“哈尔滨法治发布平台”。二是持续深化法治政府示范创建，努力推动我市在第三批全国法治政府建设示范创建活动中再创佳绩。三是抓好《哈尔滨市2025年第九届亚冬会知识产权保护办法》等重点立法项目的起草、审查工作，全力做好亚冬会法律服务保障工作。四是加大涉外法治人才培养力度，发展壮大涉外律师、仲裁员、调解员、公证员队伍。五是探索设立公职律师事务所，推动建立政府法律事务适度集中处置机制；', '是推动建设政府主导、部门协调配合、社会公众广泛参与的公共法律服务运行体系，促进基本公共法律服务均等化、普惠化、便捷化，持续加强涉外法治人才培养、储备、使用、管理。七是坚持和发展新时代“枫桥经验”“浦江经验”，积极构建大调解工作格局，持续加大“枫桥式司法所”创建力度。八是狠抓狱所规范化管理，确保实现“四无”“六无”目标；打造省一流社区矫正中心示范点，构建社区矫正刑事执行实体化实战化平台。九是']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>56</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>中共哈尔滨市委办公厅哈尔滨市人民政府办公厅印发关于进一步提高行政效能改善经济发展环境的实施意见的通知</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2012-11-07</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/201211/c01_86019.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅印发《关于进一步提高行政效能改善经济发展环境的实施意见》的通知 - 哈尔滨市人民政府', '中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅 印发《关于进一步提高行政效能改善经济发展环境的实施意见》的通知 哈办发〔2012〕21号', '中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅 印发《关于进一步提高行政效能改善经济发展环境的实施意见》的通知', '各区、县（市）党委和人民政府，市委各部办委，市直各党组、党委（工委）： 经市委、市政府同意，现将《关于进一步提高行政效能改善经济发展环境的实施意见》印发给你们，请认真抓好贯彻落实。', '为深入贯彻落实《中共黑龙江省委办公厅 黑龙江省人民政府办公厅关于进一步提高行政效能优化经济发展环境的若干意见》（黑办发〔2012〕18号），切实解决我市在经济发展环境上存在的突出问题，进一步提高行政效能，改进行政管理，转变工作作风，提高服务质量，促进经济社会更好更快发展，现提出如下意见。 一、提高行政审批服务效率 （一）进一步深化行政审批制度改革。全面清理我市设定的行政许可和非行政许可事项，规范行政审批前置要件和中介服务，减少审批环节，简化审批手续，缩短审批时限，优化审批流程。进一步落实并联审批、企业注册“一表制”审批和领办代办机制。 （二）进一步加强行政服务中心建设。提升行政服务中心一个窗口办理、一站式服务的整体效能，实行提前介入、统一受理、信息共享、统一收费、限时办结、跟踪服务。完善行政审批服务信息化网络平台建设，尽快实现市政府行政服务中心与各地区、相关部门网络链接，使涉企行政审批职能全部纳入网上平台办理。推进各区、县(市)政府行政服务中心建设，严格规范行政审批行为，明确职责、权限和服务标准，凡能纳入中心的涉企服务项目必须全部纳入、集中办理。 （三）实行重点产业项目“绿色通道”服务。对重点建设项目审批，由牵头审批部门统一受理，协调相关审批事项，明确各个审批环节的时限要求，实行一个部门牵头、一个窗口受理、一套数据审批、一次现场勘查、一次集中会审，切实提高审批效率。抓好重点产业签约项目的落地工作，建立项目跟踪问效机制，对本级解决不了的问题要及时报上一级部门研究解决，对本级承办提出否定意见的项目，审批部门要向本级政府报备，切实解决审批“中梗阻”问题。 （四）加快推进行政权力电子监察系统建设。要依托行政服务中心逐步实现对市政府所有部门行政审批的事前、事中和事后全过程电子监察。将行政审批及建设工程招投标、经营性土地招拍挂、政府采购、产权交易等要素市场纳入电子监察范围，找准关键节点，全程监控，及时发现和纠正超时办结、违规办理等行为，有效规范行政权力运行。 二、规范行政执法行为 （五）严格规范涉企行政收费行为。要对所有涉企行政收费项目进行清理审核，防止已经取消和停收的行政事业性收费以各种名目继续征收。积极探索涉企行政收费定期统一征收试点工作，对未经批准的统一征收以外的收费行为，一律视为违规收费。坚决制止多头收费、违规增设收费项目和提高收费标准等行为，有效解决企业负担过重问题。要向社会公布收费项目、标准和主体，实行涉企行政收费全过程公开透明、阳光操作。要加强对乱收费的治理，对利用职务之便向企业索要赞助、摊派费用和报刊，强行要求企业参加收费培训，以及以服务为名强制收费或变相搭车收费的，坚决予以查处。 （六）进一步规范涉企检查行为。大力推行检查企业登记备案制度，除涉及安全生产、制售假劣食品药品、环境污染等违法行为需要立即实施行政执法检查，以及上级行政主管部门和市、区县（市）政府临时部署的行政执法检查可先检查后备案外，执法部门其他检查应当制定例行行政执法检查计划，报本级改善经济发展环境办公室和法制部门备案后方可检查。执法部门及执法人员不得在国家法定节日前一周到企业实施行政执法检查。对企业实施检查必须履行内部层级批准手续。多个行政执法部门对同一企业、同一行为实施行政执法检查或者可以联合行政执法检查的，由改善经济发展环境办公室确定一个行政执法部门牵头实施检查。除法律、法规及规章另有规定外，同一部门对同一企业的同一行为不得重复检查。 （七）进一步规范涉企处罚行为。除涉及安全生产、制售假劣食品药品、环境污染或者其他严重扰乱市场经济秩序，危害公共安全、人身健康、生命财产安全等违法行为应当予以行政处罚外，对企业首次属于非主观故意，且违法行为轻微并及时纠正，没有造成严重危害的，行政执法部门应当以书面形式给予警告、教育，并下达《整改通知书》提出限期整改要求；企业在规定期限内及时整改的，不给予其他行政处罚。加强对乱罚款的治理，严格实施“罚缴分离”制度，对不开具合法收据以及截留挪用、私分罚款等违纪违法行为要严肃处理。 （八）进一步完善行政处罚自由裁量权标准。行政处罚裁量标准要随着法律、法规及规章的修订而及时修订。对于行政处罚裁量标准经过实施不符合实际的，要及时进行修订完善，并按照有关程序审核公布，使裁量权标准更加公平合理，贴近实际，便于操作。要建立完善行政处罚自由裁量权配套制度，使相关制度与行政处罚自由裁量权的实施紧密配合，确保行政处罚自由裁量标准真正落实到位。 三、拓展为企业服务渠道 （九）积极扶持企业提高市场竞争力。围绕特色产业、优势产业和发展潜力大的产业，适时举办专业性强的洽谈会、产品展销会等，帮助企业培育市场，扩大产品影响力，将部分优特产品打造成为具有市场竞争力的名牌产品。扶持企业提高新产品研发能力和自主创新能力。针对部分企业面临的人才短缺问题，以政府为主导，采取多种方式建设企业研发中心，为企业吸引高端人才从事技术创新和研发创造条件。加强职业技术教育，根据企业发展需要，依托各类专业技术职业学院，为企业培养紧缺岗位专业人才，进一步提升企业的综合竞争力。 （十）建立中小企业公共服务平台。要建立中小企业公共服务平台，整合中小企业服务机构、服务资源，为中小企业提供事务代理、法律咨询、劳动力信息、政策咨询、培训、融资担保、管理咨询、市场开拓等综合类服务以及研发设计、检验检测、新技术推广、科技成果转化等专业技术服务。要建立中小企业抽样调查统计制度，全面掌握全市中小企业基本情况，完善中小企业分类统计、监测、分析和发布制度，引导和扶持中小企业加快发展。 （十一）加强行业商会协会建设。要积极鼓励和支持企业组建行业商会协会组织，在政府与企业之间搭建桥梁和纽带。充分发挥行业商会协会在反映企业诉求、维护企业利益、处理企业纠纷、制定行业规范和标准等方面的作用，及时了解和解决企业遇到的问题，不断规范行业市场竞争行为。涉企主管部门要会同工商联、侨联、台联等与企业联系密切的组织，建立服务企业发展联席会议制度，发挥各方面的优势，为企业发展提供服务。 四、加大对企业的政策扶持力度 （十二）对本地企业产品给予扶持。要积极帮助重点企业和项目申请国家和省的资金支持，将市新型工业化发展资金向优势企业和项目倾斜。组织本地企业积极参加各类产品推介、贸易洽谈活动，帮助企业不断开拓市场、加快发展。 （十三）落实引进人才配套政策。要深入贯彻我市出台的一系列关于促进园区发展的政策措施，建立完善重点园区监控体系，研究出台为国家和省、市重点园区吸引人才的相应配套政策。落实好已经出台的高端人才落户资金补贴、住房、配偶就业、子女入学等优惠政策，切实解除各类人才的后顾之忧。 （十四）招商引资可实行“异地落户”。按照最大限度地发挥资源配置优势和全市重大生产力布局的要求，实行招商引资项目“异地落户”政策，把招商引资项目尽可能落到我市最具比较优势的专业化特色产业园区，采取利益共享方式，调整项目利益分配，打破地域限制，增强区域经济发展整体实力。 五、提高公务人员服务企业的能力 （十五）加强对领导干部和公务人员的业务培训。要将提高各级领导干部和公务人员为企业服务的能力和水平纳入到各级党校和行政院校的培训计划，侧重经济发展趋势、产业政策、法律法规、加强行政管理与促进企业发展等内容，设置培训课程，邀请有关专家、学者或企业家进行授课，切实提高各级政府部门及其公务人员依法行政的能力和为企业服务的本领。 （十六）学习借鉴发达地区成功经验。要围绕改善经济发展环境开展调研，总结我市社会管理、行政体制改革等方面的经验做法。采取学习考察、挂职锻炼、短期培训等方式，定期组织领导干部和有关公务人员到发达地区学习，充分借鉴发达地区政府部门服务企业的理念和方法，增强服务意识。对热点、难点问题进行调查研究，寻求破解的办法和措施，提高为企业服务的层次和水平。 六、强化对涉企服务事项的考核 （十七）将涉企服务纳入政府绩效和目标责任制考核。要将涉企服务纳入各级政府绩效评估和目标责任制考核，加大考核权重，科学设定考评指标，细化内容和标准，加强对直接面向企业、面向基层的关键岗位的考核，增强领导干部和工作人员为企业服务的责任感。对改善经济发展环境工作成效显著的部门、单位和个人要进行表彰奖励；对存在问题较多、整改不力的部门和单位要予以通报批评并追究相关人员的责任。 （十八）开展满意度测评和企业评议政府部门行政执法活动。对政府部门服务企业的工作效率、质量及作风等方面，采取网络评议、问卷调查、社会第三方评估等形式开展对各地区经济发展环境满意度测评和企业对政府部门的满意度测评，及时了解企业诉求，不断改进政府工作。建立行政执法部门涉企行政执法企业评价机制，定期组织企业对本级政府行政执法部门进行评价，评价结果向社会公布，并纳入行政执法部门目标和绩效年度考核。 七、加强改善经济发展环境的效能监察 （十九）开展经常性明察暗访与跟踪随访工作。加强对各地区、各部门（单位）和中直省属在哈相关单位的检查和暗访，对管理不到位、办事效率低、服务质量差的部门或“窗口”及时进行通报，限期整改；对各自为政、推诿扯皮、以权谋私、随意执法等行为予以从严惩处。选择有代表性的企业进行跟踪随访，努力发现审批、收费、执法工作中存在的深层次问题，查找“中梗阻”环节，纠正“窗口”工作人员在服务态度、工作作风等方面存在的问题。对重点项目在行政审批、落户等方面进行跟踪随访，发现问题及时纠正、整治，加快项目推进速度。 （二十）加大行政问责工作力度。要严格执行《哈尔滨市行政问责规定》，加大涉企违规行政行为的问责力度，对部分关键岗位、“窗口”单位、基层站所队工作人员故意设置障碍、故意刁难、勒拿卡要、乱作为、假作为等恶劣行为予以问责的同时，强化对慵懒散、办事拖拉等不作为、慢作为行为的问责，对损害政策、政务、市场、法制等环境的行为，要严格追究直接责任者和主要领导的责任。 （二十一）严肃查处破坏经济发展环境案件。要进一步加强行政效能投诉工作，利用“12388”效能投诉电话开展改善经济发展环境专项效能监察，对存在问题较多的地方和部门集中开展网上投诉、专项检查和明察暗访。开通外来投资企业投诉专线，建立重大项目市长联系制度，发挥经济发展环境监测点和监督员队伍的作用，不断拓宽和畅通改善经济发展环境问题的投诉渠道，及时发现和解决经济发展环境方面存在的问题。要按照《中共哈尔滨市纪委哈尔滨市监察局关于进一步改善经济发展环境的若干纪律规定》及有关法律法规，加大对恶意拖欠企业资金、政策不兑现、刁难勒卡、滥用自由裁量权等损害政府形象、损害企业利益的典型案件的查处力度，对情节严重、影响恶劣的案件进行公开处理，为企业和投资者创造公平、公正的行政、法制和市场环境。 八、形成改善经济发展环境的浓厚氛围 （二十二）加强组织指导。要切实加强对改善经济发展环境工作的组织领导，成立由政府主要领导任组长的领导小组，定期研究经济发展环境建设工作，组织力量实施专题推进，切实解决突出问题。建立经济发展环境监测改进机制和优化经济发展环境长效机制，不断改善经济发展环境。 （二十三）强化舆论宣传。要积极开展“为企业和群众服务好窗口”、“为企业和群众服务标兵窗口”创建活动，树立先进典型，利用各种新闻媒介推广好经验、好做法，公开曝光不作为、乱作为的行政行为和责任人，大力弘扬正气，坚决抵制歪风，营造良好舆论导向，努力形成人人关心、重视和维护环境的良好局面。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>56</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>哈尔滨市人民政府办公厅关于印发哈尔滨市培育规模以上工业企业三年行动计划的通知</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/202110/c01_87047.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['哈尔滨市人民政府办公厅关于印发哈尔滨市培育规模以上工业企业三年行动计划的通知 - 哈尔滨市人民政府', '经市政府同意，现将《哈尔滨市培育规模以上工业企业三年行动计划》予以印发，请认真贯彻执行。', '为深入贯彻落实省政府第八十一次常务会议精神，深入开展规模以上工业企业培育工作，依据《黑龙江省人民政府关于印发黑龙江省加快培育规模以上工业企业十项措施的通知》（黑政规〔2017〕18号）和《黑龙江省人民政府办公厅关于印发全省规模以上工业企业培育专项行动工作方案的通知》（黑政办发〔2017〕21号）精神，结合我市实际，制定本计划。', '以习近平总书记系列重要讲话精神和治国理政新理念新思路新战略为指导，全面贯彻落实省、市政府关于“提升工业化水平、做大实体经济”的总体部署，以“制造强市”为目标，大力推进实施“中国制造2025”哈尔滨行动计划，挖掘增长潜力，壮大产业规模，推动规模以上工业企业数量、质量和效益同步提升，促进工业经济扩量升级、提质增效，为经济社会发展提供有力支撑。', '（一）实施“保临退”专项行动。将上年度主营业务收入2000万元至2500万元的规模以上工业企业作为“临退”企业，全面分析其近3年指标变化情况及发展趋势，对于生产困难、指标下滑，特别是当年预计主营业务收入跌破2000万元，以及停产半停产并存在退出规模以上风险的企业，采取一企一计，靶向施策，力争使其保留在规模以上行列。', '（二）实施“促成长”专项行动。制定培育规模以上工业企业年度滚动计划，每年将主营业务收入1500万元至2000万元的300户临近入统企业和主营业务收入1000万元左右的高成长性科技型工业企业列入规模以上工业企业培育滚动计划，作为重点培育对象，按月跟踪监测，帮助其开拓市场、扩大销量，加快成长入统。', '（三）实施“项转规”专项行动。将近3年新建工业项目和规模以上工业企业库进行对比分析，对于在建项目，要帮助企业解决项目实施中遇到的困难和问题，促进其按期建成投产；对于建成未投产项目，要引导企业抓住市场回暖机遇，尽快投产；对于投产未入统企业，要帮助企业寻求市场机遇，扩大生产，力争用最短时间将项目培育成规模以上工业企业。', '（四）实施“返规上”专项行动。将近两年退出规模以上企业库的工业企业纳入重点监测范围，对市场需求回暖且生产经营好转的企业，帮助其加大市场开拓力度，扩大主营业务收入；对经营困难的企业，引导其通过产品升级转型，企业兼并重组等方式，激活存量，增加收入，力争重新回到规模以上工业企业行列。', '（五）实施“补遗漏”专项行动。将省工信委归集的疑似漏统企业名单作为挖掘增量的重点，做好辅导，动员其依法入统，并协助办理入统手续。除因国家产业政策及许可限制必须设立非独立核算单位的企业外，对全市非独立核算工业企业（分公司）进行梳理排查，特别是对引入我市为部分整车、整机配套的非独立核算工业企业，要指导其转为独立法人单位，建立核算和统计报送体系，引导其尽快入统。', '（六）实施“调结构”专项行动。将统计在一产、三产且工业收入占比超过非工业收入的企业纳入工业统计体系；对工业收入小于非工业收入的企业，引导其通过产能整合、靠大联强等方式，将工业产能剥离出来，成立新的法人单位，生成新的规模以上工业企业。', '（一）确定重点领域。在总需求增长空间大且我市具有较强竞争优势的领域加大培育力度。提升农副产品加工和食品制造行业精深加工能力，提高产品附加值；引导装备制造业龙头企业延长产业链条，带动本地配套企业发展壮大；帮助医药工业企业开拓市场，扩大销量；支持新材料、新能源装备、新一代信息技术、生物等战略性新兴产业加速成长，壮大规模。（市工信委牵头，各区县市政府配合）', '（二）锁定培育对象。利用大数据，整合统计、市场监管、税务、科技等部门企业信息，重点对主营收入2500万元以下存在退出规模以上风险的企业，上年度停产、半停产企业，主营业务收入1500万元以上未入统企业，近两年退出规模以上但有望重新再次入统企业，高速增长科技型企业和近3年新建成未入统的企业等六类企业（以下统称“临规企业”），进行重点培育，建立动态“临规企业”数据库，每年调整一次，并将其分配到区县（市）进行联合帮扶和靶向培育。（市工信委牵头，市统计局、市国税局、市科技局、市市场监管局、各区县市政府配合）', '（三）扩大产品销量。支持企业积极参与国内外目标市场定向产品推介，扩大市场影响力和占有率。支持龙头企业开展本地产品配套和产业协作，带动产业链上“临规企业”共同成长。鼓励企业应用电子商务等新型流通手段，扩大销售渠道，提高品牌知名度，支持企业利用新型流通业态，拓展销售空间。（市工信委牵头，市财政局、市商务局、市贸促会配合）', '（四）降低运营成本。落实企业研发费用加计扣除、固定资产加速折旧、高新技术企业减免税等政策。积极争取售电侧改革试点，提高电力市场化交易水平。积极落实国家电力直接交易政策，优先支持符合交易条件的“临规企业”参与电力直接交易。（市发改委、市国税局、市工信委、市财政局、市科技局分别负责）', '（五）提供贷款支持。积极沟通协调金融监管部门、金融机构优先运用信用贷款、贷款展期等方式，为信誉好、还款能力强的“临规企业”提供融资服务。对于组建债权人委员会的“临规企业”，满足特定条件的，积极运用循环贷款、无还本续贷、联合授信等方式给予支持。对高速成长性科技型“临规企业”，探索通过“投贷联动”模式给予股权+债权相结合的融资支持。（市工信委牵头，市金融办、市科技局、人民银行哈尔滨中心支行、黑龙江银监局配合）。', '（六）降低融资成本。利用工业企业贷款周转金，优先支持满足续贷条件的“临规企业”解决暂时资金短缺问题。鼓励、引导金融机构和担保机构提高信用良好“临规企业”的抵押物折扣率，降低担保费率。政府性担保机构应优先满足符合担保条件“临规企业”的担保需求，适当下浮担保费率。对符合助保金贷款申请条件的“临规企业”，给予优先发放助保金贷款。鼓励“临规企业”利用多层次资本市场进行融资，拓宽融资渠道，降低融资成本。（市工信委牵头，市财政局、市金融办、市属政策性担保机构配合）', '（七）强化政策落实。加大对《哈尔滨市人民政府关于印发哈尔滨市工业稳增长促发展政策措施的通知》（哈政发〔2014〕5号）和《哈尔滨市人民政府印发关于进一步扶持中小企业发展的若干政策的通知》（哈政发〔2014〕6号）落实和执行力度，促进存量企业和在建项目成长为规模以上企业。组织新入统企业积极申报省政府鼓励“临规企业”做大做强奖励资金。（市工信委牵头，市财政局、市统计局、市科技局配合）。', '（八）开展专项培训。组织企业负责人参加“龙江企业家发展计划”培训、“龙江企业家发展论坛”、企业家读书会和产业政策交流会等活动。组织企业参加省直部门组织的分行业、分领域赴国内外先进地区、行业学习考察活动。组织举办企业管理团队培训活动，重点提升技术合作、资本市场、营销、管理、信息化应用、智能制造等方面能力和水平。（市人社局牵头，市工信委、市财政局、市统计局、市外侨办配合）', '（九）优化服务环境。为“临规企业”开设行政审批绿色通道，实行一站式办理，给予“优先、优惠”政策。依法简化各种审批手续，特别是减少前置条件，切实提高工作效率。（市统计局牵头，市国税局、市财政局、市工信委、各区县市政府配合）。', '（十）规范经济活动。依法规范企业行为，督促企业履行法定义务，合法经营，依法纳税。达到入统条件的企业，应当依法及时申报入统，及时、准确报送有关数据和信息。对故意逃避法定入统义务的企业，要严格依据《中华人民共和国统计法》有关规定进行处理（市统计局牵头，市工信委、市财政局、市市场监管局、市国税局配合）。', '（一）加强领导，明确责任。建立培育规模以上企业日常工作推进机制和问题协调机制，日常工作由市工信委牵头，市统计局、市国税局等部门配合共同推进。对在推进工作中遇到的重要问题，由市政府分管负责人协调,重大问题由市政府主要负责人协调。各区县（市）政府、各有关部门也要建立相应的推进机制，将规模以上工业企业培育工作作为当前重要任务，主要负责人亲自部署，指定部门（处室）专项推进，并将任务分解落实到处室和具体人员。各牵头部门要切实履行责任，制定行之有效的实施方案，明确配合部门的工作目标和任务；各配合部门要按照时间节点，将具体任务落实落靠，保证整体工作有序推进。', '（二）合力攻坚，确保时限。各区县（市）政府、各有关部门要认真研究、深入分析、全面总结本地区、本部门工作中存在的问题和困难，采取有力措施，分类管理、对症下药、精准施策。对于突出的难点问题，牵头部门要认真组织研究解决。各配合部门要将任务分解到年、细化到月，及时将存在的问题反馈到牵头部门协商解决，确保按时保质保量完成年度任务和总体目标。', '（三）优化流程、提高效率。工信、统计部门要简化和优化企业入统流程，分别指定一名业务骨干，为申报企业提供专项指导服务。对拟新纳入规模以上统计范围的企业，由所在地工信部门会同统计部门牵头全程无偿代办入统等手续。市工信委负责对当年入统企业申报材料进行审核，并提出奖励初步意见。市统计局负责对奖励初步意见和企业申报材料进行联审。市财政局负责筹集奖励资金，并配合相关部门兑现奖励资金。', '（四）建立机制，强化考核。市工信委要牵头建立工作推进机制，定期举行经验交流、问题协商、对接洽谈等活动。市工信、统计部门要组织建立考核机制，完善考核办法、调整考核权重、优化考核流程，严格把好资金使用关，切实将有限的资金投向技术含量高、发展潜力大、市场前景好的行业和企业。市工信委负责对区县（市）政府目标完成情况按月进行统计，按季进行通报，按年进行考核，并将推进情况向全市通报。', '（五）各司其职，协调配合。市国税局每年负责将上一年度主营业务收入1000万元至2000万元工业企业经营及纳税等数据提供给市工信委。市市场监管局负责按需求提供全市年度工业企业注册登记和变更信息。', '（六）广泛宣传，营造氛围。市政府新闻办要组织新闻单位积极宣传相关政策。市工信委要通过新闻媒体对有关政策进行详细解读，建立互动平台，及时解答企业提出的问题。各区县（市）政府要开展送政策下企业活动，努力营造政府主导、社会知晓、企业支持的浓厚氛围。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>56</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>哈尔滨新闻早报省政协开展赴哈尔滨新区学习考察活动哈</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2020-07-29</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://weibo.com/2753006425/JdoKYEb8W?from=page_1001062753006425_profile&amp;wvr=6&amp;mod=weibotime</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['#哈尔滨新闻早报#【省政协开展赴哈尔滨新区学习考察活动】【哈市拨付稳岗补贴资金2.6亿元 助力中小微企业共克时艰】【地铁2号线江北段实现“短轨通”】【哈尔滨新区平房片区“增量配电”试点项目启动】【东安动力上半年发动机销量突破15万台 增长超40%】【冰城3家企业参评制造业单项冠军企业】【全省文明城市创建工作视频推进会在哈尔滨召开】【全市政法系统警示教育大会召开】【我省出台城市排水防涝安全度汛要点】【我省启动城市扬尘专项治理三年行动】【我省出台医药价格和招标采购监督检查办法】']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>56</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>着眼地域特色整合资源潜能以科学发展观统领社会主义新农村建设</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2006-11-30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200611/c01_84713.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['建设社会主义新农村，是党中央从贯彻落实科学发展观、推进社会主义现代化全局出发做出的重大战略部署，是总揽全局、着眼未来、与时俱进的历史性决策，也是贯穿我国现代化始终的重大历史任务，不可能一蹴而就、一劳永逸，必须精心谋划，科学破题，扎实推进。在新农村建设中，我们南岗区紧紧围绕中央提出的“二十字”方针，全面落实科学发展观，结合区情实际，抢抓发展机遇，发挥中心城区的政治、经济、社会环境和人才优势，迅速行动，抢前抓早，全面推进了我区社会主义新农村建设。 一、注重发挥规划龙头作用，绘就农村建设新蓝图 搞好规划是建设新农村的前提和关键。我区在充分尊重和征求农民意见的基础上，立足于体现规划的前瞻性和权威性，从三个方面制定了新农村建设规划。 一是制定整体规划。在全面分析我区农村发展现状、资源优势与制约因素的基础上，明确提出了今后五到十年我区新农村的主要任务和目标，确定到2010年，初步建立起统筹城乡发展、服务“三农”的新体制，较为完善的农业、农村经济发展和农村公共管理的新机制，为“三农”工作创造良好的新环境；到2020年，全面实现城乡体制对接、城乡社会发展同步、城乡社会保障并轨，基本实现城乡一体化。 二是制定分步规划。按照“一年打基础，两年成规模，三年见实效”的总体思路，大力推进农业生产园区化，产业经营规模化，村屯经济特色化，基础设施城镇化，村屯管理物业化，农民素质知识化，农民流动市场化，城乡服务一体化，力争用3年左右时间，使“生产发展、生活宽裕、乡风文明、村容整洁、管理民主”的新农村初具雏形。同时，我们还针对不同发展重点，分别制定了村屯建设规划、旅游产业发展规划、棚室生产建设规划等子规划，力求扎实有序、有条不紊地推进新农村建设。 三是制定特色规划。为增强规划的针对性，我区各乡镇和村屯根据本地特点制定了相应的规划，力求突出特色、打造品牌，形成“一村一品”的发展格局。王岗镇永丰村借助哈西地区改造契机，规划建设村民集中居住特色村；红旗乡东升村依托满族风情园、百家姓林园、运粮河等旅游资源，规划建设观光农业特色村和庭院经济特色村；曙光村结合沼气应用、棚室建设以及铅笔工业，规划村屯综合治理特色村和生态农业特色村；旭光村围绕大力发展奶牛业，规划畜牧养殖特色村。 二、牢牢把握生产发展这一核心，构筑农村经济新格局 生产发展是新农村建设的基础。为此，我们南岗区始终把发展生产作为建设新农村的首要任务来抓，全面加快农村经济五化进程。 一是推进产业园区化。依托国家级农业科技园区建设这个平台，全面推进了农作物集约化高效种植、农牧标准化生产、农业生态旅游观光等六大功能区建设，建立了中以合作优质奶牛标准化养殖、新能源综合利用、中美特种甜玉米种植、中加北方寒地绿化苗木驯化、北药立体种植等18个农业高新技术标准化示范园，引入涉农企业60余家，实施世界银行贷款项目、开发银行贷款项目、国家星火计划项目、国债扶持项目等系列农业项目130余个，形成了畜、牧、种、养、加、销产业链、设施园艺种贮加销产业链、农业生态旅游观光产业链，以此形成了辐射周边农村发展的良好态势。 二是推进生产规模化。在种植业上，引进18家企业，建设了红星无公害特菜种植、联丰牧草良种种植、华威优质饲料种植、哈南玉米良种繁育、玉丰米菇立体栽培、泽田脱毒马铃薯繁育等18个农作物集约化种植园，实现土地流转规模经营3万亩，年创产值6000万元，农民人均增收450元；在养殖业上，引进了海顺、利民、浩源、东升等4个高产奶牛核心群，建成了海顺万头无公害食品猪养殖、徐家万只优质金定鸭养殖、卫星万只种鸡繁育、兴隆万只獭兔养殖等高产养殖基地，形成了种、养、加、销一体化发展的良性循环。在农产品加工业上，引进12家龙头企业，建成了摇篮乳业、绿色实业、鑫润米业、原野药业、中大饲料等15个加工厂，年创产值19亿元。这些企业直接带农达2000多户。 三是推进组织合作化。将农发基金的重点向农村新型合作经济倾斜，新发展曙光绿色蔬菜协会等农民专业合作经济组织6个。加强对会员素质的培训教育，强化协会与龙头企业的合作发展，在区农基金大力扶持培育下，农民专业合作经济组织发展到了35个，会员发展到6000人。特别是浩源奶业协会，目前拥有固定资产400多万元，发展会员218户，奶牛存栏4000余头，奶业总站3个，分站25个，奶户人均年收入达到7500元。 四是推进发展特色化。按照“一村一品”、“一村一业”的发展思路，采取政府扶持、市场引导的方法，积极鼓励农民发展特色种植、养殖业，建成了红旗乡东升“蘑菇村”，长征、旭光“奶牛村”、前兴隆“獭兔村”、“红星特菜村”、“曙光铅笔村”等一批特色产业村。同时，大力推进无公害蔬菜、食用菌、马铃薯、等特色基地建设，形成了红星特菜、海顺无公害肉、玉丰有机食用菌、帅亿怪米等20余个国内外知名品牌，获绿色、有机食品认证52个，产品远销韩国、日本、俄罗斯、澳大利亚、台湾等10多个国家和地区。 五是推进增收多元化。随着城市的发展，我区的耕地面积逐年减少。因此，我们采取政府补贴的方式，积极鼓励农民发展庭院经济，发展高效农业。仅以红旗满族乡东升村庭院食用菌栽培为例，全村有57户近2万平方米庭院棚室生产，100平方米棚室创造了相当于15亩大田效益。今年，我区新建庭院棚室200栋、4000平方米，新发展奶牛900头。同时，通过引进农业企业，促进农村土地流转，发展农村劳务经济，使10000多名农村富余劳动力脱离土地实现就业。红旗乡东升村村民付伟一家，以前种地12亩，年收入3600元，今年把土地全部转租给菁菁公司，全家到公司打工，每月收入1350元，年收入16200元，加上土地转租费2400元，年总收入18600元，人均收入6200元，是过去的5倍。 三、坚持以人为本，创建农村文明新风尚 提升农民素质、促进乡风文明是新农村建设的重要前提。为此，我区从加强培训、发展农村公共服务、开展文明创建活动等方面入手，引导农民树立农村文明新风尚。一是强化培训，培养新型农民。建设社会主义新农村落点在“村”、重点在“农民”。我区把培养造就一大批“有文化、懂技术、会经营”的新型农民作为新农村建设的基础工程。针对农民需求，组织各类专家采取课堂讲解、现场示范等方式，在提升农村干部素质，倡导健康文明生活方式，宣传科普、法律知识，推广农业先进适用技术，推进农村剩余劳动力转移等17个方面，开展了大培训活动。 目前已举办各类培训班50余期，培训8000余人次。二是采取农民喜闻乐见的形式，丰富农村文化生活。组建了“文化大篷车”，组织全区专业、业余和文艺爱好者深入全区各个村屯进行文艺演出30场。召开了由两乡一镇20个村千名运动员和6000余名农民群众参加的首届农民运动会，在各村建立了文化图书室和健身休闲广场，配备了现代化健身器材，活跃了农村文体生活。三是深入开展“五进农家”创建活动，提升文明水平。以开展富裕进农家、学习进农家、健康进农家、新风进农家、快乐进农家的“五进农家”文明村创建活动为载体，评选出十星级文明户、党员示范户、科技示范户、青年文明示范户、巾帼科技示范户、和谐邻里示范户、模范治安中心户等各类型示范户4198户；好婆婆、好父亲、好母亲、好儿媳、好女儿等文明家庭成员23名。通过开展各类活动，使农民的思想道德素质和科学文化素质有了很大改观，文明程度明显提高。\ue004 四、发挥农民主体作用，打造农村人居新环境 改善人居环境是新农村建设的重点。为此，我区注重从发挥新农村建设农民主体作用入手，采取组织农民到山东寿光等地区学习考察，发放农村民意调查问卷等方式，最终确立了以推进乡村道路建设、“一池三改三建”（建沼气池、改圈、改厨、改厕，建公共活动场所、建集中垃圾处理站、建公厕）为切入点，实施“四动”措施，解决农民最切盼的实际问题。 一是政策促动。针对道路等基础设施投资较大的实际，制定出台鼓励政策，安排专项资金，对建设积极性高、推进力度大、成效明显的村屯，给予重点支持，极大地调动了农民建设美好家园的积极性。仅今年7月至9月，就新修水泥路、立砖路90公里，使农村乡村道路的承载能力得到大幅度提高。 二是五老带动。注重发挥农村老党员、老干部、老知青、老科技、老军人在村民中威信高的优势，村村成立了“五老理事会”。通过理事会和协会的宣传、组织、动员，使农民转变了观念，变过去的“要我建”为现在的“我要建”，农民主动递交申请书、保证书，争先恐后地建边沟，在边沟旁植花草，并互相监督保护已形成的整洁环境，掀起了建设新农村的高潮。今年，我区农民自己出资出劳，砖砌排水沟渠14万延长米、粉刷围墙19万延长米、栽种树木10万株、新建文化长廊10条、建设卫生厕所200座。 三是项目牵动。为从根本上治理农村环境问题，我们从转变农村传统生产生活方式出发，实施了朝阳循环经济科研示范项目和“沼气进农家”工程，组织农村干部、技术骨干多次赴省内外学习沼气技术，区政府对修建沼气池的农户，给予1200元的补贴。目前，全区已建成集中大型沼气池1个、农户单体沼气池320多个，近500户农户受益。此外，我们还推进了集中养殖小区建设，实施了人畜分离工程，彻底解决农村人畜混居，影响环境，影响健康的问题。 四是村企联动。注重发挥企业作用，动员企业出资改善厂区及周边环境。 以生产饲料为主的我区龙头企业冰都集团为了让村屯亮起来，帮助厂址所在地的东升村实现了路灯化。同时，为全面加强对农村的规范管理，我们在红旗满族乡旭光村街路，挂上了国际标准的地名标识，增添了都市气息。此外，各村在区城管局的支持和帮助下，成立了物业管理公司，负责每日村屯环境的保洁，使村屯环境得到了明显改善。 五、突出以城带乡，构建农村建设新机制 \ue004 新农村建设是一项长期的历史任务。为此，我们坚持把构建长效机制，作为确保新农村长期稳步推进的根本保障。 一是构建了多种形式的投入机制。为解决农村发展资金不足的难题，我们采取多种措施，加大投入力度。一方面，积极和商业银行联系沟通，落实了长期低息贷款6000万元，解决农民发展生产中资金短缺的问题；另一方面，区委、区政府出台一系列优惠政策，对棚室建设、发展庭院经济、沼气建设、村容村貌改造、基础设施建设等采取以奖代投的方式给予资金补贴，鼓励引导农民群众抢抓政策机遇，加快建设步伐。同时，积极吸引社会资金投入。 抓住城市人群休闲和消费需求，推出了“乡下有我三分田”休闲耕作乐园项目，以高出农民耕种收益价格包租村民耕地，统一向市民发售转包。此项目一经推出就引起了社会各界的极大关注，哈师大附中一次就承租了40个地块。通过该项目，不但吸引了城市资金进入农村，而且把先进的科技理念、市场信息等带进了农村，搭建了一个以城带乡的载体和平台，推进了城乡之间的经济互动、文化互动、资源互动，促进了农村第三产业和都市型农业的发展。在此基础上，我区又推出了“乡下有我一栋棚”项目，用以吸引城市闲散资金建设棚室，目前已平整土地400亩，准备新型节温棚室200栋。年初以来，我区通过争取上级支持、区里配套、银行贷款、单位包扶和吸引社会资金等方式，向农村注入资金2\ue0105亿元。 二是构建了政府职能充分聚合的帮扶机制。按照“领导包村、部门帮扶、城乡对接”的要求，组织区五个班子领导对23个村屯实行定点帮扶，区直23个委办局建立共建帮扶，17个街道办事处建立“手拉手”帮扶，构建了主要领导包片、部门领导包村的工作协调机制，形成“一街一村”、“一机关一村”的工作格局。在实际工作中，我们坚持在帮扶模式上求新，在帮扶方式上求活，在帮扶效果上求实，共落实帮扶资金600余万元，帮扶项目200余个。 三是构建城区资源向农村倾斜的推进机制。我区充分利用地缘优势，加大城乡之间的互动交流，形成合力，共同推进新农村建设。借助区域内大专院校的人才资源优势，积极引导高学历人才参与新农村建设。在新农村建设规划的设计上，组织哈尔滨工业大学、黑龙江大学学生成立六支青年志愿者服务队，深入乡村参与村屯改造、房屋建设等方面的规划设计。同时，组织城区农贸市场摊区业户，深入农村，与农户对接，建立长期购销协议，既保证了市场货源，也在一定程度上解决了农产品的销路问题。 四是构建农民自主发展、民主管理的自治机制。坚持把推进民主政治作为新农村建设的重要保证，注重发挥村民理事会以及村务公开监督小组和民主理财小组的作用，坚持村民会议制度、村民代表会议制度和重大事项实行民主决策的制度，普遍实行了政策、政务、财务“三公开”，对村里修建的每一条路、投入的每一分钱，都由广大村民自行决定、协商解决。特别是在新农村建设过程中，对各项建设工程，更是每天一报告、每周一公开，将资金使用、材料投放、工程进度等方面内容向广大村民公示公开，随时接受监督，让农民群众真正享有知情权、参与权和管理权。五是构建服务农村、方便农民的服务机制。注重从便民利民的基础性工作抓起，实施了农民畜牧养殖、高效种植、农产品交易三个服务中心建设，组织相关专家和从业人员，广泛开展了疫病防治、饲料调配、良种选育以及材料采购、市场销售等方面的技术指导与中介服务，倾力打造服务农村经济发展、方便农民增收致富的服务平台。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>56</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>准确把握精神实质助推经济高质量发展</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-06-14</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104696/202406/c01_993597.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['市十六届人大常委会党组召开第四十一次会议暨理论学习中心组第十五次集体学习会议 孙喆主持并讲话', '6月13日，市十六届人大常委会党组召开第四十一次会议暨理论学习中心组第十五次集体学习会议。市人大常委会党组书记、主任孙喆主持会议并讲话。党组副书记刘兴阁，党组成员王铁立、林艳秋、于波出席会议。市人大常委会副主任顾福林列席会议。 会议传达学习了习近平总书记近期重要讲话重要指示精神，中央和省委、市委保密工作相关会议，全国旅游发展大会等会议精神；中央党的建设工作领导小组《关于认真学习贯彻习近平总书记重要讲话精神，扎实开展党纪学习教育的通知》有关精神等内容。会议还传达了市委常委会会议有关精神，听取了市人大城建委赴上海等地外出学习考察情况的报告。常委会党组成员围绕深入学习习近平总书记在中央经济工作会议上重要讲话精神等内容进行集体研讨交流。 孙喆指出，常委会两级党组和机关各部门要深入学习贯彻习近平经济思想，切实把思想和行动统一到党中央对当前经济形势的分析研判和对下一步经济工作的部署要求上来，结合人大工作实际，依法科学履职尽责，充分运用法治力量为促进巩固和增强我市经济回升向好态势作出人大贡献。要把学习贯彻保密法、做好保密工作作为当前和今后一个时期的重要任务，全面提升保密工作的法治化水平。 孙喆强调，常委会两级党组和机关各部门要全面贯彻落实全国旅游发展大会部署要求，把握住哈尔滨冰雪旅游火爆“出圈”、成为“现象级顶流”的历史机遇，以法定监督手段助推政府及相关职能部门加快推动我市旅游产业提质升级。要全面落实加强党的纪律建设的各项任务要求，推动机关党纪学习教育扎实开展、见行见效。 会前，与会人员还学习了《中华人民共和国保守国家秘密法》相关内容。', '会议传达学习了习近平总书记近期重要讲话重要指示精神，中央和省委、市委保密工作相关会议，全国旅游发展大会等会议精神；中央党的建设工作领导小组《关于认真学习贯彻习近平总书记重要讲话精神，扎实开展党纪学习教育的通知》有关精神等内容。会议还传达了市委常委会会议有关精神，听取了市人大城建委赴上海等地外出学习考察情况的报告。常委会党组成员围绕深入学习习近平总书记在中央经济工作会议上重要讲话精神等内容进行集体研讨交流。', '孙喆指出，常委会两级党组和机关各部门要深入学习贯彻习近平经济思想，切实把思想和行动统一到党中央对当前经济形势的分析研判和对下一步经济工作的部署要求上来，结合人大工作实际，依法科学履职尽责，充分运用法治力量为促进巩固和增强我市经济回升向好态势作出人大贡献。要把学习贯彻保密法、做好保密工作作为当前和今后一个时期的重要任务，全面提升保密工作的法治化水平。', '孙喆强调，常委会两级党组和机关各部门要全面贯彻落实全国旅游发展大会部署要求，把握住哈尔滨冰雪旅游火爆“出圈”、成为“现象级顶流”的历史机遇，以法定监督手段助推政府及相关职能部门加快推动我市旅游产业提质升级。要全面落实加强党的纪律建设的各项任务要求，推动机关党纪学习教育扎实开展、见行见效。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>56</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>站稳立场把准方向展现人大良好风貌</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104696/202404/c01_981127.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['市第十六届人大常委会党组召开第三十七次会议暨能力作风建设解放思想案例研讨会 孙喆主持并讲话', '4月10日，市第十六届人大常委会党组召开第三十七次会议暨能力作风建设解放思想案例研讨会。市人大常委会党组书记、主任孙喆主持会议并讲话，党组成员郑大泉、刘兴阁、王铁立、林艳秋、于波出席会议。', '会议传达学习3月29日中共中央政治局会议精神、习近平总书记在湖南考察和主持召开新时代推动中部地区崛起座谈会时的重要讲话精神、在《求是》杂志发表的重要文章《必须坚持人民至上》精神，书面传达学习中共中央办公厅《关于巩固拓展学习贯彻习近平新时代中国特色社会主义思想主题教育成果的意见》等内容，听取市人大常委会机关党组关于意识形态工作情况、关于外出学习考察民生项目监督工作情况的汇报。常委会党组成员结合学习《解放思想案例选编》（第一期），围绕“创新意识”进行研讨交流。', '孙喆指出，常委会两级党组及机关各部门要深刻领会习近平总书记重要讲话的政治意义、战略意义和实践意义，增强大局观念，坚定加强和改进新时代人大工作的信心和决心，切实把牢人大工作正确政治方向。要充分认识到开展巡视工作、落实巡视整改的重要性，切实把思想和行动统一到习近平总书记和党中央的要求部署上来。要把习近平总书记关于坚持人民至上的重要论述精神运用好、落实好，增强创新意识，不断推动人大工作高质量发展。要进一步旗帜鲜明坚持党管意识形态，站稳政治立场、把准政治方向，切实做好机关意识形态工作，充分发挥微信公众号、官网、微博等阵地作用，讲好法治故事，传播法治强音，展现人大良好风貌。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>56</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>呼兰区民营经济人士理想信念教育基地政企同心工作站揭牌</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104697/202403/c01_975415.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['呼兰区“民营经济人士理想信念教育基地”“政企同心工作站”揭牌 - 哈尔滨市人民政府', '3月17日，“呼兰区民营经济人士理想信念教育基地”“政企同心工作站”揭牌仪式在长岭工业园福山腾飞牧业有限公司举行。省社会保障行业协会、区委统战部、区工商联、区市场监督管理局共同携手加强民营企业诚信建设，助推呼兰区鹅产业组链强链高质量发展。', '省社会保障行业协会联合党委书记刘歆，副书记、省诚信建设促进会会长张波，区委常委、统战部部长任良等领导及相关企业负责人出席活动。', '与会人员现场座谈交流，走进企业生产车间，参观公司文化展馆，调研鹅产业组链强链业态发展和民营企业诚信建设工作。呼兰区鹅产业协会会长罗文秀介绍了养鹅大户发展情况。区工商联执委、区民营经济人士理想信念教育基地负责人刘文山介绍了福山腾飞牧业公司鹅产业发展情况。', '近年来，呼兰区大力扶持鹅产业，成立了哈尔滨市第一家鹅产业协会，以福山腾飞牧业公司龙头会员企业为牵动，全区形成了集家禽饲养、屠宰、冷冻、销售于一体的完整产业链体系。2023年，区鹅业协会育鹅苗750万只、养成鹅300万只、产鹅蛋1200万枚，鹅雏孵化、养殖增加30%，会员增加20%，收益达2300万元。目前，仅福山牧业公司总储量就达5000吨，日屠宰能力达5万只，产品远销四川、重庆、新疆、北京、上海、江苏、山西等地，有效带动全区鹅鸡禽类组链强链高质量发展。为有效发挥鹅产业协会平台载体作用，呼兰区委、区政府在解决养鹅户资金问题上下真功夫，多次协调金融部门创新开办“鹅业贷”业务，为养鹅户总计贷款1000万元，持续推动鹅产业协会壮大经营，带动400多名村民人均增收1.3万元。', '张波对呼兰区在践行社会主义核心价值观工作中，把诚信建设融入到民营经济人士理想信念教育中的经验作法给予充分肯定，希望省诚信建设促进会携手呼兰区委统战部、区工商联，组织会员企业和民营经济人士与全区各商(协)会互动学习、考察交流，在助力产业链组链强链和民营经济人士理想信念教育方面创新载体、推动合作。', '任良表示，如今，呼兰区正下大气力，通过内引外联，围绕鹅产业链大力招商，吸引鹅绒制品、鹅食品精深加工等知名企业进区发展，实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>56</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>于洪涛张起翔会见贵阳市委书记胡忠雄一行</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104696/202404/c01_983770.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['于洪涛代表市委、市政府对胡忠雄一行来哈考察表示欢迎，对贵阳贵安长期以来给予我市的支持帮助表示感谢。他说，当前，哈尔滨正深入贯彻落实习近平总书记视察黑龙江期间重要讲话重要指示精神，抢抓新一轮东北全面振兴重大政策机遇，全力以赴抓产业项目建设，大力发展特色文化旅游，加快构建“4567”现代化产业体系，努力开创推动高质量发展、可持续振兴新局面。贵阳与哈尔滨同为省会城市，均有生态良好、气候清凉的优势，产业契合度较高，合作空间广阔。近年来贵阳贵安坚持生态立市、工业强市、数字活市、人才兴市，形成了“中国数谷”的硬核实力，叫响了“爽爽贵阳”城市名片，经济社会发展取得显著成效，许多好的经验做法，值得哈尔滨学习借鉴。希望双方在发展数字经济、文旅产业、推进新区建设等方面进一步深化交流合作，携手推进高质量发展，共同服务国家战略。', '胡忠雄代表贵阳贵安对哈尔滨长期以来给予的支持表示感谢。他说，近年来，哈尔滨深入学习贯彻习近平总书记视察黑龙江期间重要讲话重要指示精神，扛起建好建强“三基地一屏障一高地”的使命任务，经济社会发展取得显著成效，我们倍感钦佩、深受启发。当前，贵阳贵安正深入学习贯彻习近平总书记对贵州工作重要指示批示精神，大力实施“强省会”行动，奋力谱写中国式现代化贵阳贵安实践新篇章。贵阳贵安与哈尔滨虽远隔千里，但情谊绵长，合作共赢未来可期。贵阳贵安将把本次学习考察作为一次学习之旅、合作之旅，认真学习哈尔滨的发展定位、发展思路、发展动力、发展举措，持续加强与哈尔滨市、哈尔滨新区各领域交流互动。希望双方围绕工业经济、数字经济、文旅经济等领域深化务实合作，在双向奔赴、共同成就中加快高质量发展、推进现代化建设。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>56</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>驻庆隆村工作队与省农投哈投集团联合组队赴亚布力三产融合示范基地学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c108492/202307/c01_843544.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['驻庆隆村工作队与省农投、哈投集团联合组队赴亚布力三产融合示范基地学习考察 - 哈尔滨市人民政府', '为加快产业发展全面推进乡村振兴，7月5日，市营商环境局驻兴隆镇庆隆村第一书记赵罡、工作队队员张陆，与省农投供应链公司贸易部经理邱庆峰、哈投集团供应链有限公司总经理王彦涛一行4人赴亚布力东北农业大学、龙江森工集团三产融合示范基地学习考察。', '亚布力林业局有限公司副总经理李宜华热情接待了学习考察团队，并对亚布力三产融合示范基地进行了详细介绍。亚布力林业局有限公司通过校企共建，创立了“生物科技引领、资源循环利用、三产有机融合”的绿色循环发展模式，解决了养殖零排放、秸秆资源肥田化、产品绿色有机化，对秸秆利用、养殖治污、食品安全、黑土地养护、厕所革命等问题，并提供了系统化解决方案。', '学习考察团队在副总经理李宜华的陪同下，参观了示范基地猪菜同生发酵床养殖种植基地、秸秆温室发酵床养殖基地、阳光大棚发酵床养殖基地、移动发酵床养殖基地、云数据中心等。经过李宜华副总经理的介绍和观看监控录像视频资料，考察团队对新型科技种植、养殖有了进一步清晰、系统的认识。尤其是在生猪养殖方面，赵罡队长就如何将猪的排泄物转化成为益生菌生存的基础物质，发酵床降解过程如何产生的生物质热源，怎样为猪的生长提供舒适温度，如何减少饲料转化热能消耗，生猪养殖科技能否适用于庆隆村建设实施，与李宜华副总经理进行了深入交流。', '科技兴农是增加农民收入的财富密码。通过学习考察，驻村工作队坚信，通过技术创新和科技进步，能够让农业更加现代化，实现农业产业的高质量发展，帮助村民增加收入。下一步，驻村工作队将立足村情实际，深入探索村集体运作模式，积极寻求合作方向，大力推进科技兴农，助推庆隆村全面振兴。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>56</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>延寿县召开县政府第四次党组扩大会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104697/202404/c01_984991.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['4月26日，延寿县委副书记、县长徐涤非主持召开2024年县政府第4次党组（扩大）会议。县领导张东来、刘诚、李惠达、金烁、金向非参加会议，史建华列席会议。', '会议学习了习近平总书记在湖南考察和3月29日中央政治局会议精神；传达了许勤在省级领导干部党纪学习教育专题读书班开班式上的讲话和于洪涛在市级领导干部党纪学习教育专题读书班开班式上的讲话精神；传达了中共中央办公厅《关于在全党开展党纪学习教育的通知》精神，审议了《延寿县政府党组开展党纪学习教育实施方案》。县纪委监委有关负责同志解读并辅导了《中国共产党纪律处分条例》；党组成员围绕中央八项规定及其实施细则执行，纠治“四风”、反对官僚主义和形式主义，结合分管工作进行了系统深刻的发言；各副县长作了一季度政府工作报告完成情况汇报、分享交流了外出学习考察的所见、所获、所感；宣读了人事任免决定。', '会上传达了县委书记李宏伟在4月26日书记专题会议上的讲话精神，要求政府系统全体党员干部要积极主动作为，把握好工作角色，勇于创新破解难题，充分发扬民主，以求真务实的工作作风，深入基层，了解情况，共同创造良好的工作环境和工作氛围，在县委的坚强领导下，拧成一股绳、铆足一股劲，聚合各方面力量，为延寿更好发展奠定坚实基础。', '徐涤非指出，县政府党组成员要在学思悟践《条例》上下足功夫，落实好许勤书记在省级领导干部党纪学习教育专题读书班开班式讲话要求，发挥好“关键少数”作用，带动广大党员干部学纪知纪明纪守纪，把遵规守纪内化于心、外化于行。各乡镇、各部门要坚持原原本本认真学、专题培训强化学和联系实际贯通学等方式，掀起学习党规党纪热潮，让铁的纪律成为党员干部的普遍自觉。要在推动党纪学习教育上下足功夫，以强烈的责任感和使命感，高标准高质量开展好党纪学习教育，努力学出绝对忠诚、学出坚定信仰、学出严明纪律，争做政治上的明白人、纪律上的执行人及党和群众的放心人。要把党纪学习教育与推动延寿高质量发展、为民办实事结合起来，真正做到两手抓、两促进，为延寿高质量发展提供不竭动力。', '徐涤非强调，各乡镇、各部门要深入贯彻落实党中央决策部署和省市县委工作要求，进一步增强工作主动性、有效性，真抓实干、善作善成，全面巩固和拓展高质量发展成果。要扎实做好灾后恢复重建工作，确保按时完成各项工作，新建和重建房屋达到入住标准。要全力推进保交楼工作，加快推动项目建设，确保尽快达到交付条件。各有关部门要协调配合，扎实做好山河大道建设、卫东路改造工作，持续改善群众出行环境。要实现对弃管小区的有效管理，为广大群众营造舒心的生活环境。要推进医共体建设，满足群众就医就诊需求。要加大招商引资、重点项目跟进力度，争取更多的好项目、大项目落地延寿。要做好环境卫生和南大壕整治工作，通过集中开展乡村环境卫生整治，多维度打造更加宜居宜业宜游的延寿家园。要加快三莫公路建设进度，改善延寿县交通环境。要做好长寿山景区开园各项准备，保证按时开园迎接四方游客。要立即组织人员力量开展食品、药品监督检查，全力守护广大群众舌尖上的安全。要做好公园夜市启动准备工作，及时总结经验，提升群众满意度。要用好中粮集团扶持政策和资金，推动延寿县稻米产业快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>56</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>市委常委会召开会议张安顺主持</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104796/202304/c01_729617.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月28日上午，省委常委、市委书记张安顺主持召开市委常委会会议，传达学习习近平总书记近日关于消防安全的重要批示精神、二十届中央纪委委员学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班精神，以及省委常委会会议有关精神；传达省党政代表团广东学习考察座谈会会议精神，听取我市党政代表团赴广州、深圳学习考察收获体会和有关成果汇报，研究部署相关工作。', '会议强调，要深入贯彻落实习近平总书记重要批示精神，时刻绷紧安全生产这根弦，坚决扛起“促一方发展、保一方平安”的政治责任，彻底排查各种风险隐患，坚决守牢安全生产底线。要不松懈、不麻痹、不大意，压紧压实安全生产各方责任，进一步细化党政领导责任、明晰行业部门监管责任、落实企业主体责任，加强安全督导检查，强化突发事件应急处置能力。要突出抓好“五一”期间安全稳定工作，紧盯重点场所、重点行业，聚焦重点环节、重点部位，落实落细各项安全防范措施，营造安定祥和节日氛围。', '会议强调，要认真学习领会、坚决贯彻落实二十届中央纪委委员学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班精神及省委常委会会议有关精神，深刻认识全面从严治党、党风廉政建设和反腐败工作的重大意义，压实管党治党政治责任，做深做实做细政治监督，保持正风反腐高压态势。要以钉钉子精神持续加固中央八项规定堤坝，驰而不息深化能力作风建设，以优良党风政风带动社风民风向上向善；要以彻底的自我革命精神打好反腐败斗争攻坚战持久战，以一体推进“三不腐”为经济社会高质量发展保驾护航；要紧盯群众最关心、最直接、最现实的利益问题，以正风肃纪、反腐惩恶实际成效持续营造良好的政治生态和发展环境。', '会议指出，这次省党政代表团广东行和我市党政代表团赴广州、深圳学习考察，既开阔了思维眼界、看到了差距不足，也深化了双方合作、收获了丰硕成果，更学习了先进经验、坚定了发展信心。要深刻领会推进深哈对口合作高质量发展的重大意义，进一步完善交流机制、提升合作水平，将两地对口合作推向更高层次、更广领域、更大格局。要进一步解放思想，加快转变传统思维、培养经济思维，着力提高学习能力、提升专业素质，不断强化服务意识、提升服务质效，一件事情接着一件事情办，推动学习考察成果转化为推动我市高质量发展的实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>56</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>市政府大事记</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2008-09-27</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200809/c01_85227.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['1日 市长张效廉出席在沈阳举办的第四届东北四城市（4+3）市长峰会并作主旨发言。 同日 副市长王世华主持召开全市棚改工作推进例会。 同日 副市长丛国章到省政府参加落实国家审计署审计决定，做好农保基金审计整改工作会议。 同日 副市长张少良会见新加坡国际企业发展局副局长尤善钡一行。 同日 副市长张显友到哈中小学校参加新学期开学视导活动。 2日 市长张效廉赴大连市学习考察城市建设与管理工作，并会见大连市委副书记、市长夏德仁 。 同日 常务副市长姜明主持召开专题会议，研究省直机关职工住宅小区建设有关工作，副市长王世华参加。 同日 常务副市长姜明主持召开市信贷领导小组会议。 同日 副市长王世华主持召开清河湾小区棚改工作推进现场会。 同日 副市长王莉到延寿县调研并与有关人员就农村村委会换届选举问题进行座谈。 同日 副市长张显友陪同市委主要领导到市有关学校进行调研。 1-2日 副市长李希荣参加全省发展水产养殖业现场会议。 3日 市长张效廉抵达广州市学习考察地铁建设情况并与广州市政府进行座谈。 同日 常务副市长姜明主持召开市政府专题会议，研究支持“哈飞”建设有关工作，副市长丛国章参加。 同日 副市长王世华主持召开加强城市供热监管、维护供热市场秩序工作协调会议；参加省政府迎接国家土地调查组筹备工作会议。 同日 副市长丛国章参加与双鸭山市政府有关领导举行的会谈工作。 同日 副市长张显友主持召开教育校舍危房改造协调会议，出席欢迎焦刘洋载誉归来座谈会议。 同日 副市长李希荣到方正县检查农业生产工作。 4日 哈尔滨市人民政府关于印发哈尔滨市《国家行政机关公文处理办法》实施细则等公文处理工作相关管理细则的通知（哈政发[2008]21号）下发。 同日 市长张效廉出席哈尔滨（广州）区域经济合作说明会暨签约仪式；会见美国流磁风电有限公司执行董事黄伟彬。 同日 常务副市长姜明主持召开市政府专题会议，研究“干净城市建设”工作会议，副市长王世华参加。 同日 副市长王世华陪同中国国际工程咨询公司总经理包叙定一行调研我市轨道交通项目；参加国家监察部、国土资源部、中国银监会联合调查组来哈活动。 同日 副市长丛国章主持召开会议研究哈汽轮机厂核电冷作厂房项目相关事宜；参加黑龙江烟草工业公司《哈尔滨卷烟厂易地技改项目》专家论证会。 同日 副市长张显友主持召开筹建哈尔滨高级护理学院专题会议；会见国家审计署审计调查组领导。 同日 副市长李希荣陪同农业部调研组赴五常市检查有关工作。 3-4日 副市长王莉赴沈阳与民政部有关部门领导沟通工作情况。 5日 市长张效廉出席在广州国际会议展览中心举行的第16届广州博览会开幕式并参观哈尔滨展区；赴广东省东莞市松山湖科技园区学习考察，并会见东莞市委副书记、市长李毓全。 同日 常务副市长姜明陪同国家工程咨询公司总经理包叙定一行到哈市有关企业调研。 同日 副市长王世华主持召开土地一级开发工作协调会议。 同日 副市长丛国章参加省暨哈市2008高校毕业生就业服务月活动启动仪式。 同日 副市长王莉出席全市社区建设领导小组（扩大）会议；会见以色列前驻华使馆公使衔参赞欧穆然一行。 同日 副市长张显友会见美籍犹太人保罗艾格伦一行；参加市九三学社建社50周年暨表彰会议。 同日 副市长李希荣到省发改委沟通有关工作情况。 6日 市长张效廉在深圳市考察地铁建设、旅游开发情况并与深圳市政府领导座谈；会见华侨城集团董事长任克雷。 同日 副市长丛国章参加质监局“关注民生、计量惠民”服务月启动仪式。 同日 副市长张显友参加新晚报人和健身杯哈市第三届群众健身大赛、东北农大建校60周年庆典活动；慰问名优教师。 7日 市长张效廉考察厦门市快速公交系统（BRT）并会见厦门市长刘赐贵；会见以会长哈利赛亚丁为团长的华南美国商会代表团一行。 同日 副市长丛国章召开会议研究厂办大集体改革事宜。 同日 副市长王莉会见民政部低保司司长米勇生。 同日 副市长李希荣出席哈尔滨市奶业协会年会。 8日 市长张效廉出席在厦门举行的第12届中国国际投资贸易洽谈会开幕式并参观展馆；考察厦门金龙联合汽车工业有限公司。 同日 副市长王世华参加中国黑龙江第五届菊花展开幕式；主持召开松花江流域重点治污项目建设工作推进会议。 同日 副市长王莉会见民政部优抚安置局局长孙绍骋一行。 同日 副市长张显友出席全市庆祝第24个教师节暨表彰奖励大会、市幼儿师范学校庆祝教师节颁奖仪式；到哈三中南岗校区参加庆祝教师节——畅谈教育改革三十年座谈会。 同日 副市长李希荣到尚志市开展粮食生产情况调研。 9日 市长张效廉抵达内蒙古自治区呼伦贝尔市进行学习考察，并会见呼伦贝尔市政府市长罗志虎。 同日 常务副市长姜明参加中国铝业公司东轻公司铝合金板带生产线项目奠基仪式并致辞，副市长丛国章参加。 同日 副市长王世华与建设部有关同志就向哈尔滨派驻城乡规划督察员工作进行座谈；参加市委接待国家土地联合调查组活动。 同日 副市长丛国章会见英联马利中国及东亚太区总裁韦斯嘉。 同日 副市长王莉参加全省支援四川抗震救灾及灾后重建领导小组第五次工作会议。 10日 市长张效廉考察满洲里市有关企业和建设项目，并会见满洲里市市长杜学军。 同日 副市长王世华陪同市委主要领导调研迎大冬会铁路沿线环境综合整治工作；主持召开清河湾棚改小区规划现场办公会和棚改工作推进例会。 同日 副市长丛国章主持召开会议研究哈绝缘材料厂易地搬迁事宜。 同日 副市长王莉到哈尔滨市国际友好城市展览馆建设现场视察工作。 11日 常务副市长姜明出席全市“建设干净城市”动员大会并讲话，副市长王世华参加。 同日 常务副市长姜明主持召开协调会议研究区级事业单位阳光工资兑现工作；陪同省市人大领导到双城市调研。 同日 副市长丛国章参加省委、省政府召开的民营企业家座谈会议。 同日 副市长王莉出席市青年科学家论坛暨科学技术“学术月”启动仪式；参加全市侨届医疗“惠侨卡”启动发放仪式暨庆中秋迎国庆文艺演出活动。 同日 副市长张显友到计生技术服务中心调研并检查指导工作；出席烟台—哈尔滨经济技术合作洽谈会暨合作项目签约仪式；会见烟台市委常委、副市长郝德军一行；主持召开北方历史博物馆建设用地协调会议。 同日 副市长李希荣陪同省人大检查组赴双城市检查农业生产。 2-11日 副市长张少良赴外地学习考察并出席2008年广州“博览会”和第12届厦门“投洽会”相关活动。 12日 市长张效廉，常务副市长姜明，副市长王世华、丛国章出席市委常委会议。 同日 市长张效廉出席市政府赴外地学习考察出访人员座谈会并讲话，副市长张少良参加。 同日 常务副市长姜明参加市领导接待我市离退休教师“阳光工资”问题会议并讲话，副市长王维绪参加。 同日 副市长丛国章陪同市人大领导视察我市部分优势骨干企业。 同日 副市长王莉主持召开专题会议研究市第一社会福利院易地建设征地问题。 同日 副市长张显友陪同市人大领导视察我市部分优势骨干企业；陪同市委主要领导视察市儿童医院建设项目。 13日 副市长丛国章召开食品安全协调委员会紧急会议，研究部署我市应对三鹿奶粉事件有关工作。 同日 副市长王维绪参加中央信访督察组向省委反馈意见会议；陪同市委主要领导慰问市国家安全局同志。 14日 副市长王利陪同市委主要领导出席市第一社会福利院道里分院落成揭牌仪式。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>56</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市企业和投资服务局随省商务厅赴深圳开展招商引资工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c108244/202303/c01_749255.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为做好省党政代表团赴广东学习考察经贸交流活动前期工作，3月7日-10日，省商务厅刘海城书记率相关地市招商部门赴广东开展招商引资活动。哈尔滨市企业和投资服务局副局长孔雪辉带队随团参加深圳相关活动，期间走访调研了数字经济、生物经济、智能制造等头部企业。', '考察团先后拜会了深圳市黑龙江商会、腾讯（云）公司、深圳市善行医疗科技有限公司、深圳市北科生物科技有限公司、深圳华大基因股份有限公司和深圳科安达电子科技股份有限公司，考察团与企业家面对面交流，深入了解企业主营业务、经营模式、与我省合作项目及诉求等基本情况，就共同进一步推进黑龙江省与深圳市重点商会、企业交流合作进行深入探讨。', '下一步，市投资服务局将积极做好省党政代表团赴广东开展招商活动前期筹备工作，同步做好市党政代表团考察、座谈等招商工作，丰富活动形式，扩大交流范围，开展深层次对接；同时根据此次考察企业与合作项目实际情况，积极对接企业，做好落地服务工作。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>56</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>中共哈尔滨市委办公厅哈尔滨市人民政府办公厅关于进一步加强与省内各地市工作联系和做好服务工作的通知</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2004-07-05</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200407/c01_84171.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['中共哈尔滨市委办公厅哈尔滨市人民政府办公厅关于进一步加强与省内各地市工作联系和做好服务工作的通知 - 哈尔滨市人民政府', '中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅 关于进一步加强与省内各地市 工作联系和做好服务工作的通知', '各区、县（市）党委和人民政府，市委各部办委，市直各党组、党委（工委）： 为深入贯彻落实省委、省政府关于哈尔滨“加快发展、当好龙头”的战略决策，全市各级党委、政府和各部门、各单位要进一步加强与省内各地市的交流与合作，为省内各地市提供更优良的服务，共同推动全省经济和社会各项事业加快发展。现就加强与省内各地市工作联系和做好服务工作的有关问题通知如下： 一、强化为省内各地市服务的意识。要牢固树立服务全省的思想，进一步增强为省内各地市服务的意识，把改进服务态度、提高服务质量作为加强联系和交往、赢得信任和支持的基础。对省内各地市来我市开会、办事或参加其他活动的有关同志，要认真搞好对口接待，提供满意的服务；对来我市投资、兴办企业的人员，要主动介绍情况，提供信息和资料，帮助解决实际困难，为投资、兴办企业创造良好的条件；对来我市的务工人员，要加强引导，热情服务，做好必要的技能培训和安全法规教育，维护他们的合法权益；公安、交通、市政管理等部门要文明执法，对省内各地市来哈车辆的一般违章问题，只纠正，不罚款、不扣车。 二、建立与省内各地市工作联系制度。市和市直各部门、各区、县（市），要保持与省内各地市、对口部门和区、县（市）的交往，建立工作联系制度，及时掌握省内各地市对开展合作、交流的意见和建议，学习省内各地市的工作经验。市委办公厅、市政府办公厅要加强与省内各地市驻哈办事处的联系与沟通，充分发挥各地市驻哈办事处的桥梁与窗口作用，促进我市与省内各地市的联系与交往。 三、建立走访制度。市委、市政府要坚持每年到省内地市走访一次，遇有特殊情况应随时走访。可根据需要派出学习考察组到省内各地市学习考察或邀请其有关人员来我市介绍经验。通过走访、考察等交流活动，互通情况，征求意见，增进了解，密切联系。 四、建立信息交流制度。要通过黑龙江信息港和哈尔滨信息港、互联网，搭建信息平台，建立与省内各地市信息定期交流、资源共享的工作机制。通过信息交流，及时了解和掌握省内各地市工作动态，为市委、市政府领导决策提供依据。 五、进一步扩大经济技术合作。要加强与省内各地市特别是与我市接壤的地市经济技术合作，坚持优势互补、互利互惠和共同发展，将行政推动与发挥市场在资源配置中的基础作用紧密结合起来，大力开展区域经济合作。要为全省各地市搭建招商引资平台，制定省内各地市招商引资到我市落户的优惠政策，创建优良的服务环境，进一步提升我市作为中心城市的辐射功能。 六、积极协调解决省内各地市提出的有关问题。对省内各地市提出的需要我市给予协调、配合和解决的问题，有关部门要热情、积极、主动，尽力予以协助。省内各地市发生严重自然灾害或其他严重事故时，要主动伸出友谊之手，给予物质或其他方面的援助。 （不另行文）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>56</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>市政府工作大事记</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2006-05-31</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200605/c01_84579.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['1日 市长石忠信出席道里区俄罗斯文化节活动开幕式。 同日 副市长聂云凌出席全国足球乙级联赛哈尔滨市毅腾俱乐部主场比赛活动。 同日 副市长张桂华参加哈尔滨市“东轻杯五·一”环城赛跑活动。 8日 常务副市长史文清到中国银监会、以色列驻华大使馆联系有关工作。 同日 副市长聂云凌参加省暨哈尔滨市纪念“5·8”世界红十字日活动。 8—9日 副市长张桂华到以色列驻华大使馆及国家民政部联系有关工作。 9日 市长石忠信会见以赵本山为团长的辽宁民间艺术团。 同日 常务副市长方世昌参加全省森林防火紧急电视电话会议。 10日 市长石忠信会见国务院金融检查组成员。 11日 市长石忠信陪同国土资源部副部长、国家测绘局局长鹿心社在哈调研。 同日 市长石忠信主持召开市政府第55次常务会议。 12日 市长石忠信参加哈电站集团首届科技大会，出席为我省首位境外投资人颁发《外国人永久居留证》仪式，出席省与国家开发银行金融合作领导小组会议。 同日 市长石忠信、副市长张桂华出席全市外事侨务工作会议。 同日 副市长张桂华会见航天一院院长助理、载人火箭总指挥刘宇一行。 同日 副市长丛国章接待国电集团东北分公司党组书记、总经理米树华一行。 15日 市长石忠信、常务副市长方世昌率市党政代表团赴江苏、江西学习考察。 同日 副市长王大伟陪同市委领导会见全国汽车工作销售总公司经理一行。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>56</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市国资委率团到深圳市开展招商合作交流</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c108058/202206/c01_742295.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实省、市招商引资工作部署，6月15日至6月17日，市国资委主任、党委副书记刘明宇率建设集团、排水集团、城投集团和工投集团，到深圳市黑龙江商会、心里程控股集团、深圳市特区建设发展集团、惠州海格科技公司，开展学习考察和招商合作交流。', '6月15日下午，刘明宇会同建设集团、排水集团一行，在深圳黑龙江商会会长张华、执行会长李海波的陪同下，考察了深水海纳水务集团并进行座谈。', '刘明宇指出，招商引资是稳增长、强后劲、加快振兴发展的重要支撑，市属国企有诸多产业优势和资源优势，要全力以赴抓招商、千方百计上项目、多措并举兴产业。希望能与商会多交流合作，发挥商会优质企业和高质量产业资源优势，为市属企业引荐更多的高技术、高成长、高附加值的合作企业和项目，为哈尔滨实现晋位赶超贡献国资国企力量。', '张华会长表示，黑龙江商会一直以来非常重视家乡的招商引资工作，积极响应龙商回归，推介更多优质资源流向家乡。商会已成立经济发展部，致力于宣传推介家乡营商环境和政策、资源优势、对接大湾区更多高质量产业，持续助力家乡的经济发展。', '心里程控股集团董事长彭国远指出，该集团涉及建设区域总部、教育装备产业基地、投融资合作等领域，目前已在全国多个城市投资布局并取得成效。哈尔滨是该集团在国内投资发展版图的重要区域，希望双方加强沟通交流，进一步谋求合作切入点。', '刘明宇指出，市属国企有许多产业优势和资源优势，希望进一步通过盘活国企存量资产，推动心里程控股集团的产业移植到哈尔滨，为哈尔滨经济发展助力。', '6月16日下午，刘明宇会同建设集团一行，到深圳市特区建设发展集团考察调研并座谈。特区建发集团总经理李喻春，介绍了特区建发集团发展历程、业务板块、未来发展方向以及与哈尔滨国企系统的合作项目。', '刘明宇表示，自深哈合作以来，哈尔滨国资国企系统与深圳国资国企系统，建立了深厚的友谊和坚实的合作基础，特别是特区建发集团参与开发建设的深哈产业园，是深哈合作的标志性成果。市属国企要学习特区建发集团好的经验做法，也希望建设集团与特区建发集团发挥双方各自优势，开展深度交流合作，实现建设集团走出哈尔滨，立足深圳开拓大湾区市场。', '建设集团董事长王福滨，围绕产业园区开发、城市建设项目设计、城市基础设施建设、建筑废弃物综合利用等方面进行深入交流。双方一致认为，建设集团和特区建发集团在很多领域优势互补，将进一步深入探讨交流合作的项目和方式。', '6月17日，刘明宇一行来到工投集团控股的惠州海格科技公司调研，深入车间了解生产经营情况，并听取企业负责人的情况介绍。刘明宇指出，惠州海格科技作为高技术制造企业，这些年的发展逐步走出了低谷。要积极应对市场环境的变化，及时调整经营战略，推动企业再上新台阶。要深入研究国家近期稳经济、促发展的工作要求，多种途径盘活存量资产，进一步优化企业资债结构，积极推动企业上市和对外合作，共建产业链，贯通上下游，实现全链条发展。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>56</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>中共哈尔滨市委办公厅哈尔滨市人民政府办公厅关于在行政区划调整期间严肃纪律的通知</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2006-09-13</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200609/c01_84657.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['中共哈尔滨市委办公厅哈尔滨市人民政府办公厅关于在行政区划调整期间严肃纪律的通知 - 哈尔滨市人民政府', '中共哈尔滨市委办公厅\ue003 哈尔滨市人民政府办公厅\ue003 关于在行政区划调整期间严肃\ue003 纪 律 的 通 知', '香坊区、动力区、阿城市、道外区党委和人民政府，市委各有关部办委，市直各有关党组、党委（工委）：\ue004 根据《国务院关于同意黑龙江省调整哈尔滨市部分行政区划的批复》（国函〔2006〕73号）和《黑龙江省人民政府转发国务院关于同意黑龙江省调整哈尔滨市部分行政区划批复的通知》（黑政发〔2006〕67号）精神，我市将启动香坊区、动力区、阿城市和道外区行政区划调整工作。为防止行政区划调整期间发生违规违纪问题，经市委、市政府同意，现就行政区划调整期间严肃纪律的有关事项通知如下：\ue004 一、严肃政治纪律。行政区划调整相关地区、部门和单位的党员干部特别是领导干部，要自觉坚持讲政治、讲大局，正确领会和坚决执行市委、市政府关于行政区划调整的决定和政策规定，确保政令畅通。要认真执行重大事项报告制度，对行政区划调整中遇到的重要情况和问题及时报告，重要事项必须按规定逐级请示，涉及人、财、物等重大问题必须及时向市行政区划调整工作领导小组汇报。要讲党性、讲原则，坚持下级服从上级、个人服从组织、局部服从全局，严禁无政府主义、自由主义和本位主义的言行，严禁制造矛盾、设置障碍和散布不利于行政区划调整工作的言论，维护社会稳定，保证平稳过渡。\ue004 二、严肃组织人事纪律。认真贯彻民主集中制原则，凡行政区划调整中涉及的干部任免、人员分流等重大问题，必须坚持集体讨论决定。行政区划调整期间，暂停人事调动，冻结人员编制。严禁违反规定提高干部职级待遇、临时动议任免干部、突击提拔调整干部。严格机构编制工作纪律，不准超编进人、擅自设立内部机构和提高机构规格、超职数配备领导干部。行政区划调整期间，停止办理新进人员的落编手续；市委、市政府及市机构编制委员会对新的机构编制作出部署前，不得对机构编制进行调整。\ue004 三、严肃财经纪律。严格执行开支标准，控制开支范围。不准借区划调整之机新立补贴项目、提高补贴标准、扩大补贴范围，以及违反规定发放现金或私分公款公物；不准以各种名义套取现金用于发放奖金、补贴或福利支出。严格国有资产管理。未经批准，任何地区、部门和单位不准擅自转让、转借、转移、调换国有资产；不准变更国有资产用途；不准借机对外提供信贷担保和资产抵押；不准以无偿调出、出售、报废、报损等形式处置房屋建筑物、土地、车辆及其它设备等。严格控制非正常支出。行政区划调整期间，暂时冻结银行账户。除正常支出以外，其它支出一律由领导班子集体决定，不准临时动议决定大额资金使用、审批项目和发包工程；不准以各种名义滥发钱物、突击花钱、擅自购置办公设备；不准借机搞公款吃喝、公款旅游及组织高档消费娱乐活动；不准以各种名义用公款向提拔、交流、调整的领导干部赠送礼金、有价证券、支付凭证和纪念品等。严格禁止违规购车和装修办公用房。领导干部职务调整、交流，原则上不准购买或更换小汽车，所需公务用车在现有车辆中调配解决；情况特殊、确需购买的，应严格履行审批手续。新任领导干部办公用房原则上在现有办公用房中调剂解决，不准借调整之机，对领导干部办公用房进行豪华装修、配置高档办公用品。严格公共财物管理。领导干部调整工作岗位时，要及时清理、移交和归还公务用车、办公用房、电子计算机、公款及其它公共财物，对将公共财物据为己有的，要依照有关法律法规严肃处理。\ue004 四、严肃工作纪律。行政区划调整所涉及的领导班子和领导干部，在工作变动之前，要做到思想不散、工作不松，坚守岗位、恪尽职守，确保正常工作不受影响，严禁擅离职守、中断工作、推诿扯皮、消极怠工；在新的岗位明确后，要坚决服从组织安排，严格按照规定按时做好交接工作，并在规定期限内报到。严禁借行政区划调整之机，组织各类与工作无关或无实质内容的参观、学习和考察活动，不准借出差、学习、考察、招商、参展等名义公费旅游。认真执行外出报告审批制度，凡组织团体性外出参观、学习、考察活动的，必须按照有关规定报批。严格执行党政主要领导外出请假制度，严格控制领导干部出国和到外地考察。党政主要领导因公、因私外出，要按有关规定报经市委或市政府领导批准。\ue004 五、严肃保密、档案纪律。行政区划调整期间，要认真做好保密工作，对涉密事项，任何人不得泄露。严禁传播小道消息。对宣传报道要严格把关，确保口径一致。严格涉密文件管理。要对所有文件进行全面清理，凡涉密文件要登记造册、归档立卷，做好交接工作，避免文件丢失；需要销毁的涉密文件，必须由保密部门统一登记、清缴和销毁，任何单位和个人不得擅自向非保密定点单位提供和出售文件资料。严格涉密计算机和涉密介质管理。涉密计算机（包括笔记本电脑）和光、磁盘等介质的移交工作必须履行登记手续，不得在未经保密技术处理的情况下改变其用途或降低密级使用；需要销毁和废弃的，要送市保密局统一处理。严格涉密人员和涉密人员脱密期管理。行政区划调整期间，所有涉密人员特别是保密要害部门、部位的涉密人员，要坚守岗位、履行职责，不准空岗、离岗；人员调动时，要有涉密人员顶替并办理交接手续， 调动人员要与保密部门签订保密协议，履行保密义务。切实加强行政区划调整过程中的档案依法监督工作。在合并前，要将本区应接收进馆的档案全部接收进馆，对区直各部门未进馆的文书档案、 会计档案、声像档案、实物档案和专业档案做好登记工作。加强机构合并期间档案销毁工作的监督，原则上机构合并中不允许销毁档案，必须销毁的，要按照有关法律、法规和文件要求办理，并严格履行销毁手续，责任分明，登记清楚。要做好机构合并时档案的移交和接收工作，做到手续齐全、合法。\ue004 各级领导干部要增强党性观念，当好群众表率，带头维护稳定，做好本职工作。要重视群众工作、做好思想政治工作，加大政策宣传和思想教育力度，引导干部职工顾全大局，积极支持行政区划调整的各项工作。要坚持原则、秉公办事，特别是对涉及干部、机构编制、财务、资产等问题必须严格把关、不出纰漏，避免产生不稳定因素，防止国有资产流失和失、泄密等问题的发生。市委、市政府将对相关地区、部门、单位行政区划调整期间有关纪律执行情况进行监督检查，认真受理干部群众举报，接受党内外监督。对在行政区划调整期间有令不行、有禁不止、顶风违纪的，将予以严肃查处；情节严重、造成恶劣影响的，要追究有关领导的责任。 中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅 2006年9月13日\ue003\ue003']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>能力作风建设哈建设集团以学习型企业创建积蓄高质量发展新动能</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c108058/202207/c01_742560.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['【能力作风建设48】哈建设集团以学习型企业创建积蓄高质量发展新动能 - 哈尔滨市人民政府', '编者按：全市“能力作风建设年”活动启动以来，市国资委党委高度重视，坚持高标准谋划、专班推进，有序推动活动在全系统全面铺开。即日起，“哈尔滨国资”微信公众号开设“能力作风建设年”专栏，集中宣传展示国资系统能力作风建设工作成效，持续刊发国资国企典型经验做法。', '建设集团党委坚持高标准开局、高质量推动“能力作风建设年”活动，把“实施创建学习型企业行动”作为重点工作内容之一，以理论思想提升引领能力作风优化。', '对标对表“八种本领”“七种能力”，采取“三有”形式，压紧压实创建举措。一是学习有方向。深入学习习近平新时代中国特色社会主义思想，反复学习习近平总书记对东北地区和我省的重要讲话重要指示批示精神，研讨学习省、市党代会会议精神，奋力落实“五个率先”“七大都市”具体目标。二是推进有标准。梳理11个职能部门业务流程清单61项，完善业务知识手册涵盖内容45项，形成“基本业务+”题库1200题，实现党员学习考评100%全覆盖。三是“头雁”有引领。实行“五学”模式，党委班子成员以身作则，带头参加学习、带头交流发言，目前集团及权属企业开展中心组学习43次，讲党课7次，专题培训36次，形成“比学赶超”浓厚氛围。', '把握“三个结合”，提升学习效果。一是“一人读”与“大家谈”相结合。将全员述学与专题研讨有机结合，党员干部带着实际问题学习讨论，目前，集团及权属企业开展专题研讨33次、形成研讨材料78份，班子领学35次，全员述学84次。二是“走出去”与“请进来”相结合。与东北林业大学等高校开展深度“校企”产学研合作；赴深圳建设发展集团、水务集团开展学习考察与招商合作交流；加强企业混改，引进战略投资者，权属企业建工集团与中建北方建设集团以增资扩股方式实现企业混改，市政环境公司与松源环境公司已签订《股权转让协议》，按计划推进工商变更登记程序。三是“系统学”与“调研学”相结合。集团领导班子深入基层讲党课、作辅导、搞调研，落实“一线工作法”。截至目前，到东三环快速路工程等项目实地调研10余次，通过走施工现场，解决存在问题、指出攻坚破难路径。', '坚持在创建学习型企业中把握“四个助力”，把学习成果转化为推动集团发展的强大动力。一是以学助力本领提升。在集团及权属企业确定的13组“师带徒”中开展传承培训，开展“一线工匠讲技术”活动10次，形成业务骨干教学微视频3个，在专项任务、技术创新等方面均实现突破，形成专利、工法、工程奖项10余项。二是以学助力难题破解。将安全生产、改革发展、生产经营等中心工作推进中遇到的“难题”转化为“课题”，集团国企改革三年行动总任务量已全部完成，实现哈市应急方舱医院改建、哈尔滨健康驿站改造等应急项目按时竣工交付，市政设计院提前完成通河县供水设施新建扩建项目设计交付等。三是以学助力作风转变。对标习近平总书记对我省重要讲话梳理的6个方面26项具体要求建立台账，坚持照单监督、对账销号。对权属11家企业开展下沉式督导、嵌入式监督，查找问题8项，实现立即整改5项。四是以学助力改革发展。以“项目牵动”战略积极拓展市场，以工作质效提升创造企业效益。不断加大工程承揽力度，成立重点项目指挥部，全力推进工程项目建设。2022年上半年，新签合同额达20亿元，其中包括秦皇岛小李庄片区安置房,方舱医院二期,南岗区、香坊区、平房区老旧小区改造等项目，新签合同额同比增长97%。', '建设集团将持续推深做实“能力作风建设年”活动，全力推进各项重点工作不断向前，切实锤炼党员领导干部“八种本领”、铸就“七种能力”，凝聚正能量、提振精气神，推动集团实现加快发展、赶超发展、高质量发展，以优异的成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>56</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>大事记</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2012-11-05</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/201211/c01_86017.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['2日 市长宋希斌检查市政工程建设情况和市容市貌。 3-11日 副市长曲磊率团赴俄罗斯开展经贸旅游文化等综合推介活动。 4-5日 市长宋希斌、副市长张万平到尚志市、延寿县就产业项目建设、小城镇建设、县域经济社会发展情况进行调研。 6日 市长宋希斌、副市长张万平陪同省长王宪魁到延寿县、尚志市就秋粮收获、扶贫开发和产业项目建设等进行调研。 8日 市长宋希斌、政府党组成员魏伟视察哈西客站综合交通枢纽建设情况。 同日 市长宋希斌主持召开市政府专题会，常务副市长聂云凌，政府党组成员魏伟、副市长任锐忱参加。 同日 副市长焦远超会见台湾品牌农业推广协会理事长张玉成。 9-12日 市长宋希斌赴俄罗斯考察。 9日 常务副市长聂云凌陪同市委书记林铎会见香港豪德集团董事局主席王再兴及华南城公司联席主席、执行董事郑松兴。 同日 副市长张显友接待市人大《食品安全法》执法检查组。 同日 副市长张万平陪同市委书记林铎到依兰县调研；到通河县检查秋季农业生产工作。 同日 副市长张万平主持召开全市秋收、秋整地工作紧急电视电话会议。 10日 常务副市长聂云凌出席全市应急管理工作培训班开班式并讲话；出席罗克韦尔自动化与九洲电气高压变频业务交易交割仪式暨罗克韦尔自动化控制集成（哈尔滨）有限公司开业典礼并致辞。 同日 常务副市长聂云凌、副市长焦远超陪同市委书记林铎会见2012哈尔滨世界农业博览会海外参展团代表。 11日 常务副市长聂云凌、副市长焦远超、张万平出席2012哈尔滨世界农业博览会开幕式； 同日 副市长焦远超、张万平出席农博会农业发展论坛。 同日 副市长任锐忱出席全市安全隐患排查治理体系建设工作推进会议。 同日 副市长张万平参加全省加快秋收进度紧急电视电话会议；出席世界农业博览会粮食交易合作洽谈会签约仪式。 12日 副市长张显友视察三棵树中药材专业市场，监督销毁过期失效中药材。 同日 副市长焦远超出席哈尔滨市农业、食品推介会和全球农业市场与国际合作论坛。 同日 副市长焦远超出席2012哈尔滨世界农业博览会项目签约仪式。 同日 副市长任锐忱参加全国公安机关近期重点安保工作动员部署视频会议。 同日 副市长张万平陪同省委副书记杜家毫到呼兰区、巴彦县、宾县视察秋收及秋整地工作。 13日 副市长张显友出席黑龙江首届科学健身“嘉年华”活动开幕式。 同日 副市长张万平陪同省长王宪魁赴五常市、双城市调研。 14日 市长宋希斌、副市长焦远超实地检查“2012哈尔滨世界农业博览会”。 同日 常务副市长聂云凌会见国家环保部东北督查中心主任任文毅。 同日 市政府党组成员魏伟陪同环保部东北督查中心有关领导视察我市“三沟一河”治理情况。 同日 副市长张万平带领各区县市分管领导赴呼兰、巴彦、木兰、通河、方正、延寿、尚志、五常、阿城、双城等地查看秋收工作现场，组织召开全市秋收、秋翻现场拉练会议并讲话。 15日 市长宋希斌，常务副市长聂云凌，副市长焦远超、张万平赴绥化市学习考察产业项目建设及招商引资经验。 同日 副市长曲磊出席全市征兵动员工作电视电话会议并讲话；赴绥芬河参加省市长协会理事长联谊会成立大会。 同日 市政府党组成员魏伟陪同市委书记林铎同志听取全市既有建筑装饰性节能改造工程项目牌匾广告规划设计方案汇报。 同日 副市长焦远超会见义乌市领导和部分企业家代表。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>56</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>哈尔滨市人民政府办公厅关于印发哈尔滨市培育规模以上工业企业三年行动计划的通知已废止</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2017-11-16</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104537/201711/c01_65650.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['哈尔滨市人民政府办公厅关于印发哈尔滨市培育规模以上工业企业三年行动计划的通知（已废止） - 哈尔滨市人民政府', '哈尔滨市人民政府办公厅关于印发哈尔滨市培育规模以上工业企业三年行动计划的通知（已废止）', '经市政府同意，现将《哈尔滨市培育规模以上工业企业三年行动计划》予以印发，请认真贯彻执行。', '为深入贯彻落实省政府第八十一次常务会议精神，深入开展规模以上工业企业培育工作，依据《黑龙江省人民政府关于印发黑龙江省加快培育规模以上工业企业十项措施的通知》（黑政规〔2017〕18号）和《黑龙江省人民政府办公厅关于印发全省规模以上工业企业培育专项行动工作方案的通知》（黑政办发〔2017〕21号）精神，结合我市实际，制定本计划。', '以习近平总书记系列重要讲话精神和治国理政新理念新思路新战略为指导，全面贯彻落实省、市政府关于“提升工业化水平、做大实体经济”的总体部署，以“制造强市”为目标，大力推进实施“中国制造2025”哈尔滨行动计划，挖掘增长潜力，壮大产业规模，推动规模以上工业企业数量、质量和效益同步提升，促进工业经济扩量升级、提质增效，为经济社会发展提供有力支撑。', '（一）实施“保临退”专项行动。将上年度主营业务收入2000万元至2500万元的规模以上工业企业作为“临退”企业，全面分析其近3年指标变化情况及发展趋势，对于生产困难、指标下滑，特别是当年预计主营业务收入跌破2000万元，以及停产半停产并存在退出规模以上风险的企业，采取一企一计，靶向施策，力争使其保留在规模以上行列。', '（二）实施“促成长”专项行动。制定培育规模以上工业企业年度滚动计划，每年将主营业务收入1500万元至2000万元的300户临近入统企业和主营业务收入1000万元左右的高成长性科技型工业企业列入规模以上工业企业培育滚动计划，作为重点培育对象，按月跟踪监测，帮助其开拓市场、扩大销量，加快成长入统。', '（三）实施“项转规”专项行动。将近3年新建工业项目和规模以上工业企业库进行对比分析，对于在建项目，要帮助企业解决项目实施中遇到的困难和问题，促进其按期建成投产；对于建成未投产项目，要引导企业抓住市场回暖机遇，尽快投产；对于投产未入统企业，要帮助企业寻求市场机遇，扩大生产，力争用最短时间将项目培育成规模以上工业企业。', '（四）实施“返规上”专项行动。将近两年退出规模以上企业库的工业企业纳入重点监测范围，对市场需求回暖且生产经营好转的企业，帮助其加大市场开拓力度，扩大主营业务收入；对经营困难的企业，引导其通过产品升级转型，企业兼并重组等方式，激活存量，增加收入，力争重新回到规模以上工业企业行列。', '（五）实施“补遗漏”专项行动。将省工信委归集的疑似漏统企业名单作为挖掘增量的重点，做好辅导，动员其依法入统，并协助办理入统手续。除因国家产业政策及许可限制必须设立非独立核算单位的企业外，对全市非独立核算工业企业（分公司）进行梳理排查，特别是对引入我市为部分整车、整机配套的非独立核算工业企业，要指导其转为独立法人单位，建立核算和统计报送体系，引导其尽快入统。', '（六）实施“调结构”专项行动。将统计在一产、三产且工业收入占比超过非工业收入的企业纳入工业统计体系；对工业收入小于非工业收入的企业，引导其通过产能整合、靠大联强等方式，将工业产能剥离出来，成立新的法人单位，生成新的规模以上工业企业。', '（一）确定重点领域。在总需求增长空间大且我市具有较强竞争优势的领域加大培育力度。提升农副产品加工和食品制造行业精深加工能力，提高产品附加值；引导装备制造业龙头企业延长产业链条，带动本地配套企业发展壮大；帮助医药工业企业开拓市场，扩大销量；支持新材料、新能源装备、新一代信息技术、生物等战略性新兴产业加速成长，壮大规模。（市工信委牵头，各区县市政府配合）', '（二）锁定培育对象。利用大数据，整合统计、市场监管、税务、科技等部门企业信息，重点对主营收入2500万元以下存在退出规模以上风险的企业，上年度停产、半停产企业，主营业务收入1500万元以上未入统企业，近两年退出规模以上但有望重新再次入统企业，高速增长科技型企业和近3年新建成未入统的企业等六类企业（以下统称“临规企业”），进行重点培育，建立动态“临规企业”数据库，每年调整一次，并将其分配到区县（市）进行联合帮扶和靶向培育。（市工信委牵头，市统计局、市国税局、市科技局、市市场监管局、各区县市政府配合）', '（三）扩大产品销量。支持企业积极参与国内外目标市场定向产品推介，扩大市场影响力和占有率。支持龙头企业开展本地产品配套和产业协作，带动产业链上“临规企业”共同成长。鼓励企业应用电子商务等新型流通手段，扩大销售渠道，提高品牌知名度，支持企业利用新型流通业态，拓展销售空间。（市工信委牵头，市财政局、市商务局、市贸促会配合）', '（四）降低运营成本。落实企业研发费用加计扣除、固定资产加速折旧、高新技术企业减免税等政策。积极争取售电侧改革试点，提高电力市场化交易水平。积极落实国家电力直接交易政策，优先支持符合交易条件的“临规企业”参与电力直接交易。（市发改委、市国税局、市工信委、市财政局、市科技局分别负责）', '（五）提供贷款支持。积极沟通协调金融监管部门、金融机构优先运用信用贷款、贷款展期等方式，为信誉好、还款能力强的“临规企业”提供融资服务。对于组建债权人委员会的“临规企业”，满足特定条件的，积极运用循环贷款、无还本续贷、联合授信等方式给予支持。对高速成长性科技型“临规企业”，探索通过“投贷联动”模式给予股权+债权相结合的融资支持。（市工信委牵头，市金融办、市科技局、人民银行哈尔滨中心支行、黑龙江银监局配合）。', '（六）降低融资成本。利用工业企业贷款周转金，优先支持满足续贷条件的“临规企业”解决暂时资金短缺问题。鼓励、引导金融机构和担保机构提高信用良好“临规企业”的抵押物折扣率，降低担保费率。政府性担保机构应优先满足符合担保条件“临规企业”的担保需求，适当下浮担保费率。对符合助保金贷款申请条件的“临规企业”，给予优先发放助保金贷款。鼓励“临规企业”利用多层次资本市场进行融资，拓宽融资渠道，降低融资成本。（市工信委牵头，市财政局、市金融办、市属政策性担保机构配合）', '（七）强化政策落实。加大对《哈尔滨市人民政府关于印发哈尔滨市工业稳增长促发展政策措施的通知》（哈政发〔2014〕5号）和《哈尔滨市人民政府印发关于进一步扶持中小企业发展的若干政策的通知》（哈政发〔2014〕6号）落实和执行力度，促进存量企业和在建项目成长为规模以上企业。组织新入统企业积极申报省政府鼓励“临规企业”做大做强奖励资金。（市工信委牵头，市财政局、市统计局、市科技局配合）。', '（八）开展专项培训。组织企业负责人参加“龙江企业家发展计划”培训、“龙江企业家发展论坛”、企业家读书会和产业政策交流会等活动。组织企业参加省直部门组织的分行业、分领域赴国内外先进地区、行业学习考察活动。组织举办企业管理团队培训活动，重点提升技术合作、资本市场、营销、管理、信息化应用、智能制造等方面能力和水平。（市人社局牵头，市工信委、市财政局、市统计局、市外侨办配合）', '（九）优化服务环境。为“临规企业”开设行政审批绿色通道，实行一站式办理，给予“优先、优惠”政策。依法简化各种审批手续，特别是减少前置条件，切实提高工作效率。（市统计局牵头，市国税局、市财政局、市工信委、各区县市政府配合）。', '（十）规范经济活动。依法规范企业行为，督促企业履行法定义务，合法经营，依法纳税。达到入统条件的企业，应当依法及时申报入统，及时、准确报送有关数据和信息。对故意逃避法定入统义务的企业，要严格依据《中华人民共和国统计法》有关规定进行处理（市统计局牵头，市工信委、市财政局、市市场监管局、市国税局配合）。', '（一）加强领导，明确责任。建立培育规模以上企业日常工作推进机制和问题协调机制，日常工作由市工信委牵头，市统计局、市国税局等部门配合共同推进。对在推进工作中遇到的重要问题，由市政府分管负责人协调,重大问题由市政府主要负责人协调。各区县（市）政府、各有关部门也要建立相应的推进机制，将规模以上工业企业培育工作作为当前重要任务，主要负责人亲自部署，指定部门（处室）专项推进，并将任务分解落实到处室和具体人员。各牵头部门要切实履行责任，制定行之有效的实施方案，明确配合部门的工作目标和任务；各配合部门要按照时间节点，将具体任务落实落靠，保证整体工作有序推进。', '（二）合力攻坚，确保时限。各区县（市）政府、各有关部门要认真研究、深入分析、全面总结本地区、本部门工作中存在的问题和困难，采取有力措施，分类管理、对症下药、精准施策。对于突出的难点问题，牵头部门要认真组织研究解决。各配合部门要将任务分解到年、细化到月，及时将存在的问题反馈到牵头部门协商解决，确保按时保质保量完成年度任务和总体目标。', '（三）优化流程、提高效率。工信、统计部门要简化和优化企业入统流程，分别指定一名业务骨干，为申报企业提供专项指导服务。对拟新纳入规模以上统计范围的企业，由所在地工信部门会同统计部门牵头全程无偿代办入统等手续。市工信委负责对当年入统企业申报材料进行审核，并提出奖励初步意见。市统计局负责对奖励初步意见和企业申报材料进行联审。市财政局负责筹集奖励资金，并配合相关部门兑现奖励资金。', '（四）建立机制，强化考核。市工信委要牵头建立工作推进机制，定期举行经验交流、问题协商、对接洽谈等活动。市工信、统计部门要组织建立考核机制，完善考核办法、调整考核权重、优化考核流程，严格把好资金使用关，切实将有限的资金投向技术含量高、发展潜力大、市场前景好的行业和企业。市工信委负责对区县（市）政府目标完成情况按月进行统计，按季进行通报，按年进行考核，并将推进情况向全市通报。', '（五）各司其职，协调配合。市国税局每年负责将上一年度主营业务收入1000万元至2000万元工业企业经营及纳税等数据提供给市工信委。市市场监管局负责按需求提供全市年度工业企业注册登记和变更信息。', '（六）广泛宣传，营造氛围。市政府新闻办要组织新闻单位积极宣传相关政策。市工信委要通过新闻媒体对有关政策进行详细解读，建立互动平台，及时解答企业提出的问题。各区县（市）政府要开展送政策下企业活动，努力营造政府主导、社会知晓、企业支持的浓厚氛围。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>56</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>凝心铸魂固本培元践行民盼促业腾飞哈尔滨住房公积金管理中心推进学习贯彻习近平新时代中国特色社会主义思想主题教育走深走实</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c108864/202305/c01_740428.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['凝心铸魂固本培元 践行民盼促业腾飞——哈尔滨住房公积金管理中心推进学习贯彻习近平新时代中国特色社会主义思想主题教育走深走实 - 哈尔滨市人民政府', '凝心铸魂固本培元 践行民盼促业腾飞——哈尔滨住房公积金管理中心推进学习贯彻习近平新时代中国特色社会主义思想主题教育走深走实', '连日来，哈尔滨住房公积金管理中心认真学习领会习近平总书记系列重要讲话精神，把开展好主题教育作为拥护“两个确立”、做到“两个维护”的生动实践，牢牢把握总要求、锚定总任务、笃行总目标，坚持以学铸魂、以学增智、以学正风、以学促干，抱诚守真担当起主题教育的锻造和洗礼，切实把党的创新理论化为坚定理想、锤炼党性、指导实践和推动工作的强大动力。', '“一语不能践，万卷图空虚”。公积金中心严格按照中央、省、市主题教育工作部署，在保证规定动作不走样的前提下，主动创新自选动作，开展“四个一”活动。一是向中心全体党员干部发出一份“倡议书”，激发广大党员干事创业热情。二是向外派和离退休党员干部发出“一封信”，保证主题教育“全覆盖”。三是在全体党员干部开展一次专题研讨，使主题教育入脑入心。四是开展一次别开生面的主题教育读书班活动，真正使主题教育落地见效。“四个一”活动持续掀起主题教育学习热潮。', '调查研究是谋事之基、成事之道。没有调查，就没有发言权，更没有决策权，这是公积金中心党员干部的共识。按照全党大兴调查研究之风相关工作部署，中心主要领导带队利用5天时间到扬州、深圳、广州、重庆4地公积金中心进行实地调研，调研组紧紧围绕制约发展的瓶颈难题，重点对业务开展、管理服务、风险防范、数字化建设等方面进行学习考察。在重庆公积金中心，哈渝双方成功签订了公积金逾期贷款异地扣划合作协议，实现了南北联动、跨省协同，有效解决了两地贷款职工还款急难愁盼问题。在此基础上，中心锚定为民服务发展方向，确定“商转公”贷款、支持二孩及以上家庭租房提取、扩大灵活就业人员缴存范围、同城转移接续等五项攻坚难题，明确责任主体、完成时限与实施步骤，全力推动调研成果有效转化。', '制定主题教育工作方案，把理论学习、调查研究、推动发展、检视整改等贯通起来，把深化能力作风建设“工作落实年”活动贯穿其中，统筹衔接、有机融合、一体推进。利用1年左右时间，在中心内部打一场深化能力作风建设“工作落实年”攻坚战，围绕“归集公积金188亿元”“发放个人贷款72亿元”和“实现增值收益8.1亿元”目标任务，紧扣解决干部落实不力方面突出问题，梳理形成35项重点任务，以“六要六不要”为导向,全面运用“四个体系”闭环工作落实机制，进一步推动政治站位全面提升、思想解放全面提升、能力作风全面提升、工作落实全面提升、从严管理全面提升、干事创业精气神和动力活力全面提升，推进能力作风建设常态长效、走深走实，实现短板工作补齐补强、难点工作攻坚突破、重点工作提质增效、亮点工作百花齐放，带动中心整体工作全面跨越发展。', '坚持以人民为中心的发展思想，以科技力量为支撑，契合行业发展需要，全面推进公积金数字化建设工作。为确保建设工作统领有力，中心成立由主要领导担任组长的建设专班，聚焦群众“最关心、最直接、最现实”问题，督导推进系统建设。紧紧围绕分析需求、调研先进、研发实施等重点工作，充分利用OCR识别、H5等技术，加快业务数字化转型，力争跻身全国一流行业单位，为进一步提升公积金数字化便民服务能力做出最大贡献。扎实开展“惠民公积金、服务暖人心”服务提升三年行动，全面完成优化营商环境专项行动目标任务，不断提高管理服务质效。创新营商监督检查方式，增加检查内容，由“明察暗访”向“明察明访”转变，全面提升营商监督的检查督促和正向引领作用，不断增强人民群众利益的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>56</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>领导重视部门协作全力打造为老服务精品工程</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2007-12-15</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200712/c01_85019.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['哈尔滨市第一社会福利院道里分院建设是市委、市政府2007年二十项惠民工程之一。按照国家、省 、市“十一五”老龄规划以国家兴办福利机构为示范、以居家养老为基础、社区服务为依托、机构养老为补充的养老服务体系建设作为重要内容，力争在“十一五”期间初步缓解老年人入住福利机构的供需矛盾的要求。在市委、市政府的重视和市有关部门的大力支持下，道里福利分院建设正在有序进行。 一、领导重视，部门联动，为福利院建设提供有力保障 为尽快落实此项惠民工程，由市政府秘书长高迎祥主持召开了由市建委、教育局、城市规划局、环保局、卫生局、民政局和消防支队等相关部门参加的协调会议。王莉副市长多次听取筹建情况汇报，深入现场进行指导，要求把哈尔滨市第一社会福利院道里分院建设成为全市示范性的福利工程。在工程前期审批过程中，市各有关职能部门大力支持，市建委、发改委、规划局、土地局、财政局、环保局、卫生局积极主动，打破常规，跟踪服务。市民政局积极协调有关单位帮助解决在筹建过程中遇到的困难。 二、精心组织，科学规划，确保福利院建设顺利实施 作为承建部门，道里区委区政府领导高度重视、亲自挂帅，多次组织召开区政府常务会、区委常委会研究项目的设计、规划，定位建设集餐饮、康复、医疗、娱乐、健身、休闲为一体的现代化花园式福利机构。并组成了由相关委办局参加的筹建领导小组。为进一步学习借鉴先进地区社会福利机构的建管经验，道里区民政局局长带领有关人员先后赴省内和南方发达地区学习考察，将外地先进的设计理念和管理经验与区域实际相结合，形成福利院建设框架。 经过多次选址，充分论证将福利院院址定于机场路1495号。通过反复征求有关专家意见和建议，6次规划，多次设计，确定占地4万平方米，建筑面积16776.10平方米,入住600名“三无”人员，预计总投资4000万元的总体规划，另外在比邻处投资350万元购买建筑面积1600平方米二栋三层楼房作为福利院医疗康复机构。总体规划项目分为两期建设。一期建筑面积10813.47平方米，投资2900万，入住400名“三无”人员。包括7层主楼及3层的阳光大厅和车库，锅炉房。主楼设有监控室、超市、会客室、小型餐厅。每层走廊设有护士值班站，每个房间设有电视、电话、网络端口、应急呼叫器、独立卫生间，设有3个特护室配有急救设施。阳光大厅一层设有200平方米的大餐厅和食品加工间，二层设有康复健身室、图书阅览室、乒乓球、台球、棋牌室。三层设有多功能室、老年大学、手工艺制作室、怀旧倾诉室等，屋面设有观光阳光吧。每个房间采用太阳能热水系统24小时供应热水，冬季采用环保型煤锅炉供暖。一期与二期采用封闭透明空中连廊式连接，楼体外形设计体现了先进、大气、流畅具有现代化风格花园式的福利院。院前分别设有活动区、娱乐区、健身区、休闲区的绿化部局，院后设有近万平方米的植物采摘区，整体设计和功能体现了绿色、祥和、环保、康乐、和谐的理念，一期工程自7月末正式开工以来，克服时间紧、任务重、审批环节多等实际问题，精心组织、科学安排，昼夜施工，历时72天实现主体封顶。现内外砌筑和附属设施基本竣工。车库、锅炉房正在加紧施工，已完成一期总投资额的70%。预期2008年8月投入使用。 三、建管并举，管理先行，为示范先行提供组织保障 在建设初期，道里区委、区政府就将福利院的管理运行体系建设纳入议事日程。要求做到两“同时”，即同时建设、同时研究制定管理办法。通过借鉴先进经验结合区情，反复研究确定了精减机构、压缩人员、服务高效的原则，哈尔滨市第一社会福利院隶属区民政局副处级事业单位，院长由区组织部门选派，副院长以下人员实行竞岗聘任。实施以岗定责、以责定标、以技聘人的办法，把一批责任心强、业务能力精和道德素质高的人选上来，实行能上能下的管理机制。初步拟设5个职能部50余人的服务队伍。采取走出去，请进来的学习方法。争取在较短的时间内达到一流的服务水平，真正做到硬件、软件一起上，打造为老服务我先行的知明品牌，力争利用3至4年时间达到省内行业管理体系认证目标。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>56</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>中共哈尔滨市委办公厅哈尔滨市人民政府办公厅关于在全市建立新闻发言人制度的通知</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2004-03-26</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104545/200403/c01_142450.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['中共哈尔滨市委办公厅哈尔滨市人民政府办公厅关于在全市建立新闻发言人制度的通知 - 哈尔滨市人民政府', '中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅 关于在全市建立新闻发言人 制 度 的 通 知', '各区、县(市)党委和人民政府，市委各部办委，市直各党组、党委(工委)： 为进一步推进政务公开，实现人民群众的知情权，建立有效、顺畅、权威、 快捷的新闻传播和沟通渠道，市委、市政府决定在全市建立和形成组织健全、职 责分明、管理科学、运转高效的新闻发言人制度，为“努力快发展，全面建小康 ，振兴哈尔滨”创造良好的舆论环境。现就有关事宜通知如下： 一、新闻发言人的设立和职责 (一)哈尔滨市新闻发言人由市级领导及市政府秘书长或副秘书长担任；市政 府有关部门和单位新闻发言人由一名局级领导及处级干部担任。设立新闻发言人 的部门和单位要建立新闻发布制度，确定一名新闻发言人联络员，新闻发言人和 联络员名单报市委宣传部备案。 首批设立新闻发言人的地区、部门和单位是：市发展计划委、市国资委(市经 贸委)、市建委、市农委、市物价局、市教育局、市科技局、市公安局、市民政局 、市财政局、市统计局、市劳动和社会保障局、市信息产业局、市畜牧局、市商 业局、市水务局(市防汛．抗旱指挥部)、市林业局(市森林防火指挥部)、市卫生 局、市审计局、市环保局、市质量技术监督局、市粮食局、市外资局、市旅游局 、市药品监督局、市规划局、市安全办、市外事侨务办、市房产住宅局、市城管 局、市交通局、市人事局、市国土资源局、市工商局、开发区管委会、松北区 (二)新闻发言人负责审查本地区、本部门和本单位新闻发布的内容，确定宣 传报道口径，提出召开新闻发布会的时间；在新闻发布会上向新闻媒体记者发布 新闻，并接受采访；也可根据需要，以发言人名义在新闻媒体上发表谈话。新闻 发布必须符合党的路线、方针、政策和国家的法律法规；必须坚持正确舆论导向 ，促进社会发展和维护社会稳定；必须客观、准确，实事求是。 二、新闻发布工作的内容和形式 (一)新闻发布要及时公布全市改革发展的新政策、新举措和重大决定；全市 经济社会发展的重要情况；人民群众关心的热点问题和社会敏感问题及解决情况 ；重大突发事件和重大活动的有关情况；需要人民群众了解的其它问题。 (二)新闻发布类型分为专题发布、日常发布和紧急发布；新闻发布的形式包 括召开新闻发布会、新闻发言人接受新闻媒体采访，以及在新闻媒体上公布新闻 发言人谈话等；新闻发布的时间由不定期发布向定期定点发布过渡。 (三)新闻发布会一般邀请中、省直和市属新闻媒体记者参加，根据会议内容 ，也可邀请其他有关人员或市民代表参加。新闻发布会原则上由市政府新闻办主 任或副主任主持，也可根据新闻发布内容，责成有关部门领导主持。 三、新闻发布工作的管理 (一)新闻发布工作在市委、市政府领导下，在市委宣传部指导下，由市政府 新闻办协调管理；召开新闻发布会等相关工作由市政府新闻办组织落实。 (二)市政府召开新闻发布会，要根据新闻发布内容报市政府主管领导核准； 市政府有关部门召开新闻发布会，要将新闻发布内容报市政府秘书长核准，重要 的新闻发布内容须报市政府主管领导核准，同时送市政府新闻办备案。 (三)凡需邀请境外记者参加的新闻发布会，要提前报市政府新闻办审批，由 市政府新闻办协调市外事办、市台办邀请境外记者。 (四)凡属重大突发事件的新闻发布，要按照市委、市政府《关于做好突发事 件新闻报道工作的通知》(哈办发〔2003〕45号)要求，由牵头处理部门迅速提供 基本情况，报经市委、市政府领导同意后，由市政府新闻办组织召开发布会，由 牵头处理部门的新画发言人发布。 四、工作要求 (一)切实加强领导。建立新闻发言人制度，是新形势下改进和加强新闻宣传 工作的重要举措，各级领导要充分认识建立新闻发言人制度的重要意义，从实践 “三个代表”重要思想的高度，把新闻发布工作摆上重要位置，切实加强领导， 定期研究部署，为新闻发言人提供必要的工作条件，确保新闻发布工作顺利开展 。 (二)选好新闻发言人。设立新闻发言人的地区、部门和单位要选择掌握党的 路线、方针、政策，熟知本地区、本部门、本单位情况，具有较强的应变能力和 语言表达能力的同志担任新闻发言人。新闻发言人要努力学习党的路线、方针、 政策和新闻发布知识，注意总结积累经验，认真履行职责。市委宣传部、市政府 新闻办要通过举办培训班和组织学习考察、经验交流等形式，提高新闻发言人的 工作水平。 (三)抓好协调管理。市政府新闻办要担负起协调管理的职责，及时传达中央 和省、市委关于加强新闻宣传工作的精神，按照市委、市政府的要求，开展新闻 发布工作。要建立新闻发言人联系制度，通过召开联席会议，通报情况，研究问 题，推进工作。要加强与新闻媒体的联系，建立渠道顺畅的工作网络，为新闻媒 体采访提供必要的条件。 中共哈尔滨市委办公厅 哈尔滨市人民政府办公厅 2004年3月26日']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>56</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>冰城新闻南粤大地招商哈尔滨收获满满月日至日哈尔滨市代表团随黑龙江省代表团赴广东开展学习考察暨经贸交流活动往返广州转战深圳和珠海紧锣密鼓星夜兼程连续召开多场恳谈会美食品鉴会和对接交流会累计签订合作协议项</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://weibo.com/2753006425/KgsbYlW0K?from=page_1001062753006425_profile&amp;wvr=6&amp;mod=weibotime</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['#冰城新闻#【南粤大地招商 哈尔滨收获满满】5月5日至11日，哈尔滨市代表团随黑龙江省代表团赴广东开展学习考察暨经贸交流活动，往返广州、转战深圳和珠海，紧锣密鼓，星夜兼程，连续召开多场恳谈会、美食品鉴会和对接交流会，累计签订合作协议34项，签约投资额281.22亿元，挖掘合作线索300余项。 \u200b\u200b\u200b']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>56</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>哈尔滨市人民政府转发黑龙江省人民政府关于加强县级政府依法行政工作的决定的通知</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2006-05-31</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.harbin.gov.cn/haerbin/c104546/200605/c01_84581.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['哈尔滨市人民政府转发黑龙江省人民政府关于加强县级政府依法行政工作的决定的通知 - 哈尔滨市人民政府', '各区、县（市）人民政府，市政府各委、办、局：\ue004 现将《黑龙江省人民政府关于加强县级政府依法行政工作的决定》（黑政发〔2006〕23号，以下简称《决定》）予以转发，并提出如下意见，请一并贯彻执行。\ue004 一、加强领导，认真做好《决定》的贯彻落实工作。各区、县（市）政府要按照《决定》要求，成立以主要领导为组长的全面推进依法行政工作领导小组，全面负责本地区贯彻落实《决定》的组织和领导工作。要在近期召开依法行政工作会议，部署工作任务，明确工作要求。结合《哈尔滨市经济和社会发展“十一五”法治政府专项规划》、《哈尔滨市推进依法行政三年计划》和本地区的实际，制定贯彻落实《决定》的具体办法和措施，明确依法行政工作的目标任务和时限要求，并将各项任务分解到所属各部门、乡镇政府和街道办事处，确保落到实处。各区、县（市）政府法制机构具体负责实施方案的制定、协调指导和督促检查工作，要在6月中旬将本地区贯彻实施《决定》的意见报市政府法制办，同时抄送省政府法制办。\ue004 二、精心筹划，进一步夯实区、县（市）依法行政工作基础。各区、县（市）政府要结合实际，制定本地区推进依法行政工作年度计划。要以加强区、县（市）依法行政基础性工作为重点，以落实《哈尔滨市人民政府2006年推进依法行政计划》为切入点，建立健全本地区推进依法行政的制度、机制，认真落实领导干部学法、科学民主决策、突发事件预警与应急、社会保障、政务公开等制度。按照《决定》要求，结合落实省编委《关于市（地）县（市）政府（行署）法制机构和人员编制调整的通知》（黑编〔2004〕33号文件）精神，进一步加强区、县（市）政府法制机构建设，配强班子，配齐人员，并为法制机构履行职责提供必要的经费保障。定期或不定期地组织开展对所属部门和乡镇政府、街道办事处机关工作人员法律知识的培训，承担行政执法和行政执法监督任务的人员经考试合格后方可持证上岗。定期开展对行政执法人员法律素质的测试，并将测试情况作为其竞争上岗的重要依据。\ue004 三、典型引路，全面推进依法行政工作。按照《决定》的要求，市政府将确定依法行政示范区、县（市），由市政府法制部门与其建立推进依法行政工作联系制度，组成工作组，指导各区、县（市）制定规划，落实措施，总结经验，带动全市依法行政工作。\ue004 四、加强考核，确保全面完成各项工作任务。建立对区、县（市）政府贯彻落实《决定》工作情况的考评制度，并将其纳入2006年行政执法责任制目标考核体系，对落实《决定》情况进行检查和评估，对工作突出的区、县（市）给予表彰，对贯彻落实不力的予以通报批评并限期整改。 哈尔滨市人民政府 二○○六年五月三十一日 \ue003', '大兴安岭地区行政公署，各市、县人民政府，省政府各直属单位：\ue004 为深入贯彻落实国务院《全面推进依法行政实施纲要》（以下简称《纲要》）精神，加强县级政府（含县级市、市辖区政府，下同）法治建设步伐，夯实我省依法行政工作基础，特作如下决定：\ue004 一、健全科学民主决策机制，提高决策能力和水平\ue004 （一）完善政府决策程序，建立健全政府决策机制。要逐步建立并完善公众参与、专家论证和政府决定相结合的行政决策机制。凡是涉及本地经济社会发展的重大决策事项以及专业性较强的决策事项，应当事先组织专家进行必要性和可行性论证；凡是与人民群众利益密切相关的决策事项，应当采取多种形式向社会广泛征求意见；行政决策公布实施前，应当经过本级政府法制机构的合法性审查。\ue004 （二）规范行政决策行为，完善监督和责任追究制度。行政决策必须严格遵守法定权限和法定程序。要坚持民主集中制原则，完善行政首长负责制与重大决策集体讨论研究制度；按照“谁决策、谁负责”的原则，建立健全行政决策后的跟踪落实、督办检查、信息反馈和决策失误责任追究制度。\ue004 （三）认真组织实施《黑龙江省政府信息公开规定》。要大力推进政务公开，建立健全新闻发言人制度，建立和完善政府网站，严格按照规定的内容、程序和方式及时、准确、真实地向社会公开政府信息，保障公民的知情权。\ue004 二、理顺行政执法体制，提高行政执法效能\ue004 （四）依法界定政府部门的职能。要明确职责分工，按照“精简、统一、效能”与权责一致的原则，依法规范政府部门的机构设置和职责权限，逐步实现职能、机构和编制法定化，减少行政机关职能交叉和重叠，降低行政成本，提高行政效率。\ue004 （五）认真清理本地行政区域内的行政执法主体。结合行政执法主体资格审查和执法依据梳理工作，对没有法律、法规明确授权和法定委托执法依据的行政执法机构，要结合事业单位机构改革，取消其行政执法职能；对职权交叉、多头执法，或者因执法力量过散过弱，影响执法效率的执法领域，要合并相关机构。\ue004 （六）积极开展相对集中行政处罚权和综合执法试点工作。要在城市管理领域积极开展相对集中行政处罚权工作，2006年要在全省县（市、区）逐步推开。要在文化、交通、农业、资源环境等适合开展综合执法工作的领域开展综合执法试点工作，在行政执法部门内部只设一支统一承担本部门各项行政处罚和日常监管任务的综合执法队伍。\ue004 （七）完善依法行政的财政保障机制，建立健全集中统一的公共财政体制。具有合法依据的行政执法机关履行法定职责所需经费，统一由财政纳入预算予以保障，并实行国库集中支付；统一清理和规范行政事业性收费等政府非税收入，并向社会公布；坚决取消违法收费项目，取缔行政机关设立的任何形式的“小金库”；严格执行“罚缴分离”和“收缴分离”制度，非税收入必须全部上缴财政，实行收支两条线，收支不得以任何形式挂钩。\ue004 三、建立预防和化解社会矛盾的新机制，保持社会和谐稳定\ue004 （八）积极探索预防和解决社会矛盾的新路子。要畅通社情民意反映渠道，综合运用政策、法律、经济、行政等手段和教育、协商、调解、听证等方法，依法及时合理地处理群众反映的问题，重点解决因企业改制、房屋拆迁、土地征用及“三农”问题引发的涉及群体利益的社会矛盾。县级政府及其所属部门主要领导应当亲自阅批群众来信、接待群众重要来访，研究解决群众提出的合理诉求，切实将社会矛盾化解在萌芽状态，解决在基层，从源头上预防矛盾和纠纷的激化，确保社会和谐稳定。\ue004 （九）建立健全公共安全的预防和应急处理机制。要建立并完善对自然灾害、事故灾难、突发公共卫生和社会安全事件的预警预测、应急指挥处置、抢险救援与物资保障体系，建立统一的应急指挥系统，提高政府应对突发事件和抵御风险能力。\ue004 （十）认真贯彻《中华人民共和国行政复议法》，加强行政复议工作。对符合法律规定的行政复议申请，必须依法及时受理；审理行政复议案件，要重依据、重证据、重程序，公正作出行政复议决定，坚决纠正违法和明显不当的行政行为，保护公民、法人和其他组织的合法权益；任何领导都不允许非法干扰行政复议案件的受理和审理工作；对不履行法定行政复议职责，有案不受或违法办案、拒不执行上级行政机关行政复议决定的有关领导和相关责任人，要依法追究责任。省、市两级政府要加强对县级政府行政复议工作的监督指导，帮助其解决行政复议工作中的困难和问题。\ue004 （十一）依法处理社会矛盾纠纷。凡是符合行政复议立案条件的，县级信访机构要及时告知信访人到行政复议机关依法申请行政复议；对不属于行政复议范围的信访案件，有关行政机关依法处理后，要及时告知信访人到本级人民政府或上级行政机关申请复查复核，防止重复越级上访。\ue004 （十二）实行行政复议人员资格制度，加快行政复议队伍职业化、专业化建设。要认真组织行政复议工作人员的业务培训，并参加由省政府统一组织的资格考试，未取得行政复议资格的人员不得上岗；要根据工作实际，不断充实行政复议人员队伍，保证行政复议工作的需要。\ue004 四、规范行政执法行为，创造优良经济发展环境\ue004 （十三）深入贯彻实施《中华人民共和国行政许可法》，进一步规范行政许可行为。要清理、取消不符合法律规定、妨碍公平竞争和市场开放的行政许可事项，对依法保留的行政许可事项实行目录管理并向社会公布；严格遵守行政许可的条件、程序、期限和收费规定，积极推行行政许可集中办理制度，提高办事效率。\ue004 （十四）坚持“少而精”原则，严格控制并精简行政规范性文件。要严格控制行政规范性文件的制发数量，必须制发的，应严格遵守法定权限和程序；加强规范性文件备案审查工作，确保有件必备、有备必审、有错必纠；逐步实行规范性文件网上电子备案，建立规范性文件数据库和网络查询平台，定期向社会公布文件目录；对本行政区域内的规范性文件，每2年进行一次评估和清理，并适时修改或废止不适应形势发展需要的规范性文件。\ue004 （十五）进一步健全行政处罚、行政许可、行政强制、行政收费等主要行政行为的程序性制度和案件评查制度，建立执法过错责任追究制，约束行政裁量行为，减少执法的随意性；采取有效措施减少和杜绝行政权力与部门或者个人利益挂钩的现象，严禁任何行政执法部门下达罚款指标。\ue004 （十六）进一步推行行政执法责任制。要严格执行国务院和省政府关于全面推行和实施行政执法责任制的有关要求，确保所有县级政府所属行政执法部门和乡镇政府、街道办事处普遍建立和实行行政执法责任制，并将其考核情况纳入本级政府目标考核体系；要逐步加大考核分值，使县级以下各级行政机关落实行政执法责任制的情况真正同其行政首长的政绩、奖惩挂钩。\ue004 （十七）积极开展形式多样的法制宣传教育活动。要利用广播电视、报刊杂志、专题讲座、咨询服务等多种形式，及时将法律、法规、规章和党的方针政策送到基层，增强全民重法、守法的观念，提高行政管理相对人依法维权的意识和能力。\ue004 （十八）各行署、市政府要统一调度所属县级政府和有关部门的监督力量，通过明查暗访的方式对经济社会发展中执法频率高、任务重的领域开展经常性的监督检查。国家和省实行垂直领导的县级单位也要自觉接受所在地县级政府对其行政执法活动的监督。各级监察、审计机关和政府法制机构要加强协同配合，定期通报情况，联合开展检查，形成监督合力。\ue004五、加强行政执法队伍教育，增强执政为民意识\ue004 （十九）教育和督促行政执法人员牢固树立以人为本、执政为民的观念，严格执法、公正执法、文明执法。严把行政执法队伍入口关。对拟进入行政执法队伍的人员一律实行公开招录，凡不符合招录条件的，不得录用为行政执法人员；对具有公务员身份从其他岗位调整到行政执法岗位的人员，要进行法律素质测试，测试不合格的，不得安排在行政执法岗位工作；严禁聘用临时工、合同工等从事行政执法活动。2006年年底前，要对行政执法队伍进行一次整顿，坚决清退所有超编配备的执法人员。\ue004 （二十）定期或不定期地对县级政府所属行政执法部门以及乡镇政府和街道办事处的行政机关工作人员进行法律知识培训。其中承担行政执法和行政执法监督任务的行政机关工作人员，每人每年脱产参加法制培训的时间不得少于1周，重点学习综合法律知识和专业法律知识，经考试合格并取得省人民政府统一颁发的行政执法证件后方可上岗。\ue004 （二十一）县级政府要定期对行政执法人员进行法律素质测试，并将测试情况作为其职务晋升和竞争上岗的重要依据。2007年年底前，省政府法制办、省人事厅要对全省各县级政府所属行政执法人员进行一次统一的行政执法资格考试，考试合格的保留其行政执法资格，经补考仍不合格的一律收缴行政执法证件，调离行政执法岗位。\ue004 六、强化法制机构建设，发挥参谋、助手和顾问作用\ue004 （二十二）进一步加强县级政府法制机构建设。县级政府在机构限额内可以独立设立政府法制办公室，规格为正科级；如不能独立设置，可与县级政府办公室合署办公，并根据实际工作需要，配强班子，配齐人员。县级政府所属部门、乡镇政府和街道办事处要指定专人负责法制工作。\ue004 （二十三）县级政府要为法制机构开展行政执法监督、行政复议、行政应诉、法制宣传和培训等工作提供必要的保障经费，并实行专款专用，不得挤占或挪用，确保工作正常开展。\ue004 （二十四）县级政府法制机构要加强自身建设，工作人员要努力钻研业务，准确把握党和国家的方针政策，精通相关的法律、法规和规章，并要经常深入基层开展调查研究，不断提高政治素质和业务素质，努力当好政府依法行政的参谋、助手和顾问。\ue004 （二十五）省、市两级政府法制机构要加强对县级政府法制机构工作人员的业务培训，每年至少组织2次集中学习培训，并为其工作交流和学习考察创造条件，不断增强依法行政的能力和水平。\ue004 七、加强领导，明确责任，狠抓落实\ue004 （二十六）县级政府及其组成部门的主要领导作为依法行政第一责任人，要对本地、本部门贯彻执行《纲要》、全面推进依法行政工作负总责，分管领导要具体抓，形成一级抓一级、逐级抓落实的领导责任体系。县级政府要成立以主要领导为组长的全面推进依法行政工作领导小组，研究本行政区域内推进依法行政的规划和措施，加强对贯彻落实《纲要》和本决定工作的协调和领导。\ue004 （二十七）认真落实《纲要》提出的领导干部学法制度。要结合实际工作，组织政府组成人员及乡镇政府和街道办事处的领导干部学习党和国家的方针、政策、法律、法规，不断增强法律意识，提高运用法律手段管理经济、公共事务和解决复杂社会问题的能力。每年至少安排2次法律知识讲座。\ue004 （二十八）县级政府要根据本决定要求，结合本地实际情况，制定贯彻落实的具体意见，对县级政府所属部门及乡镇政府和街道办事处依法行政工作提出具体要求，明确任务、落实责任，并在2006年6月底前将实施意见上报上一级政府全面推进依法行政工作领导小组。要自觉接受人大的监督，定期向人大常委会报告推进依法行政工作情况。\ue004 （二十九）各行署、市政府要把贯彻落实《纲要》和本决定的情况，作为本年度行政执法责任制考核的重要内容，加强对县级政府依法行政工作的领导，根据本地实际情况，选择2至3个县（市、区）作为依法行政示范单位，帮助其制定规划、落实措施、总结经验、解决问题，带动本地区的依法行政工作；每年都要召开一次依法行政工作经验总结会，以推动本行政区域内各县级政府的依法行政工作。\ue004 （三十）省、市两级政府要加强对县级政府贯彻落实《纲要》和本决定工作的监督检查，对照工作规划、目标要求和工作进度，抓好督办落实，发现问题及时指出或责令整改。对工作成绩突出的县级政府，给予表彰，对贯彻落实不力的，要予以通报批评。 二○○六年四月十七日']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>56</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>冰城新闻打造对口合作升级版续写深哈携手发展新篇章为深入贯彻党的二十大精神全面落实党中央决策部署和省委工作要求进一步深化深哈对口合作加快打造七大都市月日至日省委常委市委书记张安顺率哈尔滨市党政代表团赴深圳市学习考察</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://weibo.com/2753006425/MDzKx2dyN?from=page_1001062753006425_profile&amp;wvr=6&amp;mod=weibotime</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['#冰城新闻#【打造对口合作“升级版” 续写深哈携手发展新篇章】为深入贯彻党的二十大精神，全面落实党中央决策部署和省委工作要求，进一步深化深哈对口合作，加快打造“七大都市”，4月23日至24日，省委常委、市委书记张安顺率哈尔滨市党政代表团赴深圳市学习考察。 \u200b\u200b\u200b']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>56</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>哈尔滨新闻早报中国黑龙江自由贸易试验区专题会议召开哈尔滨市政府代表团赴广东开展学习考察暨经贸交流活动黑龙江政法英模先进事迹首场巡回宣讲会在哈尔滨举行东安动力与李斯特技术中心上海有限公司签署战略合作框架协议哈市</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://weibo.com/2753006425/KfenEusHU?from=page_1001062753006425_profile&amp;wvr=6&amp;mod=weibotime</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['#哈尔滨新闻早报#【中国（黑龙江）自由贸易试验区专题会议召开】【哈尔滨市政府代表团赴广东开展学习考察暨经贸交流活动】【黑龙江政法英模先进事迹首场巡回宣讲会在哈尔滨举行】【东安动力与李斯特技术中心（上海）有限公司签署战略合作框架协议】【哈市2021年全国防灾减灾日集中宣传活动举行】【道里区东方大街、桃园路获批建设】【哈尔滨海关破获1.83亿元走私手表大案】']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>56</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>省政协组织开展赴哈尔滨新区学习考察活动黄建盛出席并讲话王兆力参加</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-07-29</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650802120&amp;idx=1&amp;sn=6749c621898f6d72d56f1beba7119f24&amp;scene=0</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['为深入学习贯彻省委十二届七次全会精神，7月28日，省政协主席黄建盛带领省政协学习考察组赴哈尔滨就新区建设发展情况开展学习考察活动。省委常委、哈尔滨市委书记王兆力，省政协副主席郝会龙、宫晶堃、张显友、马立群、刘睦终、庞达、迟子建，哈尔滨市政协主席秦恩亭及省政协秘书长夏立华参加活动。', '考察组一行参观了松北规划展览馆，实地考察了深圳（哈尔滨）产业园区项目、中国长城（黑龙江）计算机智能制造基地、绿地国博城等重点产业项目建设情况，近距离感受哈尔滨新区经济发展的巨大活力，进一步坚定发展信心。并召开座谈会，听取了哈尔滨新区建设、优化营商环境以及今后发展思路方向等情况的介绍，围绕新区高质量发展提出了意见和建议。', '黄建盛认为，哈尔滨新区是国家级新区，对于哈尔滨和全省的发展具有极为重要的带动力和影响力。近年来，哈尔滨市委市政府坚决贯彻落实省委决策部署和省政府工作要求，抓新区建设力度大、成效显著。通过此次学习考察，真切感受到了新区发展欣欣向荣、产业项目建设生机勃勃、各项政策推进有条不紊，令人倍感振奋。', '近年来，哈尔滨市委市政府坚决贯彻落实省委决策部署和省政府工作要求，抓新区建设力度大、成效显著。', '通过此次学习考察，真切感受到了新区发展欣欣向荣、产业项目建设生机勃勃、各项政策推进有条不紊，令人倍感振奋。', '黄建盛强调，省委省政府高度重视哈尔滨新区发展，省政协要认真贯彻落实省委关于新区建设的决策部署，充分发挥人才汇集、联系广泛等优势，主动为新区高质量发展出谋划策、牵线搭桥，贡献政协智慧和力量。要为新区招商引资助力，引导全省各级政协委员关注新区、了解新区、宣传新区，带动更多有识之士到新区投资兴业；为新区建言资政助力，组织开展有关议题的协商，为新区发展献计出力；为新区凝聚共识助力，汇聚更多力量，共同推动新区更好发展。', '省委省政府高度重视哈尔滨新区发展，省政协要认真贯彻落实省委关于新区建设的决策部署，充分发挥人才汇集、联系广泛等优势，主动为新区高质量发展出谋划策、牵线搭桥，贡献政协智慧和力量。', '要为新区招商引资助力，引导全省各级政协委员关注新区、了解新区、宣传新区，带动更多有识之士到新区投资兴业；']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>56</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>张安顺率哈尔滨市党政代表团赴深圳市学习考察</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650863473&amp;idx=1&amp;sn=076ed8a3bc342e7110e5eeb0b46409ab&amp;scene=0</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为深入贯彻党的二十大精神，全面落实党中央决策部署和省委工作要求，进一步深化深哈对口合作，加快打造“七大都市”，4月23日、24日，省委常委、市委书记张安顺率哈尔滨市党政代表团赴深圳市进行学习考察。', '4月23日下午，哈尔滨市与深商重点企业家座谈会在深圳市举行，张安顺出席会议并讲话。张安顺代表市委市政府对与会企业家长期以来给予我市经济社会发展的关心和支持表示感谢。他说，深哈对口合作是党中央、国务院实施新一轮东北振兴战略的重要举措。近年来，深哈两地紧扣国家赋予的战略使命，积极主动推进对口合作，持续深入加强协调联动，产业合作规模层次不断提升，体制机制创新实现重大突破，深哈产业园合作平台建设取得重要成果，为深圳企业发展壮大、蓄力赋能带来了更多商机和空间。哈尔滨产业基础优良、科教资源优质、区位条件优越、生态环境优良，具有鲜明的城市特质和独特的比较优势，在科技成果就地转化和产业化、发展“四大经济”、发展战略性新兴产业、推进农产品精深加工、开展对俄贸易等方面发展潜力巨大，是优质企业落子布局、投资兴业的沃土。希望企业家们在良好合作的基础上，牢牢把握我市各种优势机遇交汇叠加、各类有利因素加速集聚的发展契机，来哈洽谈合作，深挖合作潜力、拓展合作领域、实现互利共赢，更好服务国家战略、区域发展，为深哈对口合作向纵深发展、哈尔滨全面振兴全方位振兴取得新突破注入新动能、增添新活力。哈尔滨将进一步增强做好对口合作工作的积极性、主动性、创造性，持续打造市场化、法治化、国际化一流营商环境，为企业在哈发展提供全周期、全流程、全天候优质服务。', '会上，市科技局、哈尔滨新区分别作专题招商推介，金蝶软件有限公司董事会主席兼CEO徐少春，深圳市深商总会、深圳市商业联合会常务会长林慧等深圳重点企业主要负责人，立足企业实际，紧密结合深哈对口合作，围绕数字经济、生物经济、人工智能、精准医疗、现代服务等领域，就加强产业投资、深化合作共赢、助力哈尔滨振兴发展等作交流发言。会后，哈尔滨市人民政府与深圳市深商总会签署战略协议，哈尔滨市企业和投资服务局与深圳市深商总会签署合作协议。', '在深圳期间，张安顺会见了华侨城（深圳）旅游发展集团党委书记、总经理张树民等深圳市企业家，就深化合作共识、拓宽合作空间、提升合作质效进行交流沟通。张安顺热忱邀请深圳企业家朋友关注哈尔滨、走进哈尔滨、深耕哈尔滨，感受哈尔滨新变化、助力哈尔滨新发展，深度参与我市打造“七大都市”发展实践，与哈尔滨共享机遇、共谋发展、共赢未来。', '张安顺还率哈尔滨市党政代表团到华润（集团）有限公司、中建科工集团有限公司考察，并与企业负责人交流座谈，就建立常态化沟通机制、进一步深化地企合作交换意见。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>56</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>互学共进推动新时代东莱精神不断发扬光大牡丹江市政法队伍教育整顿学习考察团到我市东莱街派出所学习考察王兆力杨廷双参加</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-03-22</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650812737&amp;idx=1&amp;sn=d7c17f43e0ee141cc0c52dd48583621f&amp;scene=0</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['互学共进推动新时代“东莱精神”不断发扬光大 牡丹江市政法队伍教育整顿学习考察团到我市东莱街派出所学习考察 | 王兆力杨廷双参加', '3月21日，牡丹江市政法队伍教育整顿学习考察团一行到我市东莱街派出所学习考察。省委常委、市委书记王兆力，牡丹江市委书记杨廷双参加相关活动。', '作为全国最早成立的公安派出所之一，东莱街派出所被誉为“公安战线一面永不褪色的红旗”。70余年来，一代代东莱民警坚守初心使命、传承红色基因，继承发扬“百家熟”“拒腐蚀永不沾”“警民鱼水情”三件传家宝，忠诚履行党和人民赋予的职责使命，特别是近年来坚持和发展新时代“枫桥经验”，以“讲忠诚、爱人民、守清廉、创平安”为基本内涵的新时代“东莱精神”享誉全国。', '在东莱街派出所，考察组一行听取东莱三件传家宝赓续传承的发展历程，通过可视化指挥调度平台观看大东莱圈警务运行机制流程演示，走进所史展厅了解通过不断创新服务，薪火相传打造“百姓之家”的“东莱故事”。', '杨廷双表示，要学习先进理念、先进经验、先进典型，将新时代“东莱精神”的优秀基因复刻到牡丹江公安队伍中，以政法队伍教育整顿的新成效、政法队伍的新面貌、党和人民满意的新业绩庆祝建党100周年。牡丹江市派出所要与东莱街派出所结对子，建立学习交流机制，不断开创公安工作新局面。', '王兆力对兄弟城市来哈考察交流表示欢迎。他说，近年来，全市公安派出所始终坚持以政治建设为统领，牢固树立“人民公安为人民”的初心使命，结合新形势新需求，以东莱街派出所为引领，不断深化警务机制改革，提高服务群众能力，在推进基层社会治理中发挥了重要作用。特别是面对突如其来的新冠肺炎疫情，广大派出所民警、辅警不畏艰险、日夜奋战，出色完成了疫情防控和维护安全稳定任务。经过不断丰富、创新、发展的新时代“东莱精神”，不仅是公安战线学习的榜样，也是激发广大干部群众干事创业热情、强化担当作为的重要力量。希望互学共进，在推动振兴发展中让新时代“东莱精神”不断发扬光大。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>56</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>鹤岗市人大常委会来哈市学习考察人大工作赵铭陪同</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2019-05-29</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650789801&amp;idx=4&amp;sn=fadbae091641ceaaaa8dce37b937edbe&amp;chksm=bef0dc3e898755282898d1872fd7beb0f00e1806913be67f542e8e695f3ec1a0e206115ffa4c&amp;scene=0</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['5月28日，鹤岗市人大常委会主任张新山率队来我市考察人大工作。市人大常委会主任赵铭，副主任张丽欣、顾福林、黄玉生、马旦曰陪同考察。', '考察团先后参观了市人大常委会会议厅、分组会议室、老干部活动室等场所，与市人大对口部门一对一展开工作探讨和交流，气氛热烈融洽。', '座谈会上，赵铭首先代表哈尔滨市人大常委会对鹤岗市人大考察团的到来表示热烈欢迎。张丽欣为考察团介绍了本届市人大常委会的一些基本情况和主要工作情况。随后，赵铭结合工作实际从六个方面与考察团进行了交流。', '人大工作要始终置于党委的领导下，坚持以人民为中心依法有效履职，全力支持“一府一委两院”工作，切实把人大机关建设好，这个指导思想和原则是根本遵循。在立法上，发挥人大主导作用，突出立管用的法、小而精的法、特色鲜明的法，使每部法规都能立得住、行得通、真管用。在监督上，寓支持于监督中，选准切入点，精准发力，注重监督实效。在代表工作上，按照新时代“两个机关”建设的新要求，搭好履职平台，开辟代表联络站等新阵地，激发代表履职热情，增强代表角色意识。在改进作风上，树立鲜明务实的工作目标，在“精、准、深、实”上下功夫，不刷存在感，改进宣传报道方式，善于运用新媒体营造舆论强势引领和助推人大工作。在机关建设上，加强制度建设，推动机关工作实现有效运转，加强思想政治建设，树牢“四个意识”，加强自身学习，提高自身素养，营造风清气正的机关风尚。', '张新山高度评价了哈尔滨市人大常委会的工作，是各地学习的榜样和标杆。他说，这次考察耳目一新，受益匪浅，上了一堂生动的教练课。通过', '哈尔滨市人大这个平台，学习了新理念、新思路、好经验，为鹤岗市人大工作提供了宝贵借鉴，工作有了遵循，希望今后双方能够加强合作交流，并热情邀请哈尔滨市人大常委会的领导和同志们到鹤岗做客。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>56</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>充分发挥代表履职平台作用增强人大工作影响力凝聚力赵铭带队赴广东深圳学习考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650789734&amp;idx=2&amp;sn=5f57963040d95457c5e22744a3434a95&amp;chksm=bef0dcf1898755e75fd76a7ed2a9e0e6435db8ce4d6c854db38fec2da680c30de4512570bce4&amp;scene=0</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['充分发挥代表履职平台作用 增强人大工作影响力凝聚力 | 赵铭带队赴广东、深圳学习考察', '5月13日至18日，哈尔滨市人大常委会主任赵铭带队到广州、深圳就立法、预算监督和代表履职平台建设工作进行学习考察。', '调研组先后与广州市人大常委会、深圳市人大常委会主要负责同志和相关部门同志进行座谈，并先后到广州市黄埔区萝岗街道香雪社区、广州市增城区中新镇山美村、深圳市黄贝街道碧波社区实地调研。', '赵铭表示，百闻不如一见。实地听了、看了、感受了广州、深圳的人大工作和两市基层街道、乡镇人大工作的创新创造、鲜活实践，很受鼓舞。两市人大在立法、监督、代表工作中的一些做法很值得我们思考和学习。人大在政治生活中能否有为有位，很大程度上要依靠代表发挥作用，很多人也是通过代表来看人大工作。现在代表发挥作用更多是在代表大会会议召开期间，闭会期间代表如何履职，是需要着力研究的人大工作的重要课题。我们初期的重点任务是搭建闭会期间代表履职平台，平台建立后就要迅速转入工作内容。广州、深圳各级人大的工作实践给我们以很大启发，这一平台不仅是各级代表扶贫济困、帮助群众、发挥代表先进性的广阔舞台，更重要的是通过这个平台广泛倾听、反映社情民意，有效监督、支持政府工作。要遵循这一思路 ，逐步把代表履职平台建设好，充分发挥作用，不断增强人大常委会工作的影响力、凝聚力。', '调研组还先后到广州励丰文化科技股份有限公司、华为集团东莞松山湖基地、哈工大深圳校区、中国燃气控股有限公司学习考察，并参观了第十五届深圳文博会哈尔滨展馆。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>56</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>赴南粤取真经携手多方合作学经验抓落实推动振兴发展孙喆率市政府代表团赴广东开展学习考察暨经贸交流活动</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650814799&amp;idx=2&amp;sn=01062802e48267c360e38c351c771210&amp;scene=0</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['赴南粤取真经携手多方合作 学经验抓落实推动振兴发展 | 孙喆率市政府代表团赴广东开展学习考察暨经贸交流活动', '为深入贯彻落实党的十九届五中全会精神和习近平总书记关于深入推进东北振兴等重要要求，学习粤港澳大湾区发展经验，深化龙粤对口合作、深哈对口合作，携手构建新发展格局，“五一”假期刚刚结束，市委副书记、市长孙喆就率领市政府代表团随省政府代表团赴广东开展学习考察暨经贸交流活动，历时6天行程，往返广州、转战深圳和珠海，紧锣密鼓，星夜兼程，大宣传、密对接、强合作，共签订合作协议34项，签约额超过280亿元，哈尔滨招商旋风在南粤大地再次刮起。市领导代守仑、栾志成、徐伟参加相关活动。', '活动期间，正处于再现辉煌关键时期的哈尔滨，其蕴含的政策红利和发展机遇得以大力宣传、充分彰显。广州企业家恳谈会、珠海港澳企业和商协会恳谈会，以及广州外资企业和侨商恳谈会接续举办，千余名企业家参会。会上，代表团围绕构建“4+4”现代产业体系，重点介绍了哈尔滨的资源禀赋、区位条件、开放优势、产业基础等情况，哈尔滨新区、综合保税区、临空经济区围绕产业政策和园区特色进行了重点招商推介，特别是孙喆在黑龙江省（深圳）重点产业合作交流恳谈会上，围绕哈尔滨在开启新征程中积蓄的奋进力量、资源禀赋、产业基础和营商环境所作的招商推介，吸引了诸多企业家眼球，令人产生极大兴趣，为未来合作打下了坚实基础。', '“我们在哈尔滨等您”，这是代表团对广东企业家和商协会代表讲的最多的一句话。活动期间，无论是随省政府代表团考察华为松山湖终端总部、华润集团、宝能集团等企业，还是率领市政府代表团深入到广州国际生物岛实验室、广东产融控股等项目和企业实地调研，孙喆都积极介绍哈尔滨基本情况，向企业家宣传哈尔滨的发展机遇，先后与昇辉控股、福达集团、中瑞医药、金誉集团等多家企业负责人和港澳企业家对话沟通、学习交流、推进合作。他还诚邀企业家们到哈尔滨来，联手把哈尔滨像金子一样的机遇挖掘出来，实现共赢发展。广东企业家们被代表团所推介的政策红利、发展机遇、产业基础和真挚情谊所吸引、所感染，纷纷表示近期将到哈尔滨实地考察调研、深入交流对接，力争促成穗哈在绿色食品加工、高端装备制造、文化旅游、现代金融、生物医药、养生养老等方面实现更多务实合作。', '众人拾柴火焰高。在这次学习考察推介活动中，市直部门共同努力，区县（市）上下联动，市工商联、市贸促会、市侨联等团体组织广泛参与，进一步向粤港澳大湾区企业家，全面展现了哈尔滨干部职工通过党史学习教育所激发的振兴发展干劲、所凝聚的奋进力量、所展示的精神面貌，再一次向广大企业家和投资者表明了哈尔滨招商引资的真心、诚心和实心，形成了全市上下爱城市、谋振兴、快发展的良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>56</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市人大常委会召开党组扩大会议传达贯彻落实市委十四届六次全会精神赵铭主持并讲话</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2019-07-16</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650790156&amp;idx=3&amp;sn=860d4907b4ab5aad387be6d53706d3cb&amp;chksm=bef0d29b89875b8d5a030481155a7f2ae9d13c3067a812eedbdb86ebba464fc40fe75bda8caa&amp;scene=27</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['市人大常委会召开党组（扩大）会议传达贯彻落实市委十四届六次全会精神 | 赵铭主持并讲话', '15日，市人大常委会召开党组（扩大）会议，传达贯彻落实市委十四届六次全会精神。市人大常委会党组书记、主任赵铭主持会议并讲话。', '要深入学习领会全会精神，以全会精神统一思想、引领行动。要结合人大职能贯彻落实好全会精神，为加快哈尔滨全面振兴全方位振兴提供法治保障。要持续整顿作风，结合“不忘初心、牢记使命”主题教育来锤炼队伍，以新气象新担当新作为把市委全会要求落到实处。', '要切实提高政治站位，迅速把思想和行动统一到市委的部署要求上来，用全会精神指导实践、推动工作。要聚焦产业项目建设履职行权，人大各专委会、工作机构要主动作为，结合各自的职能和特点围绕产业项目建设情况开展“三查（察）”活动，助推相关职能部门开展工作。要聚焦构建现代产业新体系履职行权，加强对宏观经济运行和支持经济发展相关政策落实的监督，从发挥人大监督职能的角度支持和保障构建现代产业新体系。要聚焦改善营商环境履职行权，对照全会提出的“快干、实干、创新干、廉洁干”的工作要求，利用开展“不忘初心、牢记使命”主题教育检视问题、整改问题的大好契机，进一步转变工作作风、提升工作水平。', '会议还听取了市人大监察和司法委员会、民宗侨外委员会，市人大常委会研究室、办公厅的外出学习考察成果及相关工作汇报。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>56</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>融合南北资源优势携手多方共赢发展哈尔滨市政府与广州企业家恳谈会在穗举行孙喆出席</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650814541&amp;idx=2&amp;sn=45c93623427ec9913750b7b8ea5eaf11&amp;scene=0</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['融合南北资源优势 携手多方共赢发展 | 哈尔滨市政府与广州企业家恳谈会在穗举行 孙喆出席', '为深入贯彻落实党的十九届五中全会精神和习近平总书记关于深入推进东北振兴等重要要求，学习粤港澳大湾区发展经验、推动高质量发展，“五一”假期刚刚结束，哈尔滨市政府代表团就随省政府代表团赴广东开展学习考察暨经贸交流活动，并于5月6日在穗召开以“南北融通共谋发展 穗哈携手再谱华章”为主题的市政府与广州企业家恳谈会。市委副书记、市长孙喆出席会议并与企业家对话，现场气氛活跃、交流热烈、反映良好。副市长栾志成主持会议，市政协副主席、市工商联主席徐伟出席会议。', '会上，多层次、多角度、多领域的哈尔滨有关情况推介引起广大企业家的高度关注，从市工商联的市情介绍到哈尔滨新区的政策优势，从临空经济区的发展潜力到阿城区的绿色食品和文旅资源展示，都吸引了诸多企业家眼球，令人产生极大兴趣，使哈市的历史文化、地理区位、开放特质和科研实力等比较优势，再一次得以大力彰显。', '带着对哈尔滨振兴发展成效的赞许和投资创业的期望，昇辉控股、福达集团、中瑞医药、金誉集团等15家企业负责人代表参会的300余位企业家进行了发言，有的介绍了企业的基本情况，有的回顾在哈多年创业的发展历程、表达了对哈尔滨的热爱，有的提出了很好的意见和建议，他们不仅为哈尔滨的营商环境点赞，更现身说法、以商招商，号召大家到哈尔滨考察交流、投资发展，在绿色食品加工、文化旅游、现代金融、智慧医药等方面开展深度合作，助推哈尔滨加快发展。', '在认真听取企业家代表发言，并一一回应大家关注的热点后，孙喆希望广大企业家抓住当前哈尔滨再现辉煌的关键时期，把哈尔滨这座火车头拉出的城市，经历上世纪二三十年代中西交融商贾云集，新中国成立初期大工业布局，改革开放特别是党的十八大以来，党中央推出“一带一路”倡议、构建新发展格局、东北振兴、深哈合作等系列政策红利叠加所集聚的发展动能利用好、发展好。要抢抓哈尔滨区位优势形成的消费市场机遇，多方联动，共同努力，真正把哈尔滨像金子一样的机遇挖掘出来，实现共赢发展。要合作打造更加优良的营商环境，坚持企业“出题”、政府“答题”，企业有需要、政府有行动，企业有诉求、政府有回应，让广大企业充分享受到惠企利民、人才引进、金融扶持、产业发展等更多政策措施，促进企业在哈加快发展壮大。他还诚邀广州企业家到哈尔滨考察洽谈，发挥自身优势，寻求合作机会，共享发展新机遇，共迎美好新明天。企业家纷纷表示，近期将到哈尔滨实地考察调研、深入交流对接，推动南粤广州与北国冰城实现更多务实合作。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>哈尔滨市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>对接粤港澳资源推动高水平开放哈尔滨市政府与港澳知名企业及商协会恳谈会在珠海举行孙喆出席</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021-05-10</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MjM5NTIzMzUyOA==&amp;mid=2650814668&amp;idx=1&amp;sn=41ceb98700d652a870a47eb46d7b9c79&amp;scene=0</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['对接粤港澳资源 推动高水平开放 | 哈尔滨市政府与港澳知名企业及商协会恳谈会在珠海举行 孙喆出席', '为进一步扩大此次赴广东开展学习考察暨经贸交流活动成果，5月9日下午，哈尔滨市政府代表团在珠海举行港澳知名企业及商协会恳谈会，以“携手粤港澳·共享新机遇”为主题，通过宣传推介、互动交流、现场签约等形式，涵养商业新资源，培育合作新动能，提速哈尔滨开放合作高质量发展。市委副书记、市长孙喆出席会议并与企业家对话交流。副市长栾志成主持会议。', '会上，哈尔滨市贸促会、哈尔滨新区、综保区、临空经济区分别从不同角度宣传推介，使参会企业对哈尔滨的资源禀赋、优势潜能、发展机遇有了新的了解，对哈尔滨的政策优势、开放优势和发展潜力有了新的认识，进一步增强了广大企业家投资创业哈尔滨的信心和决心。现场还签订了涉及农产品精深加工、先进制造业、文化旅游等多个领域的13个合作项目。', '恳谈会得到广大客商的积极响应和广泛参与，粤港澳近300家知名企业和88家商协会、中国贸促会、广东省贸促会、广东国际商会、珠海市贸促会等500余位嘉宾参会。其中，15位嘉宾代表现场进行了发言，对哈尔滨的发展成效给予充分肯定，并将结合企业发展实际，积极参加哈尔滨的振兴发展。企业家纷纷表示，近期将到哈尔滨实地考察、洽谈项目、深化合作。', '孙喆对港澳知名企业及商协会代表的到来表示感谢，对企业家的真知灼见表示敬意。孙喆说，当前哈尔滨已经到了一个再现辉煌的重要时期，从中东铁路建设带动城市兴起，到新中国成立初期的大工业布局，再到改革开放以来，特别是党的十八大以来，党中央推出的“一带一路”倡议、构建新发展格局、东北振兴和龙粤对口合作、深哈对口合作等决策部署，进一步激发了哈尔滨在地理区位、资源禀赋和产业建设等方面的优势和潜力，不仅为加快全面振兴全方位振兴提供了有力条件，也为加强与粤港澳大湾区企业合作带来不可多得的机遇。要把哈尔滨像金子一样的机遇挖掘出来，变成商机和财富，通过大家积极参与、群策群力，使企业有钱赚、百姓有收入、社会有发展。要坚持问题导向，问计于企，问计于民，互通有无，携手推动哈尔滨营商环境发生更多新变化，为广大企业投资创业哈尔滨提供有效保障。同时，他还向与会各界人士发出邀请，希望大家到哈尔滨创业兴业、成就财富梦想，“我们在哈尔滨等您”。', '又讯 恳谈会前，市委副书记、市长孙喆会见了港澳知名企业及商协会代表，并介绍了哈尔滨地理区位、科研基础、资源禀赋等比较优势，以及良好的发展机遇，诚邀大家来哈尔滨考察交流、对接合作。代表表示，哈尔滨发展空间广阔、市场潜力巨大、营商环境优良，可以在旅游文化、农产品深加工、人才交流等领域开展更多卓有成效的务实合作，实现合作共赢。副市长栾志成参加会见。']</t>
         </is>
